--- a/data/nzd0002/nzd0002.xlsx
+++ b/data/nzd0002/nzd0002.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X181"/>
+  <dimension ref="A1:X184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13976,6 +13976,210 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>294.65</v>
+      </c>
+      <c r="C182" t="n">
+        <v>292.94</v>
+      </c>
+      <c r="D182" t="n">
+        <v>288.73</v>
+      </c>
+      <c r="E182" t="n">
+        <v>287.5436363636364</v>
+      </c>
+      <c r="F182" t="n">
+        <v>289.3561538461539</v>
+      </c>
+      <c r="G182" t="n">
+        <v>304.63</v>
+      </c>
+      <c r="H182" t="n">
+        <v>305.4861538461539</v>
+      </c>
+      <c r="I182" t="n">
+        <v>312.13</v>
+      </c>
+      <c r="J182" t="n">
+        <v>321.03</v>
+      </c>
+      <c r="K182" t="n">
+        <v>322.2336363636364</v>
+      </c>
+      <c r="L182" t="n">
+        <v>329.96</v>
+      </c>
+      <c r="M182" t="n">
+        <v>325.69</v>
+      </c>
+      <c r="N182" t="n">
+        <v>318.7</v>
+      </c>
+      <c r="O182" t="n">
+        <v>314.88</v>
+      </c>
+      <c r="P182" t="n">
+        <v>318.1061538461539</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>322.58</v>
+      </c>
+      <c r="R182" t="n">
+        <v>321.89</v>
+      </c>
+      <c r="S182" t="n">
+        <v>326.0636363636364</v>
+      </c>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>303.18</v>
+      </c>
+      <c r="C183" t="n">
+        <v>298.93</v>
+      </c>
+      <c r="D183" t="n">
+        <v>295.28</v>
+      </c>
+      <c r="E183" t="n">
+        <v>295.0490909090909</v>
+      </c>
+      <c r="F183" t="n">
+        <v>298.9038461538461</v>
+      </c>
+      <c r="G183" t="n">
+        <v>301.71</v>
+      </c>
+      <c r="H183" t="n">
+        <v>305.7538461538461</v>
+      </c>
+      <c r="I183" t="n">
+        <v>318.31</v>
+      </c>
+      <c r="J183" t="n">
+        <v>321.1799999999999</v>
+      </c>
+      <c r="K183" t="n">
+        <v>327.4290909090909</v>
+      </c>
+      <c r="L183" t="n">
+        <v>338.89</v>
+      </c>
+      <c r="M183" t="n">
+        <v>332.31</v>
+      </c>
+      <c r="N183" t="n">
+        <v>325.43</v>
+      </c>
+      <c r="O183" t="n">
+        <v>320.55</v>
+      </c>
+      <c r="P183" t="n">
+        <v>318.8238461538461</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>323.14</v>
+      </c>
+      <c r="R183" t="n">
+        <v>329.18</v>
+      </c>
+      <c r="S183" t="n">
+        <v>331.3290909090909</v>
+      </c>
+      <c r="T183" t="n">
+        <v>337.94</v>
+      </c>
+      <c r="U183" t="n">
+        <v>363.29</v>
+      </c>
+      <c r="V183" t="n">
+        <v>401.35</v>
+      </c>
+      <c r="W183" t="n">
+        <v>334.22</v>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>313.2988888888889</v>
+      </c>
+      <c r="C184" t="n">
+        <v>299.4688888888889</v>
+      </c>
+      <c r="D184" t="n">
+        <v>291.3588888888889</v>
+      </c>
+      <c r="E184" t="n">
+        <v>286.1436363636363</v>
+      </c>
+      <c r="F184" t="n">
+        <v>283.8607692307692</v>
+      </c>
+      <c r="G184" t="n">
+        <v>295.5266666666667</v>
+      </c>
+      <c r="H184" t="n">
+        <v>303.2607692307692</v>
+      </c>
+      <c r="I184" t="n">
+        <v>311.45</v>
+      </c>
+      <c r="J184" t="n">
+        <v>314.67</v>
+      </c>
+      <c r="K184" t="n">
+        <v>323.4036363636364</v>
+      </c>
+      <c r="L184" t="n">
+        <v>335</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13987,7 +14191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15815,6 +16019,36 @@
       </c>
       <c r="B182" t="n">
         <v>1.02</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>
@@ -15983,28 +16217,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.095401161763995</v>
+        <v>-0.9593755039275726</v>
       </c>
       <c r="J2" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K2" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1526892903678336</v>
+        <v>0.1187049066405942</v>
       </c>
       <c r="M2" t="n">
-        <v>15.47583540301808</v>
+        <v>15.89260741884954</v>
       </c>
       <c r="N2" t="n">
-        <v>386.45568796993</v>
+        <v>405.7626542475061</v>
       </c>
       <c r="O2" t="n">
-        <v>19.65847623723492</v>
+        <v>20.14355118263674</v>
       </c>
       <c r="P2" t="n">
-        <v>293.6248355575461</v>
+        <v>292.4296217188137</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16060,28 +16294,28 @@
         <v>0.0561</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8523933986184348</v>
+        <v>-0.7368243229175733</v>
       </c>
       <c r="J3" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K3" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1177550818414784</v>
+        <v>0.08889252261781078</v>
       </c>
       <c r="M3" t="n">
-        <v>13.83935437506891</v>
+        <v>14.22643394836733</v>
       </c>
       <c r="N3" t="n">
-        <v>305.973209886155</v>
+        <v>319.3976327232362</v>
       </c>
       <c r="O3" t="n">
-        <v>17.49208992333835</v>
+        <v>17.871699211973</v>
       </c>
       <c r="P3" t="n">
-        <v>285.766045699314</v>
+        <v>284.7087297258848</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16137,28 +16371,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7801059929769425</v>
+        <v>-0.6761615561449883</v>
       </c>
       <c r="J4" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1144851310743306</v>
+        <v>0.08718942984753297</v>
       </c>
       <c r="M4" t="n">
-        <v>13.18497432488835</v>
+        <v>13.46897532689324</v>
       </c>
       <c r="N4" t="n">
-        <v>262.2601704784677</v>
+        <v>272.4992102918234</v>
       </c>
       <c r="O4" t="n">
-        <v>16.19444875500453</v>
+        <v>16.50755009963088</v>
       </c>
       <c r="P4" t="n">
-        <v>282.2538006261565</v>
+        <v>281.3005293660252</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -16214,28 +16448,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5471828331918466</v>
+        <v>-0.4652968688579791</v>
       </c>
       <c r="J5" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K5" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06554880206874536</v>
+        <v>0.04824816862610193</v>
       </c>
       <c r="M5" t="n">
-        <v>12.60049138566188</v>
+        <v>12.78182189673092</v>
       </c>
       <c r="N5" t="n">
-        <v>237.9146382132634</v>
+        <v>243.2944854487022</v>
       </c>
       <c r="O5" t="n">
-        <v>15.42448178102796</v>
+        <v>15.59790003329622</v>
       </c>
       <c r="P5" t="n">
-        <v>279.8989378983923</v>
+        <v>279.1539214066576</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -16291,28 +16525,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5656001333478228</v>
+        <v>-0.4920671064249084</v>
       </c>
       <c r="J6" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K6" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07717315107155709</v>
+        <v>0.05967849548333659</v>
       </c>
       <c r="M6" t="n">
-        <v>11.79177043255324</v>
+        <v>11.94235175982101</v>
       </c>
       <c r="N6" t="n">
-        <v>214.7954654518691</v>
+        <v>219.1544455500309</v>
       </c>
       <c r="O6" t="n">
-        <v>14.65590206885503</v>
+        <v>14.80386589881275</v>
       </c>
       <c r="P6" t="n">
-        <v>283.8657188760079</v>
+        <v>283.2086872262961</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -16368,28 +16602,28 @@
         <v>0.0732</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4452707538326618</v>
+        <v>-0.3628429133285613</v>
       </c>
       <c r="J7" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K7" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06156839549024595</v>
+        <v>0.04106738770780083</v>
       </c>
       <c r="M7" t="n">
-        <v>10.33270117880304</v>
+        <v>10.59661936704538</v>
       </c>
       <c r="N7" t="n">
-        <v>171.372735747708</v>
+        <v>178.3118517950239</v>
       </c>
       <c r="O7" t="n">
-        <v>13.090940980224</v>
+        <v>13.3533460898392</v>
       </c>
       <c r="P7" t="n">
-        <v>287.5883721703166</v>
+        <v>286.8609739076683</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -16445,28 +16679,28 @@
         <v>0.082</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4173183720236862</v>
+        <v>-0.3542170768537601</v>
       </c>
       <c r="J8" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K8" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04722091367281478</v>
+        <v>0.03481060404691139</v>
       </c>
       <c r="M8" t="n">
-        <v>11.65956105090174</v>
+        <v>11.80131027500328</v>
       </c>
       <c r="N8" t="n">
-        <v>200.4271446714496</v>
+        <v>202.8029535104164</v>
       </c>
       <c r="O8" t="n">
-        <v>14.15722941367589</v>
+        <v>14.240890193749</v>
       </c>
       <c r="P8" t="n">
-        <v>296.5055761742353</v>
+        <v>295.947994739132</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -16522,28 +16756,28 @@
         <v>0.0555</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3760509283408627</v>
+        <v>-0.3087639217955354</v>
       </c>
       <c r="J9" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K9" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03646360892390321</v>
+        <v>0.0250967763213088</v>
       </c>
       <c r="M9" t="n">
-        <v>11.70393816677791</v>
+        <v>11.82940304856045</v>
       </c>
       <c r="N9" t="n">
-        <v>211.7525105820081</v>
+        <v>214.6573935464869</v>
       </c>
       <c r="O9" t="n">
-        <v>14.55171847521825</v>
+        <v>14.6511908576227</v>
       </c>
       <c r="P9" t="n">
-        <v>303.6863730878533</v>
+        <v>303.091956304314</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -16599,28 +16833,28 @@
         <v>0.0577</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3187204764188452</v>
+        <v>-0.2681242184432618</v>
       </c>
       <c r="J10" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K10" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02941091628217551</v>
+        <v>0.02137854085112123</v>
       </c>
       <c r="M10" t="n">
-        <v>11.04237937761677</v>
+        <v>11.12802501778689</v>
       </c>
       <c r="N10" t="n">
-        <v>191.3012860659233</v>
+        <v>191.9140802009726</v>
       </c>
       <c r="O10" t="n">
-        <v>13.83117081327258</v>
+        <v>13.85330574992744</v>
       </c>
       <c r="P10" t="n">
-        <v>311.8434675274517</v>
+        <v>311.396406892476</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -16676,28 +16910,28 @@
         <v>0.0601</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3478545286907222</v>
+        <v>-0.3035845507703825</v>
       </c>
       <c r="J11" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K11" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03858080062466607</v>
+        <v>0.03030097774460883</v>
       </c>
       <c r="M11" t="n">
-        <v>10.51431928009299</v>
+        <v>10.58264436604877</v>
       </c>
       <c r="N11" t="n">
-        <v>169.6804203117645</v>
+        <v>169.6329796196567</v>
       </c>
       <c r="O11" t="n">
-        <v>13.02614372374896</v>
+        <v>13.02432261653775</v>
       </c>
       <c r="P11" t="n">
-        <v>320.0631004305762</v>
+        <v>319.6663958691094</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -16753,28 +16987,28 @@
         <v>0.0457</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3043567269799838</v>
+        <v>-0.2507693365947928</v>
       </c>
       <c r="J12" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K12" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0244417012709035</v>
+        <v>0.01702335043616754</v>
       </c>
       <c r="M12" t="n">
-        <v>11.54165221224371</v>
+        <v>11.63562675822767</v>
       </c>
       <c r="N12" t="n">
-        <v>212.2106461473099</v>
+        <v>212.9733053691735</v>
       </c>
       <c r="O12" t="n">
-        <v>14.56745160099425</v>
+        <v>14.59360494768765</v>
       </c>
       <c r="P12" t="n">
-        <v>326.2899732326152</v>
+        <v>325.8174352825313</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -16830,28 +17064,28 @@
         <v>0.0704</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1426075518636027</v>
+        <v>-0.1128895773457241</v>
       </c>
       <c r="J13" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K13" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005338365790169997</v>
+        <v>0.003406059477912726</v>
       </c>
       <c r="M13" t="n">
-        <v>11.72941221101543</v>
+        <v>11.75227933817021</v>
       </c>
       <c r="N13" t="n">
-        <v>219.9304965618719</v>
+        <v>219.4876274183439</v>
       </c>
       <c r="O13" t="n">
-        <v>14.83005382869098</v>
+        <v>14.81511482973871</v>
       </c>
       <c r="P13" t="n">
-        <v>319.2826324691709</v>
+        <v>319.0224519589563</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -16907,28 +17141,28 @@
         <v>0.0699</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1037807219939476</v>
+        <v>-0.07884325642835016</v>
       </c>
       <c r="J14" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K14" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002851611440004787</v>
+        <v>0.001680073596442178</v>
       </c>
       <c r="M14" t="n">
-        <v>11.88867842286305</v>
+        <v>11.89164539500404</v>
       </c>
       <c r="N14" t="n">
-        <v>216.9303178681083</v>
+        <v>215.8965637606837</v>
       </c>
       <c r="O14" t="n">
-        <v>14.72855450708277</v>
+        <v>14.69341906299156</v>
       </c>
       <c r="P14" t="n">
-        <v>313.6762977934515</v>
+        <v>313.4581780970591</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -16984,28 +17218,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.05336344576489742</v>
+        <v>-0.03457476187263414</v>
       </c>
       <c r="J15" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K15" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0008431019670372963</v>
+        <v>0.0003619203722011743</v>
       </c>
       <c r="M15" t="n">
-        <v>10.8285355039488</v>
+        <v>10.81760409746204</v>
       </c>
       <c r="N15" t="n">
-        <v>193.2470096465096</v>
+        <v>191.8710956788557</v>
       </c>
       <c r="O15" t="n">
-        <v>13.9013312185024</v>
+        <v>13.85175424554073</v>
       </c>
       <c r="P15" t="n">
-        <v>310.7711441372364</v>
+        <v>310.6062438911531</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -17061,28 +17295,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.08736631712626147</v>
+        <v>-0.07019829065228611</v>
       </c>
       <c r="J16" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K16" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002067209799860747</v>
+        <v>0.00136696549690718</v>
       </c>
       <c r="M16" t="n">
-        <v>11.69783139807196</v>
+        <v>11.6556312093788</v>
       </c>
       <c r="N16" t="n">
-        <v>210.9969896373952</v>
+        <v>209.2005626346413</v>
       </c>
       <c r="O16" t="n">
-        <v>14.52573542501016</v>
+        <v>14.46376723522061</v>
       </c>
       <c r="P16" t="n">
-        <v>313.0795949826462</v>
+        <v>312.9290923439008</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -17138,28 +17372,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.04778433216692218</v>
+        <v>-0.02609097980325407</v>
       </c>
       <c r="J17" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K17" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006837854755938899</v>
+        <v>0.0002086494519687454</v>
       </c>
       <c r="M17" t="n">
-        <v>11.00087964337936</v>
+        <v>10.99700511967093</v>
       </c>
       <c r="N17" t="n">
-        <v>189.1329103673214</v>
+        <v>187.8407095274623</v>
       </c>
       <c r="O17" t="n">
-        <v>13.75256013865496</v>
+        <v>13.70549924400648</v>
       </c>
       <c r="P17" t="n">
-        <v>314.9130023916526</v>
+        <v>314.7230127170237</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -17215,28 +17449,28 @@
         <v>0.0524</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.08733997862779815</v>
+        <v>-0.04970572355713756</v>
       </c>
       <c r="J18" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K18" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001538533589289459</v>
+        <v>0.0005066064367684753</v>
       </c>
       <c r="M18" t="n">
-        <v>13.73495668594363</v>
+        <v>13.79740784200817</v>
       </c>
       <c r="N18" t="n">
-        <v>278.3791780091793</v>
+        <v>278.2103827865687</v>
       </c>
       <c r="O18" t="n">
-        <v>16.68469891874526</v>
+        <v>16.67963976788973</v>
       </c>
       <c r="P18" t="n">
-        <v>311.5936037920017</v>
+        <v>311.2570931695734</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -17292,28 +17526,28 @@
         <v>0.0616</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1961119475266405</v>
+        <v>-0.1651613513641845</v>
       </c>
       <c r="J19" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K19" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009852055823746708</v>
+        <v>0.007118058852133347</v>
       </c>
       <c r="M19" t="n">
-        <v>11.70646422337222</v>
+        <v>11.76103020784599</v>
       </c>
       <c r="N19" t="n">
-        <v>216.7521942163473</v>
+        <v>216.3801899311418</v>
       </c>
       <c r="O19" t="n">
-        <v>14.72250638364091</v>
+        <v>14.70986709427185</v>
       </c>
       <c r="P19" t="n">
-        <v>320.0544003335045</v>
+        <v>319.7742952404009</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -17369,28 +17603,28 @@
         <v>0.0726</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2579900292440926</v>
+        <v>-0.2488592602827648</v>
       </c>
       <c r="J20" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K20" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02077362973015628</v>
+        <v>0.01956391891320897</v>
       </c>
       <c r="M20" t="n">
-        <v>10.49340627512356</v>
+        <v>10.47718169795806</v>
       </c>
       <c r="N20" t="n">
-        <v>176.4097601305294</v>
+        <v>175.7231192067766</v>
       </c>
       <c r="O20" t="n">
-        <v>13.28193359908599</v>
+        <v>13.25605971647595</v>
       </c>
       <c r="P20" t="n">
-        <v>336.584412303712</v>
+        <v>336.5007126595201</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -17446,28 +17680,28 @@
         <v>0.0529</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2886636958422406</v>
+        <v>-0.2789227374966486</v>
       </c>
       <c r="J21" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K21" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02763593107463458</v>
+        <v>0.02611756011378519</v>
       </c>
       <c r="M21" t="n">
-        <v>10.54889609196661</v>
+        <v>10.53146659520253</v>
       </c>
       <c r="N21" t="n">
-        <v>164.0893867228478</v>
+        <v>163.4504743294956</v>
       </c>
       <c r="O21" t="n">
-        <v>12.80973796464424</v>
+        <v>12.78477509890165</v>
       </c>
       <c r="P21" t="n">
-        <v>362.5345129052566</v>
+        <v>362.4433231847058</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -17523,28 +17757,28 @@
         <v>0.0416</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1148057677513653</v>
+        <v>-0.09293379014444807</v>
       </c>
       <c r="J22" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K22" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004140228217173858</v>
+        <v>0.002721771403565554</v>
       </c>
       <c r="M22" t="n">
-        <v>10.66952241257603</v>
+        <v>10.70768818723606</v>
       </c>
       <c r="N22" t="n">
-        <v>178.9782051355736</v>
+        <v>179.8572706404142</v>
       </c>
       <c r="O22" t="n">
-        <v>13.37827362313888</v>
+        <v>13.41108760095221</v>
       </c>
       <c r="P22" t="n">
-        <v>386.3508824508487</v>
+        <v>386.1472023119405</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -17600,28 +17834,28 @@
         <v>0.0533</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.158202741729269</v>
+        <v>-0.1432525001618238</v>
       </c>
       <c r="J23" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K23" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" t="n">
-        <v>0.008434706914718038</v>
+        <v>0.006975957890698936</v>
       </c>
       <c r="M23" t="n">
-        <v>10.20786281503796</v>
+        <v>10.21649594415188</v>
       </c>
       <c r="N23" t="n">
-        <v>164.5482872662106</v>
+        <v>164.5106238242055</v>
       </c>
       <c r="O23" t="n">
-        <v>12.82763763388297</v>
+        <v>12.82616949148129</v>
       </c>
       <c r="P23" t="n">
-        <v>325.5217469312767</v>
+        <v>325.3836901602934</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -17658,7 +17892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X181"/>
+  <dimension ref="A1:X184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38504,6 +38738,312 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>-34.426722621695916,172.9365522366166</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>-34.426724321133996,172.93745073655938</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>-34.42674856257271,172.93834973061408</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>-34.42674554047365,172.93924812765698</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>-34.42671547805748,172.94014593201646</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>-34.42656403753507,172.941041074226</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>-34.42654213936836,172.94195665400463</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>-34.426427235516606,172.94286616640798</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>-34.42628919031982,172.9437556120873</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>-34.42622043130325,172.94465015511526</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>-34.426093027493955,172.94553916291977</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>-34.426073480978914,172.9464383504233</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>-34.42607838943952,172.9473398469375</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>-34.42605479689719,172.94823865371876</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>-34.42596785359147,172.94913147997943</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>-34.42586969249926,172.9500232466914</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>-34.42581795856831,172.95091939671403</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>-34.4257215138351,172.9518244304097</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>-34.42664570835799,172.93655055249954</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>-34.42667031048327,172.9374495535524</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>-34.42668950251789,172.93834843659982</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>-34.426677865280304,172.93924664441602</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>-34.42662938841917,172.9401440445914</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>-34.426590366590965,172.9410416516438</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>-34.42653972774907,172.94195652125887</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>-34.42637166131608,172.94286109229878</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>-34.4262878416935,172.9437554848181</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>-34.42617371981112,172.9446457466576</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>-34.42601273933987,172.94553158508535</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>-34.42601396167914,172.94643273239978</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>-34.4260178811751,172.9473341351416</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>-34.42600381893144,172.94823384119948</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>-34.425961400949795,172.94913087078058</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>-34.42586465764271,172.95002277131263</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>-34.42575241555254,172.95091320785724</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>-34.42567431197247,172.95181817745618</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>-34.425508675667366,172.9527200409857</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>-34.425109034263215,172.95354152843916</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>-34.42460039872063,172.9543164578571</t>
+        </is>
+      </c>
+      <c r="W183" t="inlineStr">
+        <is>
+          <t>-34.4250135012346,172.95536205364039</t>
+        </is>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>-34.426554468319104,172.93654855468475</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>-34.42666545142822,172.93744944712356</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>-34.42672485840149,172.93834921125207</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>-34.42675816399558,172.93924840432766</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>-34.42676502884455,172.9401470183672</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>-34.426646120470366,172.94104287437318</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>-34.426562187686095,172.94195775754915</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>-34.426433350477126,172.9428667247246</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>-34.426346372075464,172.94376100830507</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>-34.42620991202239,172.94464916234406</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>-34.426047713687126,172.94553488606633</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0002/nzd0002.xlsx
+++ b/data/nzd0002/nzd0002.xlsx
@@ -16062,7 +16062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16153,35 +16153,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16240,27 +16245,28 @@
       <c r="P2" t="n">
         <v>292.4296217188137</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.93661041254214 -34.42937942238128, 172.93642706971735 -34.421005898357556)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.9366104125421</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.42937942238128</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.9364270697174</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.42100589835756</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.9365187411298</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.42519266036942</v>
       </c>
     </row>
@@ -16317,27 +16323,28 @@
       <c r="P3" t="n">
         <v>284.7087297258848</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.93750859311717 -34.42936570284724, 172.93732519245154 -34.42099217911924)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.9375085931172</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.42936570284724</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.9373251924515</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.42099217911924</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.9374168927844</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.42517894098324</v>
       </c>
     </row>
@@ -16394,27 +16401,28 @@
       <c r="P4" t="n">
         <v>281.3005293660252</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.93840677369218 -34.429351983310504, 172.93822331518575 -34.42097845987958)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.9384067736922</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.4293519833105</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.9382233151858</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.42097845987958</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.938315044439</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.42516522159504</v>
       </c>
     </row>
@@ -16471,27 +16479,28 @@
       <c r="P5" t="n">
         <v>279.1539214066576</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.93930495426716 -34.429338263771065, 172.93912143792002 -34.42096474063855)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.9393049542672</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.42933826377106</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.93912143792</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.42096474063855</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.9392131960936</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.42515150220481</v>
       </c>
     </row>
@@ -16548,27 +16557,28 @@
       <c r="P6" t="n">
         <v>283.2086872262961</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.94020313484214 -34.42932454422893, 172.9400195606544 -34.42095102139615)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.9402031348421</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.42932454422893</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.9400195606544</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.42095102139615</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.9401113477483</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.42513778281254</v>
       </c>
     </row>
@@ -16625,27 +16635,28 @@
       <c r="P7" t="n">
         <v>286.8609739076683</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.9411013154171 -34.42931082468409, 172.94091768338876 -34.4209373021524)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.9411013154171</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.42931082468409</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.9409176833888</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.4209373021524</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.9410094994029</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.42512406341825</v>
       </c>
     </row>
@@ -16702,27 +16713,28 @@
       <c r="P8" t="n">
         <v>295.947994739132</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.94210814619765 -34.429294239776354, 172.94164764900128 -34.42092800816952)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.9421081461977</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.42929423977635</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.9416476490013</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.42092800816952</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.9418778975995</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.42511112397294</v>
       </c>
     </row>
@@ -16779,27 +16791,28 @@
       <c r="P9" t="n">
         <v>303.091956304314</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.94312245043199 -34.42923409142285, 172.9423599903061 -34.420882976894354)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.943122450432</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.42923409142285</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>172.9423599903061</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.42088297689435</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>172.942741220369</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.4250585341586</v>
       </c>
     </row>
@@ -16856,27 +16869,28 @@
       <c r="P10" t="n">
         <v>311.396406892476</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.94402800292332 -34.42917551939672, 172.94324008901 -34.42082602001316)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.9440280029233</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.42917551939672</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>172.94324008901</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.42082602001316</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>172.9436340459667</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.42500076970494</v>
       </c>
     </row>
@@ -16933,27 +16947,28 @@
       <c r="P11" t="n">
         <v>319.6663958691094</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.94492358697028 -34.429117580848455, 172.94413561587157 -34.420768083022026)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.9449235869703</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.42911758084846</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>172.9441356158716</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.42076808302203</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>172.9445296014209</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.42494283193524</v>
       </c>
     </row>
@@ -17010,27 +17025,28 @@
       <c r="P12" t="n">
         <v>325.8174352825313</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.94581917101712 -34.4290596422596, 172.9450311427334 -34.42071014599162)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.9458191710171</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.4290596422596</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>172.9450311427334</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.42071014599162</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>172.9454251568753</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.42488489412561</v>
       </c>
     </row>
@@ -17087,27 +17103,28 @@
       <c r="P13" t="n">
         <v>319.0224519589563</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.94671475506385 -34.42900170363016, 172.94592666959548 -34.42065220892192)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.9467147550639</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.42900170363016</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>172.9459266695955</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.42065220892192</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>172.9463207123297</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.42482695627604</v>
       </c>
     </row>
@@ -17164,27 +17181,28 @@
       <c r="P14" t="n">
         <v>313.4581780970591</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.94761033911047 -34.42894376496012, 172.94682219645787 -34.42059427181295)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.9476103391105</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.42894376496012</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>172.9468221964579</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.42059427181295</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>172.9472162677842</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.42476901838653</v>
       </c>
     </row>
@@ -17241,27 +17259,28 @@
       <c r="P15" t="n">
         <v>310.6062438911531</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (172.94850592315692 -34.428885826249505, 172.94771772332035 -34.42053633466472)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>172.9485059231569</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.42888582624951</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>172.9477177233204</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.42053633466472</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>172.9481118232386</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.42471108045712</v>
       </c>
     </row>
@@ -17318,27 +17337,28 @@
       <c r="P16" t="n">
         <v>312.9290923439008</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (172.94940150720322 -34.428827887498294, 172.9486132501832 -34.420478397477176)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>172.9494015072032</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-34.42882788749829</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>172.9486132501832</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-34.42047839747718</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>172.9490073786932</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-34.42465314248773</v>
       </c>
     </row>
@@ -17395,27 +17415,28 @@
       <c r="P17" t="n">
         <v>314.7230127170237</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (172.95029709124944 -34.428769948706474, 172.94950877704625 -34.42042046025037)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>172.9502970912494</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-34.42876994870647</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>172.9495087770462</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-34.42042046025037</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>172.9499029341478</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-34.42459520447842</v>
       </c>
     </row>
@@ -17472,27 +17493,28 @@
       <c r="P18" t="n">
         <v>311.2570931695734</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (172.95119267529543 -34.42871200987405, 172.95040430390964 -34.42036252298428)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>172.9511926752954</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-34.42871200987405</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>172.9504043039096</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-34.42036252298428</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>172.9507984896025</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-34.42453726642916</v>
       </c>
     </row>
@@ -17549,27 +17571,28 @@
       <c r="P19" t="n">
         <v>319.7742952404009</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (172.95221165862085 -34.42864449111529, 172.95110884584838 -34.42031941139659)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>172.9522116586209</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-34.42864449111529</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>172.9511088458484</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-34.42031941139659</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>172.9516602522346</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-34.42448195125594</v>
       </c>
     </row>
@@ -17626,27 +17649,28 @@
       <c r="P20" t="n">
         <v>336.5007126595201</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (172.95341378416035 -34.42850160973546, 172.95150738448936 -34.42027653129545)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>172.9534137841603</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-34.42850160973546</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>172.9515073844894</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-34.42027653129545</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>172.9524605843249</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-34.42438907051546</v>
       </c>
     </row>
@@ -17703,27 +17727,28 @@
       <c r="P21" t="n">
         <v>362.4433231847058</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (172.9544763292095 -34.42829240179059, 172.95208666720748 -34.42015415792421)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>172.9544763292095</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-34.42829240179059</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>172.9520866672075</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-34.42015415792421</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>172.9532814982085</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-34.4242232798574</v>
       </c>
     </row>
@@ -17780,27 +17805,28 @@
       <c r="P22" t="n">
         <v>386.1472023119405</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (172.9553492102246 -34.428117266945094, 172.95295949676148 -34.41997902784592)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>172.9553492102246</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-34.42811726694509</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>172.9529594967615</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-34.41997902784592</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>172.954154353493</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-34.42404814739551</v>
       </c>
     </row>
@@ -17857,27 +17883,28 @@
       <c r="P23" t="n">
         <v>325.3836901602934</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (172.95622209123937 -34.427942131732294, 172.95383232631613 -34.419803897401486)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>172.9562220912394</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-34.42794213173229</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>172.9538323263161</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-34.41980389740149</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>172.9550272087778</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-34.42387301456689</v>
       </c>
     </row>

--- a/data/nzd0002/nzd0002.xlsx
+++ b/data/nzd0002/nzd0002.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X184"/>
+  <dimension ref="A1:X185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14180,6 +14180,64 @@
         </is>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>347.85</v>
+      </c>
+      <c r="M185" t="n">
+        <v>348.2933333333333</v>
+      </c>
+      <c r="N185" t="n">
+        <v>335.6133333333333</v>
+      </c>
+      <c r="O185" t="n">
+        <v>329.9633333333333</v>
+      </c>
+      <c r="P185" t="n">
+        <v>333.2515384615385</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>345.6133333333333</v>
+      </c>
+      <c r="R185" t="n">
+        <v>343.5211111111111</v>
+      </c>
+      <c r="S185" t="n">
+        <v>340.0109090909091</v>
+      </c>
+      <c r="T185" t="n">
+        <v>344.8233333333333</v>
+      </c>
+      <c r="U185" t="n">
+        <v>366.08</v>
+      </c>
+      <c r="V185" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="W185" t="n">
+        <v>341.35</v>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14191,7 +14249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16049,6 +16107,16 @@
       </c>
       <c r="B185" t="n">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.49</v>
       </c>
     </row>
   </sheetData>
@@ -16225,7 +16293,7 @@
         <v>-0.9593755039275726</v>
       </c>
       <c r="J2" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K2" t="n">
         <v>158</v>
@@ -16303,7 +16371,7 @@
         <v>-0.7368243229175733</v>
       </c>
       <c r="J3" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K3" t="n">
         <v>162</v>
@@ -16381,7 +16449,7 @@
         <v>-0.6761615561449883</v>
       </c>
       <c r="J4" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K4" t="n">
         <v>162</v>
@@ -16459,7 +16527,7 @@
         <v>-0.4652968688579791</v>
       </c>
       <c r="J5" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K5" t="n">
         <v>167</v>
@@ -16537,7 +16605,7 @@
         <v>-0.4920671064249084</v>
       </c>
       <c r="J6" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K6" t="n">
         <v>169</v>
@@ -16615,7 +16683,7 @@
         <v>-0.3628429133285613</v>
       </c>
       <c r="J7" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K7" t="n">
         <v>173</v>
@@ -16693,7 +16761,7 @@
         <v>-0.3542170768537601</v>
       </c>
       <c r="J8" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K8" t="n">
         <v>174</v>
@@ -16771,7 +16839,7 @@
         <v>-0.3087639217955354</v>
       </c>
       <c r="J9" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K9" t="n">
         <v>173</v>
@@ -16849,7 +16917,7 @@
         <v>-0.2681242184432618</v>
       </c>
       <c r="J10" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K10" t="n">
         <v>174</v>
@@ -16927,7 +16995,7 @@
         <v>-0.3035845507703825</v>
       </c>
       <c r="J11" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K11" t="n">
         <v>173</v>
@@ -17002,28 +17070,28 @@
         <v>0.0457</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2507693365947928</v>
+        <v>-0.2193664654397683</v>
       </c>
       <c r="J12" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K12" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01702335043616754</v>
+        <v>0.01296891073390083</v>
       </c>
       <c r="M12" t="n">
-        <v>11.63562675822767</v>
+        <v>11.73943176939258</v>
       </c>
       <c r="N12" t="n">
-        <v>212.9733053691735</v>
+        <v>216.3028984814959</v>
       </c>
       <c r="O12" t="n">
-        <v>14.59360494768765</v>
+        <v>14.70723966220364</v>
       </c>
       <c r="P12" t="n">
-        <v>325.8174352825313</v>
+        <v>325.5388732285647</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17080,28 +17148,28 @@
         <v>0.0704</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1128895773457241</v>
+        <v>-0.07716785722270915</v>
       </c>
       <c r="J13" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K13" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003406059477912726</v>
+        <v>0.001572797716372754</v>
       </c>
       <c r="M13" t="n">
-        <v>11.75227933817021</v>
+        <v>11.88748997982711</v>
       </c>
       <c r="N13" t="n">
-        <v>219.4876274183439</v>
+        <v>224.0803180903061</v>
       </c>
       <c r="O13" t="n">
-        <v>14.81511482973871</v>
+        <v>14.96931254568179</v>
       </c>
       <c r="P13" t="n">
-        <v>319.0224519589563</v>
+        <v>318.706996186442</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -17158,28 +17226,28 @@
         <v>0.0699</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.07884325642835016</v>
+        <v>-0.05160705343541649</v>
       </c>
       <c r="J14" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K14" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001680073596442178</v>
+        <v>0.0007189177629044474</v>
       </c>
       <c r="M14" t="n">
-        <v>11.89164539500404</v>
+        <v>11.98186230529263</v>
       </c>
       <c r="N14" t="n">
-        <v>215.8965637606837</v>
+        <v>217.9594688362393</v>
       </c>
       <c r="O14" t="n">
-        <v>14.69341906299156</v>
+        <v>14.76345043803241</v>
       </c>
       <c r="P14" t="n">
-        <v>313.4581780970591</v>
+        <v>313.2179828237231</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -17236,28 +17304,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.03457476187263414</v>
+        <v>-0.01175803398600074</v>
       </c>
       <c r="J15" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K15" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003619203722011743</v>
+        <v>4.191509148687711e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>10.81760409746204</v>
+        <v>10.89798100179659</v>
       </c>
       <c r="N15" t="n">
-        <v>191.8710956788557</v>
+        <v>193.0778788922683</v>
       </c>
       <c r="O15" t="n">
-        <v>13.85175424554073</v>
+        <v>13.89524662941498</v>
       </c>
       <c r="P15" t="n">
-        <v>310.6062438911531</v>
+        <v>310.4043797363298</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -17314,28 +17382,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.07019829065228611</v>
+        <v>-0.04527171946509911</v>
       </c>
       <c r="J16" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K16" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00136696549690718</v>
+        <v>0.0005689596205886716</v>
       </c>
       <c r="M16" t="n">
-        <v>11.6556312093788</v>
+        <v>11.72081900363546</v>
       </c>
       <c r="N16" t="n">
-        <v>209.2005626346413</v>
+        <v>210.754611858297</v>
       </c>
       <c r="O16" t="n">
-        <v>14.46376723522061</v>
+        <v>14.51738998092622</v>
       </c>
       <c r="P16" t="n">
-        <v>312.9290923439008</v>
+        <v>312.7085619834413</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -17392,28 +17460,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02609097980325407</v>
+        <v>0.01115604808482012</v>
       </c>
       <c r="J17" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K17" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002086494519687454</v>
+        <v>3.752444326998727e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>10.99700511967093</v>
+        <v>11.14909928375393</v>
       </c>
       <c r="N17" t="n">
-        <v>187.8407095274623</v>
+        <v>192.5052115965544</v>
       </c>
       <c r="O17" t="n">
-        <v>13.70549924400648</v>
+        <v>13.8746247371435</v>
       </c>
       <c r="P17" t="n">
-        <v>314.7230127170237</v>
+        <v>314.3938522699031</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -17470,28 +17538,28 @@
         <v>0.0524</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04970572355713756</v>
+        <v>-0.01079977339504128</v>
       </c>
       <c r="J18" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K18" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005066064367684753</v>
+        <v>2.36928683097215e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>13.79740784200817</v>
+        <v>13.95238098179131</v>
       </c>
       <c r="N18" t="n">
-        <v>278.2103827865687</v>
+        <v>283.0604234230691</v>
       </c>
       <c r="O18" t="n">
-        <v>16.67963976788973</v>
+        <v>16.82439964524943</v>
       </c>
       <c r="P18" t="n">
-        <v>311.2570931695734</v>
+        <v>310.9062886667014</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -17548,28 +17616,28 @@
         <v>0.0616</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1651613513641845</v>
+        <v>-0.1374320341710479</v>
       </c>
       <c r="J19" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K19" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007118058852133347</v>
+        <v>0.004925265158394865</v>
       </c>
       <c r="M19" t="n">
-        <v>11.76103020784599</v>
+        <v>11.8663371390028</v>
       </c>
       <c r="N19" t="n">
-        <v>216.3801899311418</v>
+        <v>218.5297138695802</v>
       </c>
       <c r="O19" t="n">
-        <v>14.70986709427185</v>
+        <v>14.78275055155773</v>
       </c>
       <c r="P19" t="n">
-        <v>319.7742952404009</v>
+        <v>319.521173554682</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -17626,28 +17694,28 @@
         <v>0.0726</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2488592602827648</v>
+        <v>-0.232049572491025</v>
       </c>
       <c r="J20" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K20" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01956391891320897</v>
+        <v>0.0171500926040975</v>
       </c>
       <c r="M20" t="n">
-        <v>10.47718169795806</v>
+        <v>10.49969605810233</v>
       </c>
       <c r="N20" t="n">
-        <v>175.7231192067766</v>
+        <v>175.9298247217642</v>
       </c>
       <c r="O20" t="n">
-        <v>13.25605971647595</v>
+        <v>13.26385406741812</v>
       </c>
       <c r="P20" t="n">
-        <v>336.5007126595201</v>
+        <v>336.3457709045497</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -17704,28 +17772,28 @@
         <v>0.0529</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2789227374966486</v>
+        <v>-0.2660807216610666</v>
       </c>
       <c r="J21" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K21" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02611756011378519</v>
+        <v>0.02402506582435615</v>
       </c>
       <c r="M21" t="n">
-        <v>10.53146659520253</v>
+        <v>10.52932065380382</v>
       </c>
       <c r="N21" t="n">
-        <v>163.4504743294956</v>
+        <v>163.1306262566987</v>
       </c>
       <c r="O21" t="n">
-        <v>12.78477509890165</v>
+        <v>12.77226002932522</v>
       </c>
       <c r="P21" t="n">
-        <v>362.4433231847058</v>
+        <v>362.3224159829486</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -17782,28 +17850,28 @@
         <v>0.0416</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.09293379014444807</v>
+        <v>-0.07173906318724246</v>
       </c>
       <c r="J22" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K22" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002721771403565554</v>
+        <v>0.001627472047596723</v>
       </c>
       <c r="M22" t="n">
-        <v>10.70768818723606</v>
+        <v>10.7435128545463</v>
       </c>
       <c r="N22" t="n">
-        <v>179.8572706404142</v>
+        <v>180.637855063759</v>
       </c>
       <c r="O22" t="n">
-        <v>13.41108760095221</v>
+        <v>13.44015829757072</v>
       </c>
       <c r="P22" t="n">
-        <v>386.1472023119405</v>
+        <v>385.9486865481275</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -17860,28 +17928,28 @@
         <v>0.0533</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1432525001618238</v>
+        <v>-0.1203837545509153</v>
       </c>
       <c r="J23" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K23" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006975957890698936</v>
+        <v>0.004932461337037952</v>
       </c>
       <c r="M23" t="n">
-        <v>10.21649594415188</v>
+        <v>10.26094449050708</v>
       </c>
       <c r="N23" t="n">
-        <v>164.5106238242055</v>
+        <v>165.7923514950558</v>
       </c>
       <c r="O23" t="n">
-        <v>12.82616949148129</v>
+        <v>12.87603788030525</v>
       </c>
       <c r="P23" t="n">
-        <v>325.3836901602934</v>
+        <v>325.1713428407045</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -17919,7 +17987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X184"/>
+  <dimension ref="A1:X185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39071,6 +39139,88 @@
         </is>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>-34.42593218145923,172.94552398180792</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>-34.42587025823039,172.9464191682718</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>-34.42592632458712,172.94732549249426</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>-34.425919185317355,172.94822585146835</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>-34.42583168417685,172.94911862414122</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>-34.42566260404886,172.95000369395672</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>-34.42562347732301,172.95090103297676</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>-34.425596484314234,172.95180786743933</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>-34.42544771401245,172.9527059109854</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>-34.42508458655561,172.9535343496159</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>-34.42460083685113,172.95431658651154</t>
+        </is>
+      </c>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>-34.42495102393696,172.95534370689248</t>
+        </is>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0002/nzd0002.xlsx
+++ b/data/nzd0002/nzd0002.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X185"/>
+  <dimension ref="A1:X186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14238,6 +14238,80 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>285.89</v>
+      </c>
+      <c r="C186" t="n">
+        <v>281.52</v>
+      </c>
+      <c r="D186" t="n">
+        <v>282.92</v>
+      </c>
+      <c r="E186" t="n">
+        <v>272.5809090909091</v>
+      </c>
+      <c r="F186" t="n">
+        <v>275.0061538461539</v>
+      </c>
+      <c r="G186" t="n">
+        <v>281.07</v>
+      </c>
+      <c r="H186" t="n">
+        <v>288.0861538461539</v>
+      </c>
+      <c r="I186" t="n">
+        <v>295.34</v>
+      </c>
+      <c r="J186" t="n">
+        <v>302.99</v>
+      </c>
+      <c r="K186" t="n">
+        <v>309.8309090909091</v>
+      </c>
+      <c r="L186" t="n">
+        <v>319.16</v>
+      </c>
+      <c r="M186" t="n">
+        <v>309.87</v>
+      </c>
+      <c r="N186" t="n">
+        <v>306.19</v>
+      </c>
+      <c r="O186" t="n">
+        <v>305.2</v>
+      </c>
+      <c r="P186" t="n">
+        <v>308.3061538461538</v>
+      </c>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="n">
+        <v>310.430909090909</v>
+      </c>
+      <c r="T186" t="n">
+        <v>327.35</v>
+      </c>
+      <c r="U186" t="n">
+        <v>352.63</v>
+      </c>
+      <c r="V186" t="n">
+        <v>379.22</v>
+      </c>
+      <c r="W186" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14249,7 +14323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16117,6 +16191,16 @@
       </c>
       <c r="B186" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.27</v>
       </c>
     </row>
   </sheetData>
@@ -16290,28 +16374,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9593755039275726</v>
+        <v>-0.9375821100065611</v>
       </c>
       <c r="J2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K2" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1187049066405942</v>
+        <v>0.1149029838960092</v>
       </c>
       <c r="M2" t="n">
-        <v>15.89260741884954</v>
+        <v>15.91431246015006</v>
       </c>
       <c r="N2" t="n">
-        <v>405.7626542475061</v>
+        <v>405.2174595614846</v>
       </c>
       <c r="O2" t="n">
-        <v>20.14355118263674</v>
+        <v>20.1300138986908</v>
       </c>
       <c r="P2" t="n">
-        <v>292.4296217188137</v>
+        <v>292.2350618215709</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16368,28 +16452,28 @@
         <v>0.0561</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7368243229175733</v>
+        <v>-0.7182799122618906</v>
       </c>
       <c r="J3" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K3" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08889252261781078</v>
+        <v>0.08552492888143237</v>
       </c>
       <c r="M3" t="n">
-        <v>14.22643394836733</v>
+        <v>14.24464590988953</v>
       </c>
       <c r="N3" t="n">
-        <v>319.3976327232362</v>
+        <v>318.9199131595494</v>
       </c>
       <c r="O3" t="n">
-        <v>17.871699211973</v>
+        <v>17.85832895764745</v>
       </c>
       <c r="P3" t="n">
-        <v>284.7087297258848</v>
+        <v>284.5362803748228</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16446,28 +16530,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6761615561449883</v>
+        <v>-0.6535194289364455</v>
       </c>
       <c r="J4" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K4" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08718942984753297</v>
+        <v>0.08233900810517392</v>
       </c>
       <c r="M4" t="n">
-        <v>13.46897532689324</v>
+        <v>13.50685702217188</v>
       </c>
       <c r="N4" t="n">
-        <v>272.4992102918234</v>
+        <v>272.9869023518027</v>
       </c>
       <c r="O4" t="n">
-        <v>16.50755009963088</v>
+        <v>16.52231528423915</v>
       </c>
       <c r="P4" t="n">
-        <v>281.3005293660252</v>
+        <v>281.0894823536707</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16524,28 +16608,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4652968688579791</v>
+        <v>-0.4590259444890299</v>
       </c>
       <c r="J5" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K5" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04824816862610193</v>
+        <v>0.04759044667435519</v>
       </c>
       <c r="M5" t="n">
-        <v>12.78182189673092</v>
+        <v>12.7365562284024</v>
       </c>
       <c r="N5" t="n">
-        <v>243.2944854487022</v>
+        <v>242.0134566658876</v>
       </c>
       <c r="O5" t="n">
-        <v>15.59790003329622</v>
+        <v>15.5567816937144</v>
       </c>
       <c r="P5" t="n">
-        <v>279.1539214066576</v>
+        <v>279.0959330207874</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16602,28 +16686,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4920671064249084</v>
+        <v>-0.4869093016253953</v>
       </c>
       <c r="J6" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K6" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05967849548333659</v>
+        <v>0.05923460929220858</v>
       </c>
       <c r="M6" t="n">
-        <v>11.94235175982101</v>
+        <v>11.89651304999512</v>
       </c>
       <c r="N6" t="n">
-        <v>219.1544455500309</v>
+        <v>217.9773510285837</v>
       </c>
       <c r="O6" t="n">
-        <v>14.80386589881275</v>
+        <v>14.76405604935797</v>
       </c>
       <c r="P6" t="n">
-        <v>283.2086872262961</v>
+        <v>283.1618409974819</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16680,28 +16764,28 @@
         <v>0.0732</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3628429133285613</v>
+        <v>-0.3588347708997977</v>
       </c>
       <c r="J7" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K7" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04106738770780083</v>
+        <v>0.04070824764315872</v>
       </c>
       <c r="M7" t="n">
-        <v>10.59661936704538</v>
+        <v>10.55763121686967</v>
       </c>
       <c r="N7" t="n">
-        <v>178.3118517950239</v>
+        <v>177.3564236578478</v>
       </c>
       <c r="O7" t="n">
-        <v>13.3533460898392</v>
+        <v>13.31752318030075</v>
       </c>
       <c r="P7" t="n">
-        <v>286.8609739076683</v>
+        <v>286.825002353528</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16758,28 +16842,28 @@
         <v>0.082</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3542170768537601</v>
+        <v>-0.3528496224598059</v>
       </c>
       <c r="J8" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K8" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03481060404691139</v>
+        <v>0.03499229000442461</v>
       </c>
       <c r="M8" t="n">
-        <v>11.80131027500328</v>
+        <v>11.7413263642675</v>
       </c>
       <c r="N8" t="n">
-        <v>202.8029535104164</v>
+        <v>201.6523629226083</v>
       </c>
       <c r="O8" t="n">
-        <v>14.240890193749</v>
+        <v>14.20043530750407</v>
       </c>
       <c r="P8" t="n">
-        <v>295.947994739132</v>
+        <v>295.9357097645737</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16836,28 +16920,28 @@
         <v>0.0555</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3087639217955354</v>
+        <v>-0.3085803278169118</v>
       </c>
       <c r="J9" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K9" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0250967763213088</v>
+        <v>0.02539881467071015</v>
       </c>
       <c r="M9" t="n">
-        <v>11.82940304856045</v>
+        <v>11.76232402056682</v>
       </c>
       <c r="N9" t="n">
-        <v>214.6573935464869</v>
+        <v>213.4238756212531</v>
       </c>
       <c r="O9" t="n">
-        <v>14.6511908576227</v>
+        <v>14.6090340413476</v>
       </c>
       <c r="P9" t="n">
-        <v>303.091956304314</v>
+        <v>303.0903082109808</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16914,28 +16998,28 @@
         <v>0.0577</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2681242184432618</v>
+        <v>-0.2698492565261011</v>
       </c>
       <c r="J10" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K10" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02137854085112123</v>
+        <v>0.02192708873789817</v>
       </c>
       <c r="M10" t="n">
-        <v>11.12802501778689</v>
+        <v>11.07251929135672</v>
       </c>
       <c r="N10" t="n">
-        <v>191.9140802009726</v>
+        <v>190.8306473139391</v>
       </c>
       <c r="O10" t="n">
-        <v>13.85330574992744</v>
+        <v>13.81414663719548</v>
       </c>
       <c r="P10" t="n">
-        <v>311.396406892476</v>
+        <v>311.4119129244029</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -16992,28 +17076,28 @@
         <v>0.0601</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3035845507703825</v>
+        <v>-0.3059233798029579</v>
       </c>
       <c r="J11" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K11" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03030097774460883</v>
+        <v>0.03114728379369025</v>
       </c>
       <c r="M11" t="n">
-        <v>10.58264436604877</v>
+        <v>10.53178103519697</v>
       </c>
       <c r="N11" t="n">
-        <v>169.6329796196567</v>
+        <v>168.6819087074458</v>
       </c>
       <c r="O11" t="n">
-        <v>13.02432261653775</v>
+        <v>12.98775995726152</v>
       </c>
       <c r="P11" t="n">
-        <v>319.6663958691094</v>
+        <v>319.6876890792916</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -17070,28 +17154,28 @@
         <v>0.0457</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2193664654397683</v>
+        <v>-0.2202024481052121</v>
       </c>
       <c r="J12" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K12" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01296891073390083</v>
+        <v>0.01323306245366929</v>
       </c>
       <c r="M12" t="n">
-        <v>11.73943176939258</v>
+        <v>11.67636018059683</v>
       </c>
       <c r="N12" t="n">
-        <v>216.3028984814959</v>
+        <v>215.0700990080921</v>
       </c>
       <c r="O12" t="n">
-        <v>14.70723966220364</v>
+        <v>14.66526846014392</v>
       </c>
       <c r="P12" t="n">
-        <v>325.5388732285647</v>
+        <v>325.5463630309645</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17148,28 +17232,28 @@
         <v>0.0704</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07716785722270915</v>
+        <v>-0.08477946380590795</v>
       </c>
       <c r="J13" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K13" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001572797716372754</v>
+        <v>0.001920157647531506</v>
       </c>
       <c r="M13" t="n">
-        <v>11.88748997982711</v>
+        <v>11.85406398271809</v>
       </c>
       <c r="N13" t="n">
-        <v>224.0803180903061</v>
+        <v>223.0579027231699</v>
       </c>
       <c r="O13" t="n">
-        <v>14.96931254568179</v>
+        <v>14.93512312380349</v>
       </c>
       <c r="P13" t="n">
-        <v>318.706996186442</v>
+        <v>318.7748867722877</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -17226,28 +17310,28 @@
         <v>0.0699</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.05160705343541649</v>
+        <v>-0.0580263176056981</v>
       </c>
       <c r="J14" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K14" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0007189177629044474</v>
+        <v>0.0009200276370334715</v>
       </c>
       <c r="M14" t="n">
-        <v>11.98186230529263</v>
+        <v>11.94068012482118</v>
       </c>
       <c r="N14" t="n">
-        <v>217.9594688362393</v>
+        <v>216.8903924066094</v>
       </c>
       <c r="O14" t="n">
-        <v>14.76345043803241</v>
+        <v>14.72719906861483</v>
       </c>
       <c r="P14" t="n">
-        <v>313.2179828237231</v>
+        <v>313.275149642455</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -17304,28 +17388,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01175803398600074</v>
+        <v>-0.01727556903913838</v>
       </c>
       <c r="J15" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K15" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="n">
-        <v>4.191509148687711e-05</v>
+        <v>9.161917485989157e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>10.89798100179659</v>
+        <v>10.85648871966428</v>
       </c>
       <c r="N15" t="n">
-        <v>193.0778788922683</v>
+        <v>192.109367880062</v>
       </c>
       <c r="O15" t="n">
-        <v>13.89524662941498</v>
+        <v>13.86035237214632</v>
       </c>
       <c r="P15" t="n">
-        <v>310.4043797363298</v>
+        <v>310.453669043764</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -17382,28 +17466,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04527171946509911</v>
+        <v>-0.04892031384202863</v>
       </c>
       <c r="J16" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K16" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005689596205886716</v>
+        <v>0.0006729544535972742</v>
       </c>
       <c r="M16" t="n">
-        <v>11.72081900363546</v>
+        <v>11.67129493926534</v>
       </c>
       <c r="N16" t="n">
-        <v>210.754611858297</v>
+        <v>209.6092414494634</v>
       </c>
       <c r="O16" t="n">
-        <v>14.51738998092622</v>
+        <v>14.47788801757575</v>
       </c>
       <c r="P16" t="n">
-        <v>312.7085619834413</v>
+        <v>312.7411556485861</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -17463,7 +17547,7 @@
         <v>0.01115604808482012</v>
       </c>
       <c r="J17" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K17" t="n">
         <v>169</v>
@@ -17541,7 +17625,7 @@
         <v>-0.01079977339504128</v>
       </c>
       <c r="J18" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K18" t="n">
         <v>170</v>
@@ -17616,28 +17700,28 @@
         <v>0.0616</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1374320341710479</v>
+        <v>-0.1437426208582503</v>
       </c>
       <c r="J19" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K19" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004925265158394865</v>
+        <v>0.005451028549468773</v>
       </c>
       <c r="M19" t="n">
-        <v>11.8663371390028</v>
+        <v>11.82189627990118</v>
       </c>
       <c r="N19" t="n">
-        <v>218.5297138695802</v>
+        <v>217.4424344602346</v>
       </c>
       <c r="O19" t="n">
-        <v>14.78275055155773</v>
+        <v>14.74592942002079</v>
       </c>
       <c r="P19" t="n">
-        <v>319.521173554682</v>
+        <v>319.5793388634743</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -17694,28 +17778,28 @@
         <v>0.0726</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.232049572491025</v>
+        <v>-0.2355438654269552</v>
       </c>
       <c r="J20" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K20" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0171500926040975</v>
+        <v>0.01788247986351654</v>
       </c>
       <c r="M20" t="n">
-        <v>10.49969605810233</v>
+        <v>10.45587367678434</v>
       </c>
       <c r="N20" t="n">
-        <v>175.9298247217642</v>
+        <v>174.9486126177048</v>
       </c>
       <c r="O20" t="n">
-        <v>13.26385406741812</v>
+        <v>13.22681415223276</v>
       </c>
       <c r="P20" t="n">
-        <v>336.3457709045497</v>
+        <v>336.378294950673</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -17772,28 +17856,28 @@
         <v>0.0529</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2660807216610666</v>
+        <v>-0.2695160348341192</v>
       </c>
       <c r="J21" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K21" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02402506582435615</v>
+        <v>0.02494420443424572</v>
       </c>
       <c r="M21" t="n">
-        <v>10.52932065380382</v>
+        <v>10.48172365831461</v>
       </c>
       <c r="N21" t="n">
-        <v>163.1306262566987</v>
+        <v>162.1555869313789</v>
       </c>
       <c r="O21" t="n">
-        <v>12.77226002932522</v>
+        <v>12.73403262644552</v>
       </c>
       <c r="P21" t="n">
-        <v>362.3224159829486</v>
+        <v>362.3550871783474</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -17850,28 +17934,28 @@
         <v>0.0416</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.07173906318724246</v>
+        <v>-0.07764741458749634</v>
       </c>
       <c r="J22" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K22" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001627472047596723</v>
+        <v>0.001929893269645322</v>
       </c>
       <c r="M22" t="n">
-        <v>10.7435128545463</v>
+        <v>10.70616681579141</v>
       </c>
       <c r="N22" t="n">
-        <v>180.637855063759</v>
+        <v>179.6302266252189</v>
       </c>
       <c r="O22" t="n">
-        <v>13.44015829757072</v>
+        <v>13.40262014030163</v>
       </c>
       <c r="P22" t="n">
-        <v>385.9486865481275</v>
+        <v>386.0045940730798</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -17928,28 +18012,28 @@
         <v>0.0533</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1203837545509153</v>
+        <v>-0.1268902019142366</v>
       </c>
       <c r="J23" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K23" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004932461337037952</v>
+        <v>0.005542742128466616</v>
       </c>
       <c r="M23" t="n">
-        <v>10.26094449050708</v>
+        <v>10.23576547049542</v>
       </c>
       <c r="N23" t="n">
-        <v>165.7923514950558</v>
+        <v>164.9829166087376</v>
       </c>
       <c r="O23" t="n">
-        <v>12.87603788030525</v>
+        <v>12.84456759134918</v>
       </c>
       <c r="P23" t="n">
-        <v>325.1713428407045</v>
+        <v>325.2323511710597</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -17987,7 +18071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X185"/>
+  <dimension ref="A1:X186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39221,6 +39305,120 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>-34.42680160889774,172.93655396614668</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>-34.42682729302437,172.9374529919791</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>-34.426800950193375,172.93835087843584</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>-34.42688045641216,172.93925108462406</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>-34.42684486914464,172.94014876878748</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>-34.42677647333896,172.94104573312728</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>-34.4266988946194,172.94196528249316</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>-34.42657822108366,172.94287995192605</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>-34.426451385109004,172.94377091835923</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>-34.42633194221755,172.94466067912234</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>-34.42619012850696,172.94554832762117</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>-34.42621571591851,172.94645177600404</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>-34.426190864680606,172.94735046427962</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>-34.42614182806129,172.94824686981445</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>-34.4260559636172,172.94913979852342</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>-34.42586165251025,172.95184299498624</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>-34.42560246509532,172.952741780014</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>-34.4252024437793,172.9535689572433</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>-34.4247943152659,172.95437340044398</t>
+        </is>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>-34.42516877439168,172.95540765044453</t>
+        </is>
+      </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0002/nzd0002.xlsx
+++ b/data/nzd0002/nzd0002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21485,7 +21485,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-34.42611237476447,172.94734305505227</t>
+          <t>-34.42611237476448,172.94734305505227</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -24958,7 +24958,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>-34.426314050449704,172.94465899055845</t>
+          <t>-34.42631405044971,172.94465899055845</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -28599,7 +28599,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>-34.42466033497216,172.95433405779718</t>
+          <t>-34.42466033497217,172.95433405779718</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
@@ -29306,7 +29306,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>-34.42617746168824,172.94825023377862</t>
+          <t>-34.42617746168823,172.94825023377862</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -35351,7 +35351,7 @@
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>-34.42479948520497,172.9543749185735</t>
+          <t>-34.424799485204964,172.9543749185735</t>
         </is>
       </c>
       <c r="W149" t="inlineStr">

--- a/data/nzd0002/nzd0002.xlsx
+++ b/data/nzd0002/nzd0002.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X186"/>
+  <dimension ref="A1:X188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14289,8 +14289,12 @@
       <c r="P186" t="n">
         <v>308.3061538461538</v>
       </c>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
+      <c r="Q186" t="n">
+        <v>304.31</v>
+      </c>
+      <c r="R186" t="n">
+        <v>300.03</v>
+      </c>
       <c r="S186" t="n">
         <v>310.430909090909</v>
       </c>
@@ -14307,6 +14311,160 @@
         <v>316.5</v>
       </c>
       <c r="X186" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>275.4577777777778</v>
+      </c>
+      <c r="C187" t="n">
+        <v>269.0477777777778</v>
+      </c>
+      <c r="D187" t="n">
+        <v>258.3777777777778</v>
+      </c>
+      <c r="E187" t="n">
+        <v>259.5627272727273</v>
+      </c>
+      <c r="F187" t="n">
+        <v>261.9384615384615</v>
+      </c>
+      <c r="G187" t="n">
+        <v>273.6333333333333</v>
+      </c>
+      <c r="H187" t="n">
+        <v>277.4684615384616</v>
+      </c>
+      <c r="I187" t="n">
+        <v>285.89</v>
+      </c>
+      <c r="J187" t="n">
+        <v>293.65</v>
+      </c>
+      <c r="K187" t="n">
+        <v>297.7927272727272</v>
+      </c>
+      <c r="L187" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="M187" t="n">
+        <v>302.3433333333333</v>
+      </c>
+      <c r="N187" t="n">
+        <v>297.2333333333333</v>
+      </c>
+      <c r="O187" t="n">
+        <v>294.8433333333333</v>
+      </c>
+      <c r="P187" t="n">
+        <v>295.5484615384615</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>295.3033333333333</v>
+      </c>
+      <c r="R187" t="n">
+        <v>290.6377777777778</v>
+      </c>
+      <c r="S187" t="n">
+        <v>306.8027272727272</v>
+      </c>
+      <c r="T187" t="n">
+        <v>322.9833333333333</v>
+      </c>
+      <c r="U187" t="n">
+        <v>342.66</v>
+      </c>
+      <c r="V187" t="n">
+        <v>372.57</v>
+      </c>
+      <c r="W187" t="n">
+        <v>317.58</v>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="n">
+        <v>235.8922222222222</v>
+      </c>
+      <c r="D188" t="n">
+        <v>235.4122222222222</v>
+      </c>
+      <c r="E188" t="n">
+        <v>243.3818181818181</v>
+      </c>
+      <c r="F188" t="n">
+        <v>289.6430769230769</v>
+      </c>
+      <c r="G188" t="n">
+        <v>288.4366666666667</v>
+      </c>
+      <c r="H188" t="n">
+        <v>305.2330769230769</v>
+      </c>
+      <c r="I188" t="n">
+        <v>274.66</v>
+      </c>
+      <c r="J188" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="K188" t="n">
+        <v>294.8918181818182</v>
+      </c>
+      <c r="L188" t="n">
+        <v>304.93</v>
+      </c>
+      <c r="M188" t="n">
+        <v>293.5066666666667</v>
+      </c>
+      <c r="N188" t="n">
+        <v>299.2466666666667</v>
+      </c>
+      <c r="O188" t="n">
+        <v>302.9966666666667</v>
+      </c>
+      <c r="P188" t="n">
+        <v>304.2530769230769</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>305.4366666666667</v>
+      </c>
+      <c r="R188" t="n">
+        <v>278.0022222222222</v>
+      </c>
+      <c r="S188" t="n">
+        <v>298.8318181818182</v>
+      </c>
+      <c r="T188" t="n">
+        <v>304.3266666666667</v>
+      </c>
+      <c r="U188" t="n">
+        <v>336.4299999999999</v>
+      </c>
+      <c r="V188" t="n">
+        <v>360.33</v>
+      </c>
+      <c r="W188" t="n">
+        <v>320.7</v>
+      </c>
+      <c r="X188" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14323,7 +14481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16201,6 +16359,26 @@
       </c>
       <c r="B187" t="n">
         <v>-0.27</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.98</v>
       </c>
     </row>
   </sheetData>
@@ -16374,28 +16552,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9375821100065611</v>
+        <v>-0.9288790589566189</v>
       </c>
       <c r="J2" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K2" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1149029838960092</v>
+        <v>0.1143335029558624</v>
       </c>
       <c r="M2" t="n">
-        <v>15.91431246015006</v>
+        <v>15.86287344137863</v>
       </c>
       <c r="N2" t="n">
-        <v>405.2174595614846</v>
+        <v>403.0122685258443</v>
       </c>
       <c r="O2" t="n">
-        <v>20.1300138986908</v>
+        <v>20.07516546696052</v>
       </c>
       <c r="P2" t="n">
-        <v>292.2350618215709</v>
+        <v>292.1571078891344</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16452,28 +16630,28 @@
         <v>0.0561</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7182799122618906</v>
+        <v>-0.7494769845586426</v>
       </c>
       <c r="J3" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K3" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08552492888143237</v>
+        <v>0.09315041446567229</v>
       </c>
       <c r="M3" t="n">
-        <v>14.24464590988953</v>
+        <v>14.25953205175118</v>
       </c>
       <c r="N3" t="n">
-        <v>318.9199131595494</v>
+        <v>320.5413813220059</v>
       </c>
       <c r="O3" t="n">
-        <v>17.85832895764745</v>
+        <v>17.90366949320742</v>
       </c>
       <c r="P3" t="n">
-        <v>284.5362803748228</v>
+        <v>284.8276961675613</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16530,28 +16708,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6535194289364455</v>
+        <v>-0.6938263559237625</v>
       </c>
       <c r="J4" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K4" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08233900810517392</v>
+        <v>0.09247991584896509</v>
       </c>
       <c r="M4" t="n">
-        <v>13.50685702217188</v>
+        <v>13.54259861464374</v>
       </c>
       <c r="N4" t="n">
-        <v>272.9869023518027</v>
+        <v>274.8038335886346</v>
       </c>
       <c r="O4" t="n">
-        <v>16.52231528423915</v>
+        <v>16.57720825677939</v>
       </c>
       <c r="P4" t="n">
-        <v>281.0894823536707</v>
+        <v>281.4667301114895</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16608,28 +16786,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4590259444890299</v>
+        <v>-0.4949955083043232</v>
       </c>
       <c r="J5" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K5" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04759044667435519</v>
+        <v>0.0555008432742049</v>
       </c>
       <c r="M5" t="n">
-        <v>12.7365562284024</v>
+        <v>12.77386907565628</v>
       </c>
       <c r="N5" t="n">
-        <v>242.0134566658876</v>
+        <v>242.7717247526405</v>
       </c>
       <c r="O5" t="n">
-        <v>15.5567816937144</v>
+        <v>15.58113361577522</v>
       </c>
       <c r="P5" t="n">
-        <v>279.0959330207874</v>
+        <v>279.4298738325845</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16686,28 +16864,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4869093016253953</v>
+        <v>-0.4752152831983239</v>
       </c>
       <c r="J6" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K6" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05923460929220858</v>
+        <v>0.05738706764582457</v>
       </c>
       <c r="M6" t="n">
-        <v>11.89651304999512</v>
+        <v>11.91592677815524</v>
       </c>
       <c r="N6" t="n">
-        <v>217.9773510285837</v>
+        <v>217.9717475946185</v>
       </c>
       <c r="O6" t="n">
-        <v>14.76405604935797</v>
+        <v>14.76386628206238</v>
       </c>
       <c r="P6" t="n">
-        <v>283.1618409974819</v>
+        <v>283.0550863690566</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16764,28 +16942,28 @@
         <v>0.0732</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3588347708997977</v>
+        <v>-0.3512130201275462</v>
       </c>
       <c r="J7" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K7" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04070824764315872</v>
+        <v>0.0398976990568376</v>
       </c>
       <c r="M7" t="n">
-        <v>10.55763121686967</v>
+        <v>10.52512040759468</v>
       </c>
       <c r="N7" t="n">
-        <v>177.3564236578478</v>
+        <v>176.0931902525452</v>
       </c>
       <c r="O7" t="n">
-        <v>13.31752318030075</v>
+        <v>13.27001093641393</v>
       </c>
       <c r="P7" t="n">
-        <v>286.825002353528</v>
+        <v>286.7562691998797</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16842,28 +17020,28 @@
         <v>0.082</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3528496224598059</v>
+        <v>-0.3430333125661736</v>
       </c>
       <c r="J8" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K8" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03499229000442461</v>
+        <v>0.03358032715282244</v>
       </c>
       <c r="M8" t="n">
-        <v>11.7413263642675</v>
+        <v>11.77072137566485</v>
       </c>
       <c r="N8" t="n">
-        <v>201.6523629226083</v>
+        <v>201.7715418154978</v>
       </c>
       <c r="O8" t="n">
-        <v>14.20043530750407</v>
+        <v>14.20463099892066</v>
       </c>
       <c r="P8" t="n">
-        <v>295.9357097645737</v>
+        <v>295.8470440710387</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16920,28 +17098,28 @@
         <v>0.0555</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3085803278169118</v>
+        <v>-0.3415957385828138</v>
       </c>
       <c r="J9" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K9" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02539881467071015</v>
+        <v>0.03134530705719274</v>
       </c>
       <c r="M9" t="n">
-        <v>11.76232402056682</v>
+        <v>11.79691615134249</v>
       </c>
       <c r="N9" t="n">
-        <v>213.4238756212531</v>
+        <v>213.7806067294717</v>
       </c>
       <c r="O9" t="n">
-        <v>14.6090340413476</v>
+        <v>14.62123820780825</v>
       </c>
       <c r="P9" t="n">
-        <v>303.0903082109808</v>
+        <v>303.3878293694013</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16998,28 +17176,28 @@
         <v>0.0577</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2698492565261011</v>
+        <v>-0.2978650235063335</v>
       </c>
       <c r="J10" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K10" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02192708873789817</v>
+        <v>0.02700484204462827</v>
       </c>
       <c r="M10" t="n">
-        <v>11.07251929135672</v>
+        <v>11.07639362390077</v>
       </c>
       <c r="N10" t="n">
-        <v>190.8306473139391</v>
+        <v>190.5187847971968</v>
       </c>
       <c r="O10" t="n">
-        <v>13.81414663719548</v>
+        <v>13.80285422647058</v>
       </c>
       <c r="P10" t="n">
-        <v>311.4119129244029</v>
+        <v>311.664702345638</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17076,28 +17254,28 @@
         <v>0.0601</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3059233798029579</v>
+        <v>-0.3400939567030444</v>
       </c>
       <c r="J11" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K11" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03114728379369025</v>
+        <v>0.03858465719438242</v>
       </c>
       <c r="M11" t="n">
-        <v>10.53178103519697</v>
+        <v>10.56072270405401</v>
       </c>
       <c r="N11" t="n">
-        <v>168.6819087074458</v>
+        <v>169.4131522536918</v>
       </c>
       <c r="O11" t="n">
-        <v>12.98775995726152</v>
+        <v>13.01588077133821</v>
       </c>
       <c r="P11" t="n">
-        <v>319.6876890792916</v>
+        <v>319.9999471888019</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -17154,28 +17332,28 @@
         <v>0.0457</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2202024481052121</v>
+        <v>-0.2530123548507162</v>
       </c>
       <c r="J12" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K12" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01323306245366929</v>
+        <v>0.0176228058175536</v>
       </c>
       <c r="M12" t="n">
-        <v>11.67636018059683</v>
+        <v>11.70074899867478</v>
       </c>
       <c r="N12" t="n">
-        <v>215.0700990080921</v>
+        <v>215.1955887971561</v>
       </c>
       <c r="O12" t="n">
-        <v>14.66526846014392</v>
+        <v>14.6695463050892</v>
       </c>
       <c r="P12" t="n">
-        <v>325.5463630309645</v>
+        <v>325.8414379238745</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17232,28 +17410,28 @@
         <v>0.0704</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08477946380590795</v>
+        <v>-0.1249956718471757</v>
       </c>
       <c r="J13" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K13" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001920157647531506</v>
+        <v>0.004194314662158249</v>
       </c>
       <c r="M13" t="n">
-        <v>11.85406398271809</v>
+        <v>11.90482569907323</v>
       </c>
       <c r="N13" t="n">
-        <v>223.0579027231699</v>
+        <v>224.5633218609815</v>
       </c>
       <c r="O13" t="n">
-        <v>14.93512312380349</v>
+        <v>14.98543699265996</v>
       </c>
       <c r="P13" t="n">
-        <v>318.7748867722877</v>
+        <v>319.1350131160021</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -17310,28 +17488,28 @@
         <v>0.0699</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0580263176056981</v>
+        <v>-0.08757931615486751</v>
       </c>
       <c r="J14" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K14" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0009200276370334715</v>
+        <v>0.002128035559435304</v>
       </c>
       <c r="M14" t="n">
-        <v>11.94068012482118</v>
+        <v>11.93097895729378</v>
       </c>
       <c r="N14" t="n">
-        <v>216.8903924066094</v>
+        <v>216.445465579254</v>
       </c>
       <c r="O14" t="n">
-        <v>14.72719906861483</v>
+        <v>14.71208569779465</v>
       </c>
       <c r="P14" t="n">
-        <v>313.275149642455</v>
+        <v>313.5393133087356</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -17388,28 +17566,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01727556903913838</v>
+        <v>-0.04147292848319637</v>
       </c>
       <c r="J15" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K15" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L15" t="n">
-        <v>9.161917485989157e-05</v>
+        <v>0.00053728887310589</v>
       </c>
       <c r="M15" t="n">
-        <v>10.85648871966428</v>
+        <v>10.82710347822334</v>
       </c>
       <c r="N15" t="n">
-        <v>192.109367880062</v>
+        <v>191.4653108890557</v>
       </c>
       <c r="O15" t="n">
-        <v>13.86035237214632</v>
+        <v>13.8370990778073</v>
       </c>
       <c r="P15" t="n">
-        <v>310.453669043764</v>
+        <v>310.670591162089</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -17466,28 +17644,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04892031384202863</v>
+        <v>-0.07419396662896112</v>
       </c>
       <c r="J16" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K16" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0006729544535972742</v>
+        <v>0.001574288050446571</v>
       </c>
       <c r="M16" t="n">
-        <v>11.67129493926534</v>
+        <v>11.6582029706396</v>
       </c>
       <c r="N16" t="n">
-        <v>209.6092414494634</v>
+        <v>208.9155107814566</v>
       </c>
       <c r="O16" t="n">
-        <v>14.47788801757575</v>
+        <v>14.45390987869568</v>
       </c>
       <c r="P16" t="n">
-        <v>312.7411556485861</v>
+        <v>312.9677254028611</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -17544,28 +17722,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01115604808482012</v>
+        <v>-0.03318209916888006</v>
       </c>
       <c r="J17" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K17" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L17" t="n">
-        <v>3.752444326998727e-05</v>
+        <v>0.0003401806014187159</v>
       </c>
       <c r="M17" t="n">
-        <v>11.14909928375393</v>
+        <v>11.13364091395756</v>
       </c>
       <c r="N17" t="n">
-        <v>192.5052115965544</v>
+        <v>192.2843308549008</v>
       </c>
       <c r="O17" t="n">
-        <v>13.8746247371435</v>
+        <v>13.86666257088925</v>
       </c>
       <c r="P17" t="n">
-        <v>314.3938522699031</v>
+        <v>314.7903883304136</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -17622,28 +17800,28 @@
         <v>0.0524</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.01079977339504128</v>
+        <v>-0.0816861671634922</v>
       </c>
       <c r="J18" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K18" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L18" t="n">
-        <v>2.36928683097215e-05</v>
+        <v>0.001365846518017522</v>
       </c>
       <c r="M18" t="n">
-        <v>13.95238098179131</v>
+        <v>13.99283752723043</v>
       </c>
       <c r="N18" t="n">
-        <v>283.0604234230691</v>
+        <v>286.8354520478294</v>
       </c>
       <c r="O18" t="n">
-        <v>16.82439964524943</v>
+        <v>16.936217170544</v>
       </c>
       <c r="P18" t="n">
-        <v>310.9062886667014</v>
+        <v>311.5536250454372</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -17700,28 +17878,28 @@
         <v>0.0616</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1437426208582503</v>
+        <v>-0.1724913402619977</v>
       </c>
       <c r="J19" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K19" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005451028549468773</v>
+        <v>0.00795452233472016</v>
       </c>
       <c r="M19" t="n">
-        <v>11.82189627990118</v>
+        <v>11.79786951278416</v>
       </c>
       <c r="N19" t="n">
-        <v>217.4424344602346</v>
+        <v>217.0196489167199</v>
       </c>
       <c r="O19" t="n">
-        <v>14.74592942002079</v>
+        <v>14.73158677524997</v>
       </c>
       <c r="P19" t="n">
-        <v>319.5793388634743</v>
+        <v>319.845350296433</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -17778,28 +17956,28 @@
         <v>0.0726</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2355438654269552</v>
+        <v>-0.2726312990556058</v>
       </c>
       <c r="J20" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K20" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01788247986351654</v>
+        <v>0.02385414551760523</v>
       </c>
       <c r="M20" t="n">
-        <v>10.45587367678434</v>
+        <v>10.52368600678555</v>
       </c>
       <c r="N20" t="n">
-        <v>174.9486126177048</v>
+        <v>177.0388989147764</v>
       </c>
       <c r="O20" t="n">
-        <v>13.22681415223276</v>
+        <v>13.3055965260779</v>
       </c>
       <c r="P20" t="n">
-        <v>336.378294950673</v>
+        <v>336.7248984756006</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -17856,28 +18034,28 @@
         <v>0.0529</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2695160348341192</v>
+        <v>-0.3063324426228415</v>
       </c>
       <c r="J21" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K21" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02494420443424572</v>
+        <v>0.03218613555527694</v>
       </c>
       <c r="M21" t="n">
-        <v>10.48172365831461</v>
+        <v>10.54758910044882</v>
       </c>
       <c r="N21" t="n">
-        <v>162.1555869313789</v>
+        <v>163.2778584872662</v>
       </c>
       <c r="O21" t="n">
-        <v>12.73403262644552</v>
+        <v>12.77802247952578</v>
       </c>
       <c r="P21" t="n">
-        <v>362.3550871783474</v>
+        <v>362.7066234648476</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -17934,28 +18112,28 @@
         <v>0.0416</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.07764741458749634</v>
+        <v>-0.1187691899478097</v>
       </c>
       <c r="J22" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K22" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001929893269645322</v>
+        <v>0.004514300122742454</v>
       </c>
       <c r="M22" t="n">
-        <v>10.70616681579141</v>
+        <v>10.80019568432382</v>
       </c>
       <c r="N22" t="n">
-        <v>179.6302266252189</v>
+        <v>181.5849760884655</v>
       </c>
       <c r="O22" t="n">
-        <v>13.40262014030163</v>
+        <v>13.47534697469663</v>
       </c>
       <c r="P22" t="n">
-        <v>386.0045940730798</v>
+        <v>386.3953152760255</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -18012,28 +18190,28 @@
         <v>0.0533</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1268902019142366</v>
+        <v>-0.1332821585520508</v>
       </c>
       <c r="J23" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K23" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005542742128466616</v>
+        <v>0.006264584733159051</v>
       </c>
       <c r="M23" t="n">
-        <v>10.23576547049542</v>
+        <v>10.14963784034308</v>
       </c>
       <c r="N23" t="n">
-        <v>164.9829166087376</v>
+        <v>163.1506596038591</v>
       </c>
       <c r="O23" t="n">
-        <v>12.84456759134918</v>
+        <v>12.77304425749238</v>
       </c>
       <c r="P23" t="n">
-        <v>325.2323511710597</v>
+        <v>325.2924928905032</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -18071,7 +18249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X186"/>
+  <dimension ref="A1:X188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39386,8 +39564,16 @@
           <t>-34.4260559636172,172.94913979852342</t>
         </is>
       </c>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>-34.42603395469135,172.95003875595472</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>-34.42601449770149,172.95093795485238</t>
+        </is>
+      </c>
       <c r="S186" t="inlineStr">
         <is>
           <t>-34.42586165251025,172.95184299498624</t>
@@ -39414,6 +39600,246 @@
         </is>
       </c>
       <c r="X186" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>-34.426895674198,172.93655602583596</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>-34.42693975259321,172.93745545521594</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>-34.42702224255109,172.9383557270047</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>-34.426997838768244,172.93925365731323</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>-34.42696269791672,172.9401513520736</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>-34.42684352827211,172.94104720370484</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>-34.426794548583985,172.94197054771777</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>-34.42666320104614,172.94288771092002</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>-34.42653535957062,172.9437788430264</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>-34.426440175559875,172.9446708938305</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>-34.42632445157129,172.94556100549278</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>-34.42628338690159,172.94645816349592</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>-34.426271392515936,172.94735806589526</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>-34.42623494301348,172.94825566026336</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>-34.426170665716285,172.94915062767438</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>-34.42611493196378,172.9500464016674</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>-34.4260989413956,172.9509459284452</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>-34.42589417713445,172.9518473036264</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>-34.425641138103096,172.95275074387044</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>-34.42528980708162,172.95359461069216</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>-34.424852586611834,172.9543905115754</t>
+        </is>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>-34.425159310791265,172.955404871402</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>-34.42723870969067,172.93746200339726</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>-34.427229318410305,172.93836026410918</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>-34.42714373880386,172.939256855039</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>-34.42671289092931,172.94014587529634</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>-34.426710049581054,172.94104427639422</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>-34.42654441931877,172.94195677950273</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>-34.42676418781421,172.9428969314167</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>-34.42657177247904,172.9437822793163</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>-34.4264662571631,172.94467335533068</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>-34.426318068079034,172.94556040299597</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>-34.42636283587105,172.94646566272996</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>-34.426253290985535,172.94735635715716</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>-34.42616163784048,172.9482487399405</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>-34.4260924040975,172.94914323890592</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>-34.426023825039834,172.95003779953427</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>-34.4262125452838,172.9509566555137</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>-34.42596563188277,172.9518567694755</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>-34.42580636925683,172.9527890422109</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>-34.425344398188955,172.9536106409084</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>-34.42495984093113,172.95442200641156</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>-34.425131971500804,172.95539684306038</t>
+        </is>
+      </c>
+      <c r="X188" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0002/nzd0002.xlsx
+++ b/data/nzd0002/nzd0002.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X188"/>
+  <dimension ref="A1:X190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14470,6 +14470,162 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>281.8688888888889</v>
+      </c>
+      <c r="C189" t="n">
+        <v>277.5288888888889</v>
+      </c>
+      <c r="D189" t="n">
+        <v>269.5388888888889</v>
+      </c>
+      <c r="E189" t="n">
+        <v>272.0118181818182</v>
+      </c>
+      <c r="F189" t="n">
+        <v>273.8276923076923</v>
+      </c>
+      <c r="G189" t="n">
+        <v>279.1366666666667</v>
+      </c>
+      <c r="H189" t="n">
+        <v>284.4976923076923</v>
+      </c>
+      <c r="I189" t="n">
+        <v>291.44</v>
+      </c>
+      <c r="J189" t="n">
+        <v>299.12</v>
+      </c>
+      <c r="K189" t="n">
+        <v>304.4218181818182</v>
+      </c>
+      <c r="L189" t="n">
+        <v>311.24</v>
+      </c>
+      <c r="M189" t="n">
+        <v>306.6566666666667</v>
+      </c>
+      <c r="N189" t="n">
+        <v>303.5566666666667</v>
+      </c>
+      <c r="O189" t="n">
+        <v>301.9666666666667</v>
+      </c>
+      <c r="P189" t="n">
+        <v>300.4776923076923</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>297.6766666666667</v>
+      </c>
+      <c r="R189" t="n">
+        <v>296.7888888888889</v>
+      </c>
+      <c r="S189" t="n">
+        <v>308.9418181818182</v>
+      </c>
+      <c r="T189" t="n">
+        <v>325.9366666666667</v>
+      </c>
+      <c r="U189" t="n">
+        <v>344.83</v>
+      </c>
+      <c r="V189" t="n">
+        <v>377.3</v>
+      </c>
+      <c r="W189" t="n">
+        <v>320.62</v>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>255.0111111111111</v>
+      </c>
+      <c r="C190" t="n">
+        <v>254.3211111111111</v>
+      </c>
+      <c r="D190" t="n">
+        <v>251.4711111111112</v>
+      </c>
+      <c r="E190" t="n">
+        <v>257.7436363636364</v>
+      </c>
+      <c r="F190" t="n">
+        <v>261.2807692307692</v>
+      </c>
+      <c r="G190" t="n">
+        <v>269.6133333333333</v>
+      </c>
+      <c r="H190" t="n">
+        <v>284.5407692307692</v>
+      </c>
+      <c r="I190" t="n">
+        <v>283.55</v>
+      </c>
+      <c r="J190" t="n">
+        <v>289.46</v>
+      </c>
+      <c r="K190" t="n">
+        <v>302.7836363636364</v>
+      </c>
+      <c r="L190" t="n">
+        <v>306.19</v>
+      </c>
+      <c r="M190" t="n">
+        <v>298.5933333333333</v>
+      </c>
+      <c r="N190" t="n">
+        <v>292.1633333333333</v>
+      </c>
+      <c r="O190" t="n">
+        <v>297.0833333333333</v>
+      </c>
+      <c r="P190" t="n">
+        <v>307.9407692307692</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>304.8833333333333</v>
+      </c>
+      <c r="R190" t="n">
+        <v>294.1211111111111</v>
+      </c>
+      <c r="S190" t="n">
+        <v>303.5536363636364</v>
+      </c>
+      <c r="T190" t="n">
+        <v>322.4133333333333</v>
+      </c>
+      <c r="U190" t="n">
+        <v>353.63</v>
+      </c>
+      <c r="V190" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="W190" t="n">
+        <v>310.98</v>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14481,7 +14637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16379,6 +16535,26 @@
       </c>
       <c r="B189" t="n">
         <v>-0.98</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -16552,28 +16728,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9288790589566189</v>
+        <v>-0.9284636363240256</v>
       </c>
       <c r="J2" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K2" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1143335029558624</v>
+        <v>0.1164310021559146</v>
       </c>
       <c r="M2" t="n">
-        <v>15.86287344137863</v>
+        <v>15.83255186452188</v>
       </c>
       <c r="N2" t="n">
-        <v>403.0122685258443</v>
+        <v>400.2536331561754</v>
       </c>
       <c r="O2" t="n">
-        <v>20.07516546696052</v>
+        <v>20.00633982407015</v>
       </c>
       <c r="P2" t="n">
-        <v>292.1571078891344</v>
+        <v>292.1538483903553</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16630,28 +16806,28 @@
         <v>0.0561</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7494769845586426</v>
+        <v>-0.7486427693690709</v>
       </c>
       <c r="J3" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K3" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09315041446567229</v>
+        <v>0.09466120600386574</v>
       </c>
       <c r="M3" t="n">
-        <v>14.25953205175118</v>
+        <v>14.22769845802312</v>
       </c>
       <c r="N3" t="n">
-        <v>320.5413813220059</v>
+        <v>318.31025434943</v>
       </c>
       <c r="O3" t="n">
-        <v>17.90366949320742</v>
+        <v>17.8412514793506</v>
       </c>
       <c r="P3" t="n">
-        <v>284.8276961675613</v>
+        <v>284.8202968046189</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16708,28 +16884,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6938263559237625</v>
+        <v>-0.7008025553778611</v>
       </c>
       <c r="J4" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K4" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09247991584896509</v>
+        <v>0.09601606144244368</v>
       </c>
       <c r="M4" t="n">
-        <v>13.54259861464374</v>
+        <v>13.48727803036446</v>
       </c>
       <c r="N4" t="n">
-        <v>274.8038335886346</v>
+        <v>272.5948037144861</v>
       </c>
       <c r="O4" t="n">
-        <v>16.57720825677939</v>
+        <v>16.51044529122355</v>
       </c>
       <c r="P4" t="n">
-        <v>281.4667301114895</v>
+        <v>281.5325350018477</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16786,28 +16962,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4949955083043232</v>
+        <v>-0.4989985223733027</v>
       </c>
       <c r="J5" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K5" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0555008432742049</v>
+        <v>0.05756618880883557</v>
       </c>
       <c r="M5" t="n">
-        <v>12.77386907565628</v>
+        <v>12.70829521833367</v>
       </c>
       <c r="N5" t="n">
-        <v>242.7717247526405</v>
+        <v>240.5740654935196</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58113361577522</v>
+        <v>15.51045020279939</v>
       </c>
       <c r="P5" t="n">
-        <v>279.4298738325845</v>
+        <v>279.4673911643763</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16864,28 +17040,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4752152831983239</v>
+        <v>-0.4824073506630926</v>
       </c>
       <c r="J6" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K6" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05738706764582457</v>
+        <v>0.06032565323545147</v>
       </c>
       <c r="M6" t="n">
-        <v>11.91592677815524</v>
+        <v>11.8529459712899</v>
       </c>
       <c r="N6" t="n">
-        <v>217.9717475946185</v>
+        <v>216.0337619858288</v>
       </c>
       <c r="O6" t="n">
-        <v>14.76386628206238</v>
+        <v>14.69808701790232</v>
       </c>
       <c r="P6" t="n">
-        <v>283.0550863690566</v>
+        <v>283.1210657060789</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16942,28 +17118,28 @@
         <v>0.0732</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3512130201275462</v>
+        <v>-0.3583972927627139</v>
       </c>
       <c r="J7" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K7" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0398976990568376</v>
+        <v>0.04240889139742221</v>
       </c>
       <c r="M7" t="n">
-        <v>10.52512040759468</v>
+        <v>10.45717298749553</v>
       </c>
       <c r="N7" t="n">
-        <v>176.0931902525452</v>
+        <v>174.4883020434333</v>
       </c>
       <c r="O7" t="n">
-        <v>13.27001093641393</v>
+        <v>13.20940203201619</v>
       </c>
       <c r="P7" t="n">
-        <v>286.7562691998797</v>
+        <v>286.8213426637969</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17020,28 +17196,28 @@
         <v>0.082</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3430333125661736</v>
+        <v>-0.3483016930355332</v>
       </c>
       <c r="J8" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K8" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03358032715282244</v>
+        <v>0.03541040068062418</v>
       </c>
       <c r="M8" t="n">
-        <v>11.77072137566485</v>
+        <v>11.66327571493055</v>
       </c>
       <c r="N8" t="n">
-        <v>201.7715418154978</v>
+        <v>199.5838546301266</v>
       </c>
       <c r="O8" t="n">
-        <v>14.20463099892066</v>
+        <v>14.12741500169534</v>
       </c>
       <c r="P8" t="n">
-        <v>295.8470440710387</v>
+        <v>295.8947043001457</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17098,28 +17274,28 @@
         <v>0.0555</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3415957385828138</v>
+        <v>-0.3568627433380653</v>
       </c>
       <c r="J9" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K9" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03134530705719274</v>
+        <v>0.034842259282721</v>
       </c>
       <c r="M9" t="n">
-        <v>11.79691615134249</v>
+        <v>11.74519088306389</v>
       </c>
       <c r="N9" t="n">
-        <v>213.7806067294717</v>
+        <v>212.0969577174627</v>
       </c>
       <c r="O9" t="n">
-        <v>14.62123820780825</v>
+        <v>14.56354893964595</v>
       </c>
       <c r="P9" t="n">
-        <v>303.3878293694013</v>
+        <v>303.5259494629339</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17176,28 +17352,28 @@
         <v>0.0577</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2978650235063335</v>
+        <v>-0.3184048777639539</v>
       </c>
       <c r="J10" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K10" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02700484204462827</v>
+        <v>0.03128055714222466</v>
       </c>
       <c r="M10" t="n">
-        <v>11.07639362390077</v>
+        <v>11.0470040371282</v>
       </c>
       <c r="N10" t="n">
-        <v>190.5187847971968</v>
+        <v>189.6635511779158</v>
       </c>
       <c r="O10" t="n">
-        <v>13.80285422647058</v>
+        <v>13.77183906302698</v>
       </c>
       <c r="P10" t="n">
-        <v>311.664702345638</v>
+        <v>311.850779646064</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17254,28 +17430,28 @@
         <v>0.0601</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3400939567030444</v>
+        <v>-0.3564398957281427</v>
       </c>
       <c r="J11" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K11" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03858465719438242</v>
+        <v>0.04308316007749191</v>
       </c>
       <c r="M11" t="n">
-        <v>10.56072270405401</v>
+        <v>10.51292459160765</v>
       </c>
       <c r="N11" t="n">
-        <v>169.4131522536918</v>
+        <v>168.1484056663222</v>
       </c>
       <c r="O11" t="n">
-        <v>13.01588077133821</v>
+        <v>12.96720500594952</v>
       </c>
       <c r="P11" t="n">
-        <v>319.9999471888019</v>
+        <v>320.1498203011046</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -17332,28 +17508,28 @@
         <v>0.0457</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2530123548507162</v>
+        <v>-0.2750905551599075</v>
       </c>
       <c r="J12" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K12" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0176228058175536</v>
+        <v>0.02113927921985526</v>
       </c>
       <c r="M12" t="n">
-        <v>11.70074899867478</v>
+        <v>11.67533451402587</v>
       </c>
       <c r="N12" t="n">
-        <v>215.1955887971561</v>
+        <v>214.0751077101109</v>
       </c>
       <c r="O12" t="n">
-        <v>14.6695463050892</v>
+        <v>14.63130574180278</v>
       </c>
       <c r="P12" t="n">
-        <v>325.8414379238745</v>
+        <v>326.0407464236059</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17410,28 +17586,28 @@
         <v>0.0704</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1249956718471757</v>
+        <v>-0.1527918465987979</v>
       </c>
       <c r="J13" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K13" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004194314662158249</v>
+        <v>0.006348185151240138</v>
       </c>
       <c r="M13" t="n">
-        <v>11.90482569907323</v>
+        <v>11.90946465892973</v>
       </c>
       <c r="N13" t="n">
-        <v>224.5633218609815</v>
+        <v>224.1369680099013</v>
       </c>
       <c r="O13" t="n">
-        <v>14.98543699265996</v>
+        <v>14.97120462788153</v>
       </c>
       <c r="P13" t="n">
-        <v>319.1350131160021</v>
+        <v>319.3848535645201</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -17488,28 +17664,28 @@
         <v>0.0699</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.08757931615486751</v>
+        <v>-0.1160234649650493</v>
       </c>
       <c r="J14" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002128035559435304</v>
+        <v>0.003781713401637909</v>
       </c>
       <c r="M14" t="n">
-        <v>11.93097895729378</v>
+        <v>11.92525434823743</v>
       </c>
       <c r="N14" t="n">
-        <v>216.445465579254</v>
+        <v>216.3299662876181</v>
       </c>
       <c r="O14" t="n">
-        <v>14.71208569779465</v>
+        <v>14.70815985389124</v>
       </c>
       <c r="P14" t="n">
-        <v>313.5393133087356</v>
+        <v>313.7945961052627</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -17566,28 +17742,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04147292848319637</v>
+        <v>-0.06282242255912313</v>
       </c>
       <c r="J15" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K15" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00053728887310589</v>
+        <v>0.001255348620727958</v>
       </c>
       <c r="M15" t="n">
-        <v>10.82710347822334</v>
+        <v>10.7926280971462</v>
       </c>
       <c r="N15" t="n">
-        <v>191.4653108890557</v>
+        <v>190.486809133906</v>
       </c>
       <c r="O15" t="n">
-        <v>13.8370990778073</v>
+        <v>13.80169587890945</v>
       </c>
       <c r="P15" t="n">
-        <v>310.670591162089</v>
+        <v>310.8627241007615</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -17644,28 +17820,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.07419396662896112</v>
+        <v>-0.08866698552992898</v>
       </c>
       <c r="J16" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K16" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001574288050446571</v>
+        <v>0.00229611010090891</v>
       </c>
       <c r="M16" t="n">
-        <v>11.6582029706396</v>
+        <v>11.59490420820929</v>
       </c>
       <c r="N16" t="n">
-        <v>208.9155107814566</v>
+        <v>207.2422385202102</v>
       </c>
       <c r="O16" t="n">
-        <v>14.45390987869568</v>
+        <v>14.39591047902877</v>
       </c>
       <c r="P16" t="n">
-        <v>312.9677254028611</v>
+        <v>313.0978020300252</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -17722,28 +17898,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.03318209916888006</v>
+        <v>-0.06108717326859872</v>
       </c>
       <c r="J17" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K17" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003401806014187159</v>
+        <v>0.001170695838384361</v>
       </c>
       <c r="M17" t="n">
-        <v>11.13364091395756</v>
+        <v>11.11840574231809</v>
       </c>
       <c r="N17" t="n">
-        <v>192.2843308549008</v>
+        <v>191.9962695648492</v>
       </c>
       <c r="O17" t="n">
-        <v>13.86666257088925</v>
+        <v>13.85627184941351</v>
       </c>
       <c r="P17" t="n">
-        <v>314.7903883304136</v>
+        <v>315.0409218412883</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -17800,28 +17976,28 @@
         <v>0.0524</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0816861671634922</v>
+        <v>-0.1121460808387488</v>
       </c>
       <c r="J18" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K18" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001365846518017522</v>
+        <v>0.002616950048598077</v>
       </c>
       <c r="M18" t="n">
-        <v>13.99283752723043</v>
+        <v>13.95909995960752</v>
       </c>
       <c r="N18" t="n">
-        <v>286.8354520478294</v>
+        <v>285.7346795631525</v>
       </c>
       <c r="O18" t="n">
-        <v>16.936217170544</v>
+        <v>16.9036883419907</v>
       </c>
       <c r="P18" t="n">
-        <v>311.5536250454372</v>
+        <v>311.8328742178431</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -17878,28 +18054,28 @@
         <v>0.0616</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1724913402619977</v>
+        <v>-0.192043497639387</v>
       </c>
       <c r="J19" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K19" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00795452233472016</v>
+        <v>0.01003644863033704</v>
       </c>
       <c r="M19" t="n">
-        <v>11.79786951278416</v>
+        <v>11.74117709905874</v>
       </c>
       <c r="N19" t="n">
-        <v>217.0196489167199</v>
+        <v>215.5623552075082</v>
       </c>
       <c r="O19" t="n">
-        <v>14.73158677524997</v>
+        <v>14.68204192908834</v>
       </c>
       <c r="P19" t="n">
-        <v>319.845350296433</v>
+        <v>320.0269148007045</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -17956,28 +18132,28 @@
         <v>0.0726</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2726312990556058</v>
+        <v>-0.2845628107975591</v>
       </c>
       <c r="J20" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K20" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02385414551760523</v>
+        <v>0.02650231020005467</v>
       </c>
       <c r="M20" t="n">
-        <v>10.52368600678555</v>
+        <v>10.46274285110061</v>
       </c>
       <c r="N20" t="n">
-        <v>177.0388989147764</v>
+        <v>175.3776662189618</v>
       </c>
       <c r="O20" t="n">
-        <v>13.3055965260779</v>
+        <v>13.24302330357241</v>
       </c>
       <c r="P20" t="n">
-        <v>336.7248984756006</v>
+        <v>336.8367969603282</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -18034,28 +18210,28 @@
         <v>0.0529</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.3063324426228415</v>
+        <v>-0.3188459102342862</v>
       </c>
       <c r="J21" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K21" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03218613555527694</v>
+        <v>0.03548616055586085</v>
       </c>
       <c r="M21" t="n">
-        <v>10.54758910044882</v>
+        <v>10.48561233440017</v>
       </c>
       <c r="N21" t="n">
-        <v>163.2778584872662</v>
+        <v>161.8816490776244</v>
       </c>
       <c r="O21" t="n">
-        <v>12.77802247952578</v>
+        <v>12.72327194858399</v>
       </c>
       <c r="P21" t="n">
-        <v>362.7066234648476</v>
+        <v>362.8263332718001</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -18112,28 +18288,28 @@
         <v>0.0416</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1187691899478097</v>
+        <v>-0.1331424014288836</v>
       </c>
       <c r="J22" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K22" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004514300122742454</v>
+        <v>0.005793246750701697</v>
       </c>
       <c r="M22" t="n">
-        <v>10.80019568432382</v>
+        <v>10.74548642658801</v>
       </c>
       <c r="N22" t="n">
-        <v>181.5849760884655</v>
+        <v>179.7993998573239</v>
       </c>
       <c r="O22" t="n">
-        <v>13.47534697469663</v>
+        <v>13.40892985503779</v>
       </c>
       <c r="P22" t="n">
-        <v>386.3953152760255</v>
+        <v>386.5323372524999</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -18190,28 +18366,28 @@
         <v>0.0533</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1332821585520508</v>
+        <v>-0.1465885125658754</v>
       </c>
       <c r="J23" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K23" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006264584733159051</v>
+        <v>0.007722914624015642</v>
       </c>
       <c r="M23" t="n">
-        <v>10.14963784034308</v>
+        <v>10.10236296369002</v>
       </c>
       <c r="N23" t="n">
-        <v>163.1506596038591</v>
+        <v>161.9275215637753</v>
       </c>
       <c r="O23" t="n">
-        <v>12.77304425749238</v>
+        <v>12.72507452095174</v>
       </c>
       <c r="P23" t="n">
-        <v>325.2924928905032</v>
+        <v>325.4183103950843</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -18249,7 +18425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X188"/>
+  <dimension ref="A1:X190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39845,6 +40021,250 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>-34.426837866467594,172.93655476005557</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>-34.42686328008662,172.93745378021416</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>-34.42692160502344,172.93835352200915</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>-34.42688558779173,172.93925119708922</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>-34.426855495097094,172.9401490017513</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>-34.4267939058183,172.94104611543767</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>-34.426731222790615,172.94196706197985</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>-34.42661329217948,172.94288315404864</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>-34.42648617966664,172.9437742019186</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>-34.42638057447789,172.94466526887243</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>-34.42626133591509,172.94555504841557</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>-34.426244606453494,172.94645450299222</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>-34.42621454052369,172.94735269921537</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>-34.426170898387745,172.94824961417524</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>-34.42612634789628,172.9491464435769</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>-34.42609359376335,172.9500443869556</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>-34.426043637918845,172.95094070641457</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>-34.425875001378856,172.95184476335282</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>-34.425614982160525,172.95274468129182</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>-34.425270792200934,172.95358902713858</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>-34.42481113947435,172.9543783407983</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>-34.425132672508255,172.95539704891524</t>
+        </is>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>-34.42708003777398,172.9365600627433</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>-34.42707254004041,172.9374583637089</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>-34.42708451859524,172.93835709149232</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>-34.427014241148946,172.93925401680755</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>-34.42696862819685,172.94015148208968</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>-34.42687977580624,172.9410479986482</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>-34.42673083471397,172.94196704061835</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>-34.426684243703264,172.94288963219714</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>-34.42657303119686,172.94378239810172</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>-34.42639530310519,172.94466665891207</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>-34.42630673962798,172.94555933377646</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>-34.42631710251499,172.9464613459304</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>-34.42631697600522,172.9473623688631</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>-34.426214803571156,172.9482537590124</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>-34.4260592487241,172.94914010867353</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>-34.42602879995745,172.95003826925554</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>-34.42606762340443,172.95094297124314</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>-34.42592330342004,172.95185116208077</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>-34.42564618625902,172.95275191396223</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>-34.42519368116084,172.95356638418218</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>-34.42481639703944,172.95437988465943</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>-34.42521714390362,172.95542185444953</t>
+        </is>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0002/nzd0002.xlsx
+++ b/data/nzd0002/nzd0002.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X190"/>
+  <dimension ref="A1:X191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14626,6 +14626,84 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>252.7066666666666</v>
+      </c>
+      <c r="C191" t="n">
+        <v>251.2566666666666</v>
+      </c>
+      <c r="D191" t="n">
+        <v>250.3866666666666</v>
+      </c>
+      <c r="E191" t="n">
+        <v>254.1054545454545</v>
+      </c>
+      <c r="F191" t="n">
+        <v>257.8915384615385</v>
+      </c>
+      <c r="G191" t="n">
+        <v>266.08</v>
+      </c>
+      <c r="H191" t="n">
+        <v>267.0715384615385</v>
+      </c>
+      <c r="I191" t="n">
+        <v>270.36</v>
+      </c>
+      <c r="J191" t="n">
+        <v>280.93</v>
+      </c>
+      <c r="K191" t="n">
+        <v>291.8354545454546</v>
+      </c>
+      <c r="L191" t="n">
+        <v>302.54</v>
+      </c>
+      <c r="M191" t="n">
+        <v>294.29</v>
+      </c>
+      <c r="N191" t="n">
+        <v>287.44</v>
+      </c>
+      <c r="O191" t="n">
+        <v>284.9</v>
+      </c>
+      <c r="P191" t="n">
+        <v>289.9215384615384</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>293.44</v>
+      </c>
+      <c r="R191" t="n">
+        <v>285.9166666666667</v>
+      </c>
+      <c r="S191" t="n">
+        <v>301.0854545454546</v>
+      </c>
+      <c r="T191" t="n">
+        <v>322.14</v>
+      </c>
+      <c r="U191" t="n">
+        <v>342.8200000000001</v>
+      </c>
+      <c r="V191" t="n">
+        <v>372.12</v>
+      </c>
+      <c r="W191" t="n">
+        <v>299.69</v>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14637,7 +14715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16555,6 +16633,16 @@
       </c>
       <c r="B191" t="n">
         <v>-0.31</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -16728,28 +16816,28 @@
         <v>0.0605</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9284636363240256</v>
+        <v>-0.9460303499512178</v>
       </c>
       <c r="J2" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K2" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1164310021559146</v>
+        <v>0.121352404047991</v>
       </c>
       <c r="M2" t="n">
-        <v>15.83255186452188</v>
+        <v>15.823884049251</v>
       </c>
       <c r="N2" t="n">
-        <v>400.2536331561754</v>
+        <v>399.2385007038217</v>
       </c>
       <c r="O2" t="n">
-        <v>20.00633982407015</v>
+        <v>19.98095344831727</v>
       </c>
       <c r="P2" t="n">
-        <v>292.1538483903553</v>
+        <v>292.3122556438796</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16806,28 +16894,28 @@
         <v>0.0561</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7486427693690709</v>
+        <v>-0.7642327957394228</v>
       </c>
       <c r="J3" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K3" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09466120600386574</v>
+        <v>0.09900540948426861</v>
       </c>
       <c r="M3" t="n">
-        <v>14.22769845802312</v>
+        <v>14.22131212991355</v>
       </c>
       <c r="N3" t="n">
-        <v>318.31025434943</v>
+        <v>317.5993567093511</v>
       </c>
       <c r="O3" t="n">
-        <v>17.8412514793506</v>
+        <v>17.82131747961837</v>
       </c>
       <c r="P3" t="n">
-        <v>284.8202968046189</v>
+        <v>284.9667287759309</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16884,28 +16972,28 @@
         <v>0.0516</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7008025553778611</v>
+        <v>-0.7152451531671261</v>
       </c>
       <c r="J4" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K4" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09601606144244368</v>
+        <v>0.1003986153185349</v>
       </c>
       <c r="M4" t="n">
-        <v>13.48727803036446</v>
+        <v>13.48192281934676</v>
       </c>
       <c r="N4" t="n">
-        <v>272.5948037144861</v>
+        <v>271.9673192812552</v>
       </c>
       <c r="O4" t="n">
-        <v>16.51044529122355</v>
+        <v>16.49143169288995</v>
       </c>
       <c r="P4" t="n">
-        <v>281.5325350018477</v>
+        <v>281.6684844445325</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16962,28 +17050,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4989985223733027</v>
+        <v>-0.5125561720460683</v>
       </c>
       <c r="J5" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K5" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05756618880883557</v>
+        <v>0.06103545796057719</v>
       </c>
       <c r="M5" t="n">
-        <v>12.70829521833367</v>
+        <v>12.70631997165447</v>
       </c>
       <c r="N5" t="n">
-        <v>240.5740654935196</v>
+        <v>240.0670728601869</v>
       </c>
       <c r="O5" t="n">
-        <v>15.51045020279939</v>
+        <v>15.49409800085784</v>
       </c>
       <c r="P5" t="n">
-        <v>279.4673911643763</v>
+        <v>279.5939821523734</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17040,28 +17128,28 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4824073506630926</v>
+        <v>-0.4962519188175901</v>
       </c>
       <c r="J6" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K6" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06032565323545147</v>
+        <v>0.06410669559178506</v>
       </c>
       <c r="M6" t="n">
-        <v>11.8529459712899</v>
+        <v>11.86081396010669</v>
       </c>
       <c r="N6" t="n">
-        <v>216.0337619858288</v>
+        <v>215.7146117070518</v>
       </c>
       <c r="O6" t="n">
-        <v>14.69808701790232</v>
+        <v>14.68722614066563</v>
       </c>
       <c r="P6" t="n">
-        <v>283.1210657060789</v>
+        <v>283.248021577949</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17118,28 +17206,28 @@
         <v>0.0732</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3583972927627139</v>
+        <v>-0.3705723845644425</v>
       </c>
       <c r="J7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K7" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04240889139742221</v>
+        <v>0.04556026607452757</v>
       </c>
       <c r="M7" t="n">
-        <v>10.45717298749553</v>
+        <v>10.45788805474974</v>
       </c>
       <c r="N7" t="n">
-        <v>174.4883020434333</v>
+        <v>174.2374793054808</v>
       </c>
       <c r="O7" t="n">
-        <v>13.20940203201619</v>
+        <v>13.19990451880167</v>
       </c>
       <c r="P7" t="n">
-        <v>286.8213426637969</v>
+        <v>286.9316651922081</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17196,28 +17284,28 @@
         <v>0.082</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3483016930355332</v>
+        <v>-0.3690249888634333</v>
       </c>
       <c r="J8" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K8" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03541040068062418</v>
+        <v>0.03962855702615187</v>
       </c>
       <c r="M8" t="n">
-        <v>11.66327571493055</v>
+        <v>11.69483777418117</v>
       </c>
       <c r="N8" t="n">
-        <v>199.5838546301266</v>
+        <v>200.621160457947</v>
       </c>
       <c r="O8" t="n">
-        <v>14.12741500169534</v>
+        <v>14.1640799368666</v>
       </c>
       <c r="P8" t="n">
-        <v>295.8947043001457</v>
+        <v>296.0827017600702</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17274,28 +17362,28 @@
         <v>0.0555</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3568627433380653</v>
+        <v>-0.3822697921602499</v>
       </c>
       <c r="J9" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K9" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L9" t="n">
-        <v>0.034842259282721</v>
+        <v>0.03968124370022186</v>
       </c>
       <c r="M9" t="n">
-        <v>11.74519088306389</v>
+        <v>11.81332848738134</v>
       </c>
       <c r="N9" t="n">
-        <v>212.0969577174627</v>
+        <v>214.0597098282623</v>
       </c>
       <c r="O9" t="n">
-        <v>14.56354893964595</v>
+        <v>14.6307795359052</v>
       </c>
       <c r="P9" t="n">
-        <v>303.5259494629339</v>
+        <v>303.7562252201868</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17352,28 +17440,28 @@
         <v>0.0577</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3184048777639539</v>
+        <v>-0.3420983176357192</v>
       </c>
       <c r="J10" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K10" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03128055714222466</v>
+        <v>0.03584091811188894</v>
       </c>
       <c r="M10" t="n">
-        <v>11.0470040371282</v>
+        <v>11.09763903919961</v>
       </c>
       <c r="N10" t="n">
-        <v>189.6635511779158</v>
+        <v>191.4221686513323</v>
       </c>
       <c r="O10" t="n">
-        <v>13.77183906302698</v>
+        <v>13.83554005636688</v>
       </c>
       <c r="P10" t="n">
-        <v>311.850779646064</v>
+        <v>312.0658444922465</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17430,28 +17518,28 @@
         <v>0.0601</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3564398957281427</v>
+        <v>-0.3766316279320888</v>
       </c>
       <c r="J11" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K11" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04308316007749191</v>
+        <v>0.0478719681497598</v>
       </c>
       <c r="M11" t="n">
-        <v>10.51292459160765</v>
+        <v>10.54478095272895</v>
       </c>
       <c r="N11" t="n">
-        <v>168.1484056663222</v>
+        <v>169.2133306352541</v>
       </c>
       <c r="O11" t="n">
-        <v>12.96720500594952</v>
+        <v>13.00820243674175</v>
       </c>
       <c r="P11" t="n">
-        <v>320.1498203011046</v>
+        <v>320.3354311005284</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -17508,28 +17596,28 @@
         <v>0.0457</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2750905551599075</v>
+        <v>-0.2919312553332248</v>
       </c>
       <c r="J12" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K12" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02113927921985526</v>
+        <v>0.02385807543918395</v>
       </c>
       <c r="M12" t="n">
-        <v>11.67533451402587</v>
+        <v>11.69168530843598</v>
       </c>
       <c r="N12" t="n">
-        <v>214.0751077101109</v>
+        <v>214.3537390142552</v>
       </c>
       <c r="O12" t="n">
-        <v>14.63130574180278</v>
+        <v>14.64082439667436</v>
       </c>
       <c r="P12" t="n">
-        <v>326.0407464236059</v>
+        <v>326.1931454339824</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17586,28 +17674,28 @@
         <v>0.0704</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1527918465987979</v>
+        <v>-0.1746119503904204</v>
       </c>
       <c r="J13" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K13" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006348185151240138</v>
+        <v>0.008282463348238567</v>
       </c>
       <c r="M13" t="n">
-        <v>11.90946465892973</v>
+        <v>11.95401317661135</v>
       </c>
       <c r="N13" t="n">
-        <v>224.1369680099013</v>
+        <v>225.3402883262092</v>
       </c>
       <c r="O13" t="n">
-        <v>14.97120462788153</v>
+        <v>15.01133865870093</v>
       </c>
       <c r="P13" t="n">
-        <v>319.3848535645201</v>
+        <v>319.5814373543472</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -17664,28 +17752,28 @@
         <v>0.0699</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1160234649650493</v>
+        <v>-0.1404245130556144</v>
       </c>
       <c r="J14" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K14" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003781713401637909</v>
+        <v>0.005520652838221896</v>
       </c>
       <c r="M14" t="n">
-        <v>11.92525434823743</v>
+        <v>11.96768370780848</v>
       </c>
       <c r="N14" t="n">
-        <v>216.3299662876181</v>
+        <v>218.1159768077665</v>
       </c>
       <c r="O14" t="n">
-        <v>14.70815985389124</v>
+        <v>14.76875000830356</v>
       </c>
       <c r="P14" t="n">
-        <v>313.7945961052627</v>
+        <v>314.0140499549789</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -17742,28 +17830,28 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.06282242255912313</v>
+        <v>-0.08825729600257604</v>
       </c>
       <c r="J15" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K15" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001255348620727958</v>
+        <v>0.002462824509923855</v>
       </c>
       <c r="M15" t="n">
-        <v>10.7926280971462</v>
+        <v>10.83670659957062</v>
       </c>
       <c r="N15" t="n">
-        <v>190.486809133906</v>
+        <v>192.6621843056653</v>
       </c>
       <c r="O15" t="n">
-        <v>13.80169587890945</v>
+        <v>13.88028041163669</v>
       </c>
       <c r="P15" t="n">
-        <v>310.8627241007615</v>
+        <v>311.0921665677772</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -17820,28 +17908,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.08866698552992898</v>
+        <v>-0.1104927052773645</v>
       </c>
       <c r="J16" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K16" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00229611010090891</v>
+        <v>0.003563435254537506</v>
       </c>
       <c r="M16" t="n">
-        <v>11.59490420820929</v>
+        <v>11.63024404341217</v>
       </c>
       <c r="N16" t="n">
-        <v>207.2422385202102</v>
+        <v>208.4719454813597</v>
       </c>
       <c r="O16" t="n">
-        <v>14.39591047902877</v>
+        <v>14.43855759698176</v>
       </c>
       <c r="P16" t="n">
-        <v>313.0978020300252</v>
+        <v>313.2946871057216</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -17898,28 +17986,28 @@
         <v>0.06759999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.06108717326859872</v>
+        <v>-0.08287915306991045</v>
       </c>
       <c r="J17" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K17" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001170695838384361</v>
+        <v>0.002155027393094477</v>
       </c>
       <c r="M17" t="n">
-        <v>11.11840574231809</v>
+        <v>11.14389884789898</v>
       </c>
       <c r="N17" t="n">
-        <v>191.9962695648492</v>
+        <v>193.148292734078</v>
       </c>
       <c r="O17" t="n">
-        <v>13.85627184941351</v>
+        <v>13.89778013691676</v>
       </c>
       <c r="P17" t="n">
-        <v>315.0409218412883</v>
+        <v>315.2371977137115</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -17976,28 +18064,28 @@
         <v>0.0524</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1121460808387488</v>
+        <v>-0.1368644860951088</v>
       </c>
       <c r="J18" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K18" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002616950048598077</v>
+        <v>0.003900353797661849</v>
       </c>
       <c r="M18" t="n">
-        <v>13.95909995960752</v>
+        <v>13.98254868414747</v>
       </c>
       <c r="N18" t="n">
-        <v>285.7346795631525</v>
+        <v>287.0683819917</v>
       </c>
       <c r="O18" t="n">
-        <v>16.9036883419907</v>
+        <v>16.94309245656471</v>
       </c>
       <c r="P18" t="n">
-        <v>311.8328742178431</v>
+        <v>312.0600741475333</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -18054,28 +18142,28 @@
         <v>0.0616</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.192043497639387</v>
+        <v>-0.2067771378732457</v>
       </c>
       <c r="J19" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K19" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01003644863033704</v>
+        <v>0.01169644906777445</v>
       </c>
       <c r="M19" t="n">
-        <v>11.74117709905874</v>
+        <v>11.7334336368406</v>
       </c>
       <c r="N19" t="n">
-        <v>215.5623552075082</v>
+        <v>215.430547871383</v>
       </c>
       <c r="O19" t="n">
-        <v>14.68204192908834</v>
+        <v>14.67755251638988</v>
       </c>
       <c r="P19" t="n">
-        <v>320.0269148007045</v>
+        <v>320.1640463093181</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -18132,28 +18220,28 @@
         <v>0.0726</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2845628107975591</v>
+        <v>-0.2923904529434712</v>
       </c>
       <c r="J20" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K20" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02650231020005467</v>
+        <v>0.02821695749621222</v>
       </c>
       <c r="M20" t="n">
-        <v>10.46274285110061</v>
+        <v>10.44195220756754</v>
       </c>
       <c r="N20" t="n">
-        <v>175.3776662189618</v>
+        <v>174.6786766799822</v>
       </c>
       <c r="O20" t="n">
-        <v>13.24302330357241</v>
+        <v>13.21660609536284</v>
       </c>
       <c r="P20" t="n">
-        <v>336.8367969603282</v>
+        <v>336.9103737626714</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -18210,28 +18298,28 @@
         <v>0.0529</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.3188459102342862</v>
+        <v>-0.3319000601085351</v>
       </c>
       <c r="J21" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K21" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03548616055586085</v>
+        <v>0.03859230250002255</v>
       </c>
       <c r="M21" t="n">
-        <v>10.48561233440017</v>
+        <v>10.49107382820457</v>
       </c>
       <c r="N21" t="n">
-        <v>161.8816490776244</v>
+        <v>161.7244626368711</v>
       </c>
       <c r="O21" t="n">
-        <v>12.72327194858399</v>
+        <v>12.71709332500438</v>
       </c>
       <c r="P21" t="n">
-        <v>362.8263332718001</v>
+        <v>362.9517503946781</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -18288,28 +18376,28 @@
         <v>0.0416</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1331424014288836</v>
+        <v>-0.1454261992583141</v>
       </c>
       <c r="J22" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K22" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L22" t="n">
-        <v>0.005793246750701697</v>
+        <v>0.00695915359807775</v>
       </c>
       <c r="M22" t="n">
-        <v>10.74548642658801</v>
+        <v>10.74820448917273</v>
       </c>
       <c r="N22" t="n">
-        <v>179.7993998573239</v>
+        <v>179.4170406336029</v>
       </c>
       <c r="O22" t="n">
-        <v>13.40892985503779</v>
+        <v>13.3946646331143</v>
       </c>
       <c r="P22" t="n">
-        <v>386.5323372524999</v>
+        <v>386.6497746123757</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -18366,28 +18454,28 @@
         <v>0.0533</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1465885125658754</v>
+        <v>-0.1703225235783806</v>
       </c>
       <c r="J23" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K23" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007722914624015642</v>
+        <v>0.01034756813817816</v>
       </c>
       <c r="M23" t="n">
-        <v>10.10236296369002</v>
+        <v>10.16999337319875</v>
       </c>
       <c r="N23" t="n">
-        <v>161.9275215637753</v>
+        <v>163.7359285807666</v>
       </c>
       <c r="O23" t="n">
-        <v>12.72507452095174</v>
+        <v>12.7959340644115</v>
       </c>
       <c r="P23" t="n">
-        <v>325.4183103950843</v>
+        <v>325.6430538064253</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -18425,7 +18513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X190"/>
+  <dimension ref="A1:X191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40265,6 +40353,128 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>-34.42710081649641,172.9365605177246</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>-34.427100171530874,172.93745896893287</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>-34.42709429681575,172.9383573057364</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>-34.42704704591026,172.93925473579665</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>-34.42699918821349,172.94015215209083</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>-34.42691163516443,172.94104869735517</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>-34.426888213654074,172.94197570347626</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>-34.42680285594384,172.9429004619778</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>-34.42664972307454,172.94378963553206</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>-34.42649373643276,172.9446759487399</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>-34.42633955617265,172.9455624311194</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>-34.42635579305414,172.94646499795383</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>-34.426359442674304,172.94736637761508</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>-34.4263243417571,172.94826409990475</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>-34.42622125636074,172.94915540400206</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>-34.4261316848486,172.95004798344323</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>-34.42614138801229,172.95094993647155</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>-34.42594542929156,172.95185409316915</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>-34.42564860701214,172.95275247505893</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>-34.425288405062766,172.9535941990015</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>-34.42485652978552,172.9543916694724</t>
+        </is>
+      </c>
+      <c r="W191" t="inlineStr">
+        <is>
+          <t>-34.42531607356941,172.95545090580765</t>
+        </is>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0002/nzd0002.xlsx
+++ b/data/nzd0002/nzd0002.xlsx
@@ -16813,7 +16813,7 @@
         <v>0.0386</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0605</v>
+        <v>0.0527</v>
       </c>
       <c r="I2" t="n">
         <v>-0.9460537810499766</v>
@@ -16885,13 +16885,13 @@
         <v>0.9523737094404043</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0398</v>
+        <v>0.0376</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0561</v>
+        <v>0.048</v>
       </c>
       <c r="I3" t="n">
         <v>-0.7642567207521601</v>
@@ -16966,10 +16966,10 @@
         <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0378</v>
+        <v>0.0375</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0516</v>
+        <v>0.0501</v>
       </c>
       <c r="I4" t="n">
         <v>-0.7152715430647941</v>
@@ -17041,13 +17041,13 @@
         <v>0.8571211283212212</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0478</v>
+        <v>0.0447</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.0571</v>
       </c>
       <c r="I5" t="n">
         <v>-0.5126326125158901</v>
@@ -17119,13 +17119,13 @@
         <v>0.8094948377616338</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.055</v>
+        <v>0.0518</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.0677</v>
       </c>
       <c r="I6" t="n">
         <v>-0.4962612517189751</v>
@@ -17197,13 +17197,13 @@
         <v>0.7618685472020381</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>0.0565</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0732</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>-0.37058499213233</v>
@@ -17278,10 +17278,10 @@
         <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0543</v>
+        <v>0.057</v>
       </c>
       <c r="H8" t="n">
-        <v>0.082</v>
+        <v>0.075</v>
       </c>
       <c r="I8" t="n">
         <v>-0.3690475646832093</v>
@@ -17353,13 +17353,13 @@
         <v>0.6666225254508931</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0427</v>
+        <v>0.0547</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0555</v>
+        <v>0.073</v>
       </c>
       <c r="I9" t="n">
         <v>-0.38226979216025</v>
@@ -17431,13 +17431,13 @@
         <v>0.6189962348903132</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0478</v>
+        <v>0.0551</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0577</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>-0.342098317635719</v>
@@ -17509,13 +17509,13 @@
         <v>0.571369944331502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0489</v>
+        <v>0.0542</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0601</v>
+        <v>0.0664</v>
       </c>
       <c r="I11" t="n">
         <v>-0.3767091981962722</v>
@@ -17587,13 +17587,13 @@
         <v>0.5237436537726909</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0379</v>
+        <v>0.0429</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0457</v>
+        <v>0.0525</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2919312553332248</v>
@@ -17743,13 +17743,13 @@
         <v>0.4284910726532998</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.054</v>
+        <v>0.0596</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0699</v>
+        <v>0.0795</v>
       </c>
       <c r="I14" t="n">
         <v>-0.1404571020117118</v>
@@ -17821,13 +17821,13 @@
         <v>0.3808647820944887</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0559</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.082</v>
       </c>
       <c r="I15" t="n">
         <v>-0.08829011169384947</v>
@@ -17899,13 +17899,13 @@
         <v>0.3332384915356602</v>
       </c>
       <c r="F16" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0569</v>
+        <v>0.059</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07290000000000001</v>
+        <v>0.1147</v>
       </c>
       <c r="I16" t="n">
         <v>-0.1105149125390394</v>
@@ -17977,13 +17977,13 @@
         <v>0.285612200976849</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0543</v>
+        <v>0.0553</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06759999999999999</v>
+        <v>0.0735</v>
       </c>
       <c r="I17" t="n">
         <v>-0.08291907662557374</v>
@@ -18055,13 +18055,13 @@
         <v>0.2379859104198067</v>
       </c>
       <c r="F18" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0429</v>
+        <v>0.0494</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0524</v>
+        <v>0.0635</v>
       </c>
       <c r="I18" t="n">
         <v>-0.1369084189455117</v>
@@ -18133,13 +18133,13 @@
         <v>0.1903596198592094</v>
       </c>
       <c r="F19" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0486</v>
+        <v>0.0573</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0616</v>
+        <v>0.074</v>
       </c>
       <c r="I19" t="n">
         <v>-0.2068562197100209</v>
@@ -18211,13 +18211,13 @@
         <v>0.142878871678487</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0547</v>
+        <v>0.0679</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0726</v>
+        <v>0.0935</v>
       </c>
       <c r="I20" t="n">
         <v>-0.2924204555952886</v>
@@ -18289,13 +18289,13 @@
         <v>0.09525258112008822</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0447</v>
+        <v>0.0575</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0529</v>
+        <v>0.0736</v>
       </c>
       <c r="I21" t="n">
         <v>-0.3319000601085349</v>
@@ -18367,13 +18367,13 @@
         <v>0.04762629056007031</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0371</v>
+        <v>0.0421</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0416</v>
+        <v>0.0497</v>
       </c>
       <c r="I22" t="n">
         <v>-0.1454261992583141</v>
@@ -18445,13 +18445,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0459</v>
+        <v>0.0613</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0533</v>
+        <v>0.0798</v>
       </c>
       <c r="I23" t="n">
         <v>-0.1703225235783805</v>

--- a/data/nzd0002/nzd0002.xlsx
+++ b/data/nzd0002/nzd0002.xlsx
@@ -568,7 +568,7 @@
         <v>318.57</v>
       </c>
       <c r="C2" t="n">
-        <v>313.53</v>
+        <v>315.86</v>
       </c>
       <c r="D2" t="n">
         <v>286.75</v>
@@ -595,10 +595,10 @@
         <v>307.37</v>
       </c>
       <c r="L2" t="n">
-        <v>312.04</v>
+        <v>313.91</v>
       </c>
       <c r="M2" t="n">
-        <v>298.39</v>
+        <v>299.47</v>
       </c>
       <c r="N2" t="n">
         <v>300.83</v>
@@ -644,7 +644,7 @@
         <v>318.98</v>
       </c>
       <c r="C3" t="n">
-        <v>314.85</v>
+        <v>315.66</v>
       </c>
       <c r="D3" t="n">
         <v>307.75</v>
@@ -671,10 +671,10 @@
         <v>347.24</v>
       </c>
       <c r="L3" t="n">
-        <v>348.05</v>
+        <v>348.69</v>
       </c>
       <c r="M3" t="n">
-        <v>335.37</v>
+        <v>335.74</v>
       </c>
       <c r="N3" t="n">
         <v>322.4</v>
@@ -710,7 +710,7 @@
         <v>284.11</v>
       </c>
       <c r="C4" t="n">
-        <v>282.83</v>
+        <v>280.22</v>
       </c>
       <c r="D4" t="n">
         <v>271.3</v>
@@ -737,10 +737,10 @@
         <v>306.17</v>
       </c>
       <c r="L4" t="n">
-        <v>309.42</v>
+        <v>307.33</v>
       </c>
       <c r="M4" t="n">
-        <v>306.42</v>
+        <v>305.21</v>
       </c>
       <c r="N4" t="n">
         <v>299.65</v>
@@ -788,7 +788,7 @@
         <v>297.1</v>
       </c>
       <c r="C5" t="n">
-        <v>295</v>
+        <v>295.03</v>
       </c>
       <c r="D5" t="n">
         <v>300.22</v>
@@ -815,10 +815,10 @@
         <v>322.98</v>
       </c>
       <c r="L5" t="n">
-        <v>333.62</v>
+        <v>333.64</v>
       </c>
       <c r="M5" t="n">
-        <v>315.13</v>
+        <v>315.15</v>
       </c>
       <c r="N5" t="n">
         <v>306.08</v>
@@ -856,7 +856,7 @@
         <v>298.48</v>
       </c>
       <c r="C6" t="n">
-        <v>297.4</v>
+        <v>298.73</v>
       </c>
       <c r="D6" t="n">
         <v>293.32</v>
@@ -883,10 +883,10 @@
         <v>314.47</v>
       </c>
       <c r="L6" t="n">
-        <v>320.23</v>
+        <v>321.3</v>
       </c>
       <c r="M6" t="n">
-        <v>311.76</v>
+        <v>312.38</v>
       </c>
       <c r="N6" t="n">
         <v>311.66</v>
@@ -934,7 +934,7 @@
         <v>304.69</v>
       </c>
       <c r="C7" t="n">
-        <v>287.96</v>
+        <v>289.07</v>
       </c>
       <c r="D7" t="n">
         <v>280.63</v>
@@ -961,10 +961,10 @@
         <v>304.32</v>
       </c>
       <c r="L7" t="n">
-        <v>312.42</v>
+        <v>313.31</v>
       </c>
       <c r="M7" t="n">
-        <v>311.68</v>
+        <v>312.2</v>
       </c>
       <c r="N7" t="n">
         <v>299.5</v>
@@ -1012,7 +1012,7 @@
         <v>338.43</v>
       </c>
       <c r="C8" t="n">
-        <v>305.09</v>
+        <v>306.4</v>
       </c>
       <c r="D8" t="n">
         <v>308.59</v>
@@ -1039,10 +1039,10 @@
         <v>314.28</v>
       </c>
       <c r="L8" t="n">
-        <v>320.13</v>
+        <v>321.17</v>
       </c>
       <c r="M8" t="n">
-        <v>318.14</v>
+        <v>318.74</v>
       </c>
       <c r="N8" t="n">
         <v>314.97</v>
@@ -1090,7 +1090,7 @@
         <v>315.83</v>
       </c>
       <c r="C9" t="n">
-        <v>296.62</v>
+        <v>297.76</v>
       </c>
       <c r="D9" t="n">
         <v>280.61</v>
@@ -1117,10 +1117,10 @@
         <v>302.4</v>
       </c>
       <c r="L9" t="n">
-        <v>306.24</v>
+        <v>307.15</v>
       </c>
       <c r="M9" t="n">
-        <v>296.14</v>
+        <v>296.66</v>
       </c>
       <c r="N9" t="n">
         <v>294.34</v>
@@ -1185,10 +1185,10 @@
         <v>295.17</v>
       </c>
       <c r="L10" t="n">
-        <v>298.17</v>
+        <v>295.9</v>
       </c>
       <c r="M10" t="n">
-        <v>291.95</v>
+        <v>290.64</v>
       </c>
       <c r="N10" t="n">
         <v>283.27</v>
@@ -1236,7 +1236,7 @@
         <v>290.37</v>
       </c>
       <c r="C11" t="n">
-        <v>284.89</v>
+        <v>285.11</v>
       </c>
       <c r="D11" t="n">
         <v>283.26</v>
@@ -1263,10 +1263,10 @@
         <v>309.28</v>
       </c>
       <c r="L11" t="n">
-        <v>319.49</v>
+        <v>319.67</v>
       </c>
       <c r="M11" t="n">
-        <v>314.72</v>
+        <v>314.82</v>
       </c>
       <c r="N11" t="n">
         <v>310.36</v>
@@ -1314,7 +1314,7 @@
         <v>312.38</v>
       </c>
       <c r="C12" t="n">
-        <v>294.03</v>
+        <v>291.34</v>
       </c>
       <c r="D12" t="n">
         <v>295.91</v>
@@ -1341,10 +1341,10 @@
         <v>320.45</v>
       </c>
       <c r="L12" t="n">
-        <v>323.21</v>
+        <v>321.05</v>
       </c>
       <c r="M12" t="n">
-        <v>316.38</v>
+        <v>315.13</v>
       </c>
       <c r="N12" t="n">
         <v>309.63</v>
@@ -1411,10 +1411,10 @@
         <v>324.28</v>
       </c>
       <c r="L13" t="n">
-        <v>328.39</v>
+        <v>326.21</v>
       </c>
       <c r="M13" t="n">
-        <v>323.71</v>
+        <v>322.46</v>
       </c>
       <c r="N13" t="n">
         <v>314.49</v>
@@ -1462,7 +1462,7 @@
         <v>320.56</v>
       </c>
       <c r="C14" t="n">
-        <v>316.74</v>
+        <v>314.74</v>
       </c>
       <c r="D14" t="n">
         <v>307.37</v>
@@ -1489,10 +1489,10 @@
         <v>323.59</v>
       </c>
       <c r="L14" t="n">
-        <v>336.73</v>
+        <v>335.13</v>
       </c>
       <c r="M14" t="n">
-        <v>326.88</v>
+        <v>325.96</v>
       </c>
       <c r="N14" t="n">
         <v>319.5</v>
@@ -1563,10 +1563,10 @@
         <v>310.53</v>
       </c>
       <c r="L15" t="n">
-        <v>307.01</v>
+        <v>306.21</v>
       </c>
       <c r="M15" t="n">
-        <v>303.01</v>
+        <v>302.55</v>
       </c>
       <c r="N15" t="n">
         <v>298.64</v>
@@ -1633,10 +1633,10 @@
         <v>295.19</v>
       </c>
       <c r="L16" t="n">
-        <v>285.82</v>
+        <v>284.35</v>
       </c>
       <c r="M16" t="n">
-        <v>276.98</v>
+        <v>276.13</v>
       </c>
       <c r="N16" t="n">
         <v>271.95</v>
@@ -1684,7 +1684,7 @@
         <v>316.24</v>
       </c>
       <c r="C17" t="n">
-        <v>313.77</v>
+        <v>310.58</v>
       </c>
       <c r="D17" t="n">
         <v>303.48</v>
@@ -1711,10 +1711,10 @@
         <v>339.43</v>
       </c>
       <c r="L17" t="n">
-        <v>355.93</v>
+        <v>353.37</v>
       </c>
       <c r="M17" t="n">
-        <v>340.05</v>
+        <v>338.57</v>
       </c>
       <c r="N17" t="n">
         <v>333.06</v>
@@ -1781,10 +1781,10 @@
         <v>345.89</v>
       </c>
       <c r="L18" t="n">
-        <v>351.62</v>
+        <v>350.26</v>
       </c>
       <c r="M18" t="n">
-        <v>343.64</v>
+        <v>342.85</v>
       </c>
       <c r="N18" t="n">
         <v>339.76</v>
@@ -1906,7 +1906,7 @@
         <v>329.73</v>
       </c>
       <c r="C20" t="n">
-        <v>301.99</v>
+        <v>303.74</v>
       </c>
       <c r="D20" t="n">
         <v>290.1</v>
@@ -1933,10 +1933,10 @@
         <v>308.45</v>
       </c>
       <c r="L20" t="n">
-        <v>320.05</v>
+        <v>321.45</v>
       </c>
       <c r="M20" t="n">
-        <v>313.75</v>
+        <v>314.56</v>
       </c>
       <c r="N20" t="n">
         <v>304.92</v>
@@ -1980,7 +1980,7 @@
         <v>300.45</v>
       </c>
       <c r="C21" t="n">
-        <v>290.96</v>
+        <v>289.13</v>
       </c>
       <c r="D21" t="n">
         <v>286.62</v>
@@ -2007,10 +2007,10 @@
         <v>302.32</v>
       </c>
       <c r="L21" t="n">
-        <v>315.85</v>
+        <v>314.38</v>
       </c>
       <c r="M21" t="n">
-        <v>312.23</v>
+        <v>311.38</v>
       </c>
       <c r="N21" t="n">
         <v>305.6</v>
@@ -2058,7 +2058,7 @@
         <v>292.16</v>
       </c>
       <c r="C22" t="n">
-        <v>290.95</v>
+        <v>293.26</v>
       </c>
       <c r="D22" t="n">
         <v>284.69</v>
@@ -2085,10 +2085,10 @@
         <v>307.45</v>
       </c>
       <c r="L22" t="n">
-        <v>323.72</v>
+        <v>325.56</v>
       </c>
       <c r="M22" t="n">
-        <v>311.44</v>
+        <v>312.5</v>
       </c>
       <c r="N22" t="n">
         <v>305.21</v>
@@ -2134,7 +2134,7 @@
         <v>289.38</v>
       </c>
       <c r="C23" t="n">
-        <v>287.04</v>
+        <v>287.1</v>
       </c>
       <c r="D23" t="n">
         <v>272.74</v>
@@ -2161,10 +2161,10 @@
         <v>334.08</v>
       </c>
       <c r="L23" t="n">
-        <v>336.26</v>
+        <v>336.3</v>
       </c>
       <c r="M23" t="n">
-        <v>335.96</v>
+        <v>335.98</v>
       </c>
       <c r="N23" t="n">
         <v>333.72</v>
@@ -2212,7 +2212,7 @@
         <v>307.36</v>
       </c>
       <c r="C24" t="n">
-        <v>307.2</v>
+        <v>304.17</v>
       </c>
       <c r="D24" t="n">
         <v>306.32</v>
@@ -2239,10 +2239,10 @@
         <v>336.91</v>
       </c>
       <c r="L24" t="n">
-        <v>347.35</v>
+        <v>344.93</v>
       </c>
       <c r="M24" t="n">
-        <v>343.02</v>
+        <v>341.62</v>
       </c>
       <c r="N24" t="n">
         <v>334.14</v>
@@ -2290,7 +2290,7 @@
         <v>309.5</v>
       </c>
       <c r="C25" t="n">
-        <v>299.13</v>
+        <v>299.96</v>
       </c>
       <c r="D25" t="n">
         <v>300.55</v>
@@ -2317,10 +2317,10 @@
         <v>339.27</v>
       </c>
       <c r="L25" t="n">
-        <v>342.01</v>
+        <v>342.68</v>
       </c>
       <c r="M25" t="n">
-        <v>340.42</v>
+        <v>340.8</v>
       </c>
       <c r="N25" t="n">
         <v>331.93</v>
@@ -2368,7 +2368,7 @@
         <v>291.58</v>
       </c>
       <c r="C26" t="n">
-        <v>282.67</v>
+        <v>279.95</v>
       </c>
       <c r="D26" t="n">
         <v>283.31</v>
@@ -2395,10 +2395,10 @@
         <v>325.98</v>
       </c>
       <c r="L26" t="n">
-        <v>331.07</v>
+        <v>328.89</v>
       </c>
       <c r="M26" t="n">
-        <v>327</v>
+        <v>325.75</v>
       </c>
       <c r="N26" t="n">
         <v>322.84</v>
@@ -2432,7 +2432,7 @@
         <v>284.61</v>
       </c>
       <c r="C27" t="n">
-        <v>281.99</v>
+        <v>281.21</v>
       </c>
       <c r="D27" t="n">
         <v>273.51</v>
@@ -2459,10 +2459,10 @@
         <v>323.82</v>
       </c>
       <c r="L27" t="n">
-        <v>330.08</v>
+        <v>329.46</v>
       </c>
       <c r="M27" t="n">
-        <v>317.73</v>
+        <v>317.37</v>
       </c>
       <c r="N27" t="n">
         <v>318.14</v>
@@ -2510,7 +2510,7 @@
         <v>258.27</v>
       </c>
       <c r="C28" t="n">
-        <v>257.25</v>
+        <v>259.28</v>
       </c>
       <c r="D28" t="n">
         <v>276.18</v>
@@ -2537,10 +2537,10 @@
         <v>341.57</v>
       </c>
       <c r="L28" t="n">
-        <v>324.49</v>
+        <v>326.11</v>
       </c>
       <c r="M28" t="n">
-        <v>315.87</v>
+        <v>316.81</v>
       </c>
       <c r="N28" t="n">
         <v>319.41</v>
@@ -2584,7 +2584,7 @@
         <v>258.47</v>
       </c>
       <c r="C29" t="n">
-        <v>250.13</v>
+        <v>251.99</v>
       </c>
       <c r="D29" t="n">
         <v>253.81</v>
@@ -2611,10 +2611,10 @@
         <v>310.44</v>
       </c>
       <c r="L29" t="n">
-        <v>319.48</v>
+        <v>320.97</v>
       </c>
       <c r="M29" t="n">
-        <v>316.95</v>
+        <v>317.81</v>
       </c>
       <c r="N29" t="n">
         <v>310.93</v>
@@ -2683,10 +2683,10 @@
         <v>309.62</v>
       </c>
       <c r="L30" t="n">
-        <v>315.77</v>
+        <v>315.57</v>
       </c>
       <c r="M30" t="n">
-        <v>315.43</v>
+        <v>315.31</v>
       </c>
       <c r="N30" t="n">
         <v>314.71</v>
@@ -2734,7 +2734,7 @@
         <v>270.65</v>
       </c>
       <c r="C31" t="n">
-        <v>274.38</v>
+        <v>274.27</v>
       </c>
       <c r="D31" t="n">
         <v>272.04</v>
@@ -2757,10 +2757,10 @@
         <v>319.24</v>
       </c>
       <c r="L31" t="n">
-        <v>325.02</v>
+        <v>324.93</v>
       </c>
       <c r="M31" t="n">
-        <v>321.13</v>
+        <v>321.08</v>
       </c>
       <c r="N31" t="n">
         <v>322.61</v>
@@ -2808,7 +2808,7 @@
         <v>275.96</v>
       </c>
       <c r="C32" t="n">
-        <v>277.3</v>
+        <v>275.74</v>
       </c>
       <c r="D32" t="n">
         <v>279.06</v>
@@ -2835,10 +2835,10 @@
         <v>322.34</v>
       </c>
       <c r="L32" t="n">
-        <v>329.38</v>
+        <v>328.14</v>
       </c>
       <c r="M32" t="n">
-        <v>329.89</v>
+        <v>329.18</v>
       </c>
       <c r="N32" t="n">
         <v>329.88</v>
@@ -2886,7 +2886,7 @@
         <v>296.59</v>
       </c>
       <c r="C33" t="n">
-        <v>289.01</v>
+        <v>287.65</v>
       </c>
       <c r="D33" t="n">
         <v>291.72</v>
@@ -2913,10 +2913,10 @@
         <v>331.9</v>
       </c>
       <c r="L33" t="n">
-        <v>334.05</v>
+        <v>332.96</v>
       </c>
       <c r="M33" t="n">
-        <v>334.88</v>
+        <v>334.25</v>
       </c>
       <c r="N33" t="n">
         <v>330.07</v>
@@ -2964,7 +2964,7 @@
         <v>290.11</v>
       </c>
       <c r="C34" t="n">
-        <v>283.17</v>
+        <v>282.98</v>
       </c>
       <c r="D34" t="n">
         <v>291.25</v>
@@ -2991,10 +2991,10 @@
         <v>329.69</v>
       </c>
       <c r="L34" t="n">
-        <v>338.03</v>
+        <v>337.87</v>
       </c>
       <c r="M34" t="n">
-        <v>331.56</v>
+        <v>331.47</v>
       </c>
       <c r="N34" t="n">
         <v>327.09</v>
@@ -3042,7 +3042,7 @@
         <v>296.28</v>
       </c>
       <c r="C35" t="n">
-        <v>291.56</v>
+        <v>288.34</v>
       </c>
       <c r="D35" t="n">
         <v>290.61</v>
@@ -3069,10 +3069,10 @@
         <v>331.99</v>
       </c>
       <c r="L35" t="n">
-        <v>346.14</v>
+        <v>343.56</v>
       </c>
       <c r="M35" t="n">
-        <v>342.81</v>
+        <v>341.33</v>
       </c>
       <c r="N35" t="n">
         <v>335.75</v>
@@ -3118,7 +3118,7 @@
         <v>347.64</v>
       </c>
       <c r="C36" t="n">
-        <v>328.23</v>
+        <v>329.9</v>
       </c>
       <c r="D36" t="n">
         <v>314.48</v>
@@ -3145,10 +3145,10 @@
         <v>354.26</v>
       </c>
       <c r="L36" t="n">
-        <v>349.07</v>
+        <v>350.4</v>
       </c>
       <c r="M36" t="n">
-        <v>348.72</v>
+        <v>349.49</v>
       </c>
       <c r="N36" t="n">
         <v>349.32</v>
@@ -3194,7 +3194,7 @@
         <v>313.38</v>
       </c>
       <c r="C37" t="n">
-        <v>305.19</v>
+        <v>306.5</v>
       </c>
       <c r="D37" t="n">
         <v>303.68</v>
@@ -3221,10 +3221,10 @@
         <v>335.77</v>
       </c>
       <c r="L37" t="n">
-        <v>350.17</v>
+        <v>351.21</v>
       </c>
       <c r="M37" t="n">
-        <v>350.83</v>
+        <v>351.43</v>
       </c>
       <c r="N37" t="n">
         <v>341.94</v>
@@ -3272,7 +3272,7 @@
         <v>282.24</v>
       </c>
       <c r="C38" t="n">
-        <v>270.85</v>
+        <v>271.46</v>
       </c>
       <c r="D38" t="n">
         <v>270.21</v>
@@ -3299,10 +3299,10 @@
         <v>327.47</v>
       </c>
       <c r="L38" t="n">
-        <v>327.46</v>
+        <v>327.95</v>
       </c>
       <c r="M38" t="n">
-        <v>324.77</v>
+        <v>325.06</v>
       </c>
       <c r="N38" t="n">
         <v>322.8</v>
@@ -3350,7 +3350,7 @@
         <v>296.04</v>
       </c>
       <c r="C39" t="n">
-        <v>278.55</v>
+        <v>279.94</v>
       </c>
       <c r="D39" t="n">
         <v>275.6</v>
@@ -3377,10 +3377,10 @@
         <v>331.19</v>
       </c>
       <c r="L39" t="n">
-        <v>343.29</v>
+        <v>344.4</v>
       </c>
       <c r="M39" t="n">
-        <v>340.3</v>
+        <v>340.94</v>
       </c>
       <c r="N39" t="n">
         <v>327.43</v>
@@ -3428,7 +3428,7 @@
         <v>271.46</v>
       </c>
       <c r="C40" t="n">
-        <v>270.94</v>
+        <v>269.69</v>
       </c>
       <c r="D40" t="n">
         <v>271.78</v>
@@ -3455,10 +3455,10 @@
         <v>316.49</v>
       </c>
       <c r="L40" t="n">
-        <v>323.42</v>
+        <v>322.42</v>
       </c>
       <c r="M40" t="n">
-        <v>317.01</v>
+        <v>316.43</v>
       </c>
       <c r="N40" t="n">
         <v>314.86</v>
@@ -3502,7 +3502,7 @@
         <v>291.83</v>
       </c>
       <c r="C41" t="n">
-        <v>301.01</v>
+        <v>302.59</v>
       </c>
       <c r="D41" t="n">
         <v>302.04</v>
@@ -3529,10 +3529,10 @@
         <v>334.64</v>
       </c>
       <c r="L41" t="n">
-        <v>327.84</v>
+        <v>329.11</v>
       </c>
       <c r="M41" t="n">
-        <v>325.04</v>
+        <v>325.77</v>
       </c>
       <c r="N41" t="n">
         <v>327.2</v>
@@ -3578,7 +3578,7 @@
         <v>283.22</v>
       </c>
       <c r="C42" t="n">
-        <v>272.09</v>
+        <v>272.7</v>
       </c>
       <c r="D42" t="n">
         <v>265.79</v>
@@ -3605,10 +3605,10 @@
         <v>315.17</v>
       </c>
       <c r="L42" t="n">
-        <v>323.44</v>
+        <v>323.93</v>
       </c>
       <c r="M42" t="n">
-        <v>317.63</v>
+        <v>317.92</v>
       </c>
       <c r="N42" t="n">
         <v>313.5</v>
@@ -3656,7 +3656,7 @@
         <v>254.99</v>
       </c>
       <c r="C43" t="n">
-        <v>251.61</v>
+        <v>253.19</v>
       </c>
       <c r="D43" t="n">
         <v>254.44</v>
@@ -3683,10 +3683,10 @@
         <v>304.69</v>
       </c>
       <c r="L43" t="n">
-        <v>306.88</v>
+        <v>308.15</v>
       </c>
       <c r="M43" t="n">
-        <v>304.43</v>
+        <v>305.16</v>
       </c>
       <c r="N43" t="n">
         <v>306.3</v>
@@ -3732,7 +3732,7 @@
         <v>262.25</v>
       </c>
       <c r="C44" t="n">
-        <v>249.04</v>
+        <v>248.85</v>
       </c>
       <c r="D44" t="n">
         <v>244.7</v>
@@ -3759,10 +3759,10 @@
         <v>298.52</v>
       </c>
       <c r="L44" t="n">
-        <v>300.86</v>
+        <v>300.7</v>
       </c>
       <c r="M44" t="n">
-        <v>303.25</v>
+        <v>303.16</v>
       </c>
       <c r="N44" t="n">
         <v>294.28</v>
@@ -3810,7 +3810,7 @@
         <v>266.45</v>
       </c>
       <c r="C45" t="n">
-        <v>261.78</v>
+        <v>261.17</v>
       </c>
       <c r="D45" t="n">
         <v>259.12</v>
@@ -3837,10 +3837,10 @@
         <v>320.83</v>
       </c>
       <c r="L45" t="n">
-        <v>312.49</v>
+        <v>312</v>
       </c>
       <c r="M45" t="n">
-        <v>316.09</v>
+        <v>315.8</v>
       </c>
       <c r="N45" t="n">
         <v>307.77</v>
@@ -3888,7 +3888,7 @@
         <v>237.16</v>
       </c>
       <c r="C46" t="n">
-        <v>235.77</v>
+        <v>236.6</v>
       </c>
       <c r="D46" t="n">
         <v>239.32</v>
@@ -3915,10 +3915,10 @@
         <v>300.78</v>
       </c>
       <c r="L46" t="n">
-        <v>305.99</v>
+        <v>306.66</v>
       </c>
       <c r="M46" t="n">
-        <v>302.7</v>
+        <v>303.08</v>
       </c>
       <c r="N46" t="n">
         <v>297.3</v>
@@ -3966,7 +3966,7 @@
         <v>248.49</v>
       </c>
       <c r="C47" t="n">
-        <v>245.68</v>
+        <v>247.93</v>
       </c>
       <c r="D47" t="n">
         <v>241.59</v>
@@ -3993,10 +3993,10 @@
         <v>302.13</v>
       </c>
       <c r="L47" t="n">
-        <v>289.24</v>
+        <v>291.04</v>
       </c>
       <c r="M47" t="n">
-        <v>290.32</v>
+        <v>291.36</v>
       </c>
       <c r="N47" t="n">
         <v>291.5</v>
@@ -4038,7 +4038,7 @@
         <v>282.25</v>
       </c>
       <c r="C48" t="n">
-        <v>268.23</v>
+        <v>267.06</v>
       </c>
       <c r="D48" t="n">
         <v>269.96</v>
@@ -4065,10 +4065,10 @@
         <v>322.65</v>
       </c>
       <c r="L48" t="n">
-        <v>331.41</v>
+        <v>330.48</v>
       </c>
       <c r="M48" t="n">
-        <v>323.74</v>
+        <v>323.2</v>
       </c>
       <c r="N48" t="n">
         <v>324.6</v>
@@ -4116,7 +4116,7 @@
         <v>310.56</v>
       </c>
       <c r="C49" t="n">
-        <v>292.2</v>
+        <v>293.14</v>
       </c>
       <c r="D49" t="n">
         <v>294.03</v>
@@ -4143,10 +4143,10 @@
         <v>325.36</v>
       </c>
       <c r="L49" t="n">
-        <v>331.77</v>
+        <v>332.53</v>
       </c>
       <c r="M49" t="n">
-        <v>326.74</v>
+        <v>327.18</v>
       </c>
       <c r="N49" t="n">
         <v>322.24</v>
@@ -4213,10 +4213,10 @@
         <v>323.32</v>
       </c>
       <c r="L50" t="n">
-        <v>338.13</v>
+        <v>336.82</v>
       </c>
       <c r="M50" t="n">
-        <v>330.48</v>
+        <v>329.73</v>
       </c>
       <c r="N50" t="n">
         <v>321.53</v>
@@ -4264,7 +4264,7 @@
         <v>250.12</v>
       </c>
       <c r="C51" t="n">
-        <v>250.3</v>
+        <v>251.33</v>
       </c>
       <c r="D51" t="n">
         <v>260.55</v>
@@ -4291,10 +4291,10 @@
         <v>308.05</v>
       </c>
       <c r="L51" t="n">
-        <v>320.4</v>
+        <v>321.22</v>
       </c>
       <c r="M51" t="n">
-        <v>302.32</v>
+        <v>302.8</v>
       </c>
       <c r="N51" t="n">
         <v>293.35</v>
@@ -4340,7 +4340,7 @@
         <v>288.5</v>
       </c>
       <c r="C52" t="n">
-        <v>283.67</v>
+        <v>280.45</v>
       </c>
       <c r="D52" t="n">
         <v>270.4</v>
@@ -4367,10 +4367,10 @@
         <v>315.58</v>
       </c>
       <c r="L52" t="n">
-        <v>324.56</v>
+        <v>321.98</v>
       </c>
       <c r="M52" t="n">
-        <v>317.98</v>
+        <v>316.5</v>
       </c>
       <c r="N52" t="n">
         <v>313.66</v>
@@ -4418,7 +4418,7 @@
         <v>279.84</v>
       </c>
       <c r="C53" t="n">
-        <v>273.55</v>
+        <v>274.61</v>
       </c>
       <c r="D53" t="n">
         <v>267.42</v>
@@ -4445,10 +4445,10 @@
         <v>301.05</v>
       </c>
       <c r="L53" t="n">
-        <v>308.48</v>
+        <v>309.32</v>
       </c>
       <c r="M53" t="n">
-        <v>304.36</v>
+        <v>304.84</v>
       </c>
       <c r="N53" t="n">
         <v>312.94</v>
@@ -4502,7 +4502,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>303.3</v>
+        <v>302.09</v>
       </c>
       <c r="N54" t="n">
         <v>295.06</v>
@@ -4546,7 +4546,7 @@
         <v>244.76</v>
       </c>
       <c r="C55" t="n">
-        <v>244.06</v>
+        <v>245.23</v>
       </c>
       <c r="D55" t="n">
         <v>240.61</v>
@@ -4573,10 +4573,10 @@
         <v>307.29</v>
       </c>
       <c r="L55" t="n">
-        <v>325.26</v>
+        <v>326.19</v>
       </c>
       <c r="M55" t="n">
-        <v>300.38</v>
+        <v>300.92</v>
       </c>
       <c r="N55" t="n">
         <v>291.47</v>
@@ -4678,7 +4678,7 @@
         <v>240.6</v>
       </c>
       <c r="C57" t="n">
-        <v>242.87</v>
+        <v>244.48</v>
       </c>
       <c r="D57" t="n">
         <v>249.85</v>
@@ -4705,10 +4705,10 @@
         <v>313.14</v>
       </c>
       <c r="L57" t="n">
-        <v>319.14</v>
+        <v>320.43</v>
       </c>
       <c r="M57" t="n">
-        <v>313.82</v>
+        <v>314.57</v>
       </c>
       <c r="N57" t="n">
         <v>300.71</v>
@@ -4754,7 +4754,7 @@
         <v>246.56</v>
       </c>
       <c r="C58" t="n">
-        <v>248.36</v>
+        <v>246.72</v>
       </c>
       <c r="D58" t="n">
         <v>242.74</v>
@@ -4781,10 +4781,10 @@
         <v>312.45</v>
       </c>
       <c r="L58" t="n">
-        <v>311.07</v>
+        <v>309.76</v>
       </c>
       <c r="M58" t="n">
-        <v>309.92</v>
+        <v>309.17</v>
       </c>
       <c r="N58" t="n">
         <v>309.76</v>
@@ -4832,7 +4832,7 @@
         <v>279.91</v>
       </c>
       <c r="C59" t="n">
-        <v>271.55</v>
+        <v>272.74</v>
       </c>
       <c r="D59" t="n">
         <v>269.31</v>
@@ -4859,10 +4859,10 @@
         <v>326.11</v>
       </c>
       <c r="L59" t="n">
-        <v>333.22</v>
+        <v>334.18</v>
       </c>
       <c r="M59" t="n">
-        <v>326.64</v>
+        <v>327.19</v>
       </c>
       <c r="N59" t="n">
         <v>319.26</v>
@@ -4910,7 +4910,7 @@
         <v>272.2</v>
       </c>
       <c r="C60" t="n">
-        <v>262.73</v>
+        <v>261.04</v>
       </c>
       <c r="D60" t="n">
         <v>257.3</v>
@@ -4937,10 +4937,10 @@
         <v>310.9</v>
       </c>
       <c r="L60" t="n">
-        <v>314.65</v>
+        <v>313.29</v>
       </c>
       <c r="M60" t="n">
-        <v>302.13</v>
+        <v>301.34</v>
       </c>
       <c r="N60" t="n">
         <v>298.5</v>
@@ -4988,7 +4988,7 @@
         <v>241.83</v>
       </c>
       <c r="C61" t="n">
-        <v>247.45</v>
+        <v>246.37</v>
       </c>
       <c r="D61" t="n">
         <v>257.55</v>
@@ -5015,10 +5015,10 @@
         <v>303.45</v>
       </c>
       <c r="L61" t="n">
-        <v>311.71</v>
+        <v>310.84</v>
       </c>
       <c r="M61" t="n">
-        <v>300.98</v>
+        <v>300.48</v>
       </c>
       <c r="N61" t="n">
         <v>296.8</v>
@@ -5066,7 +5066,7 @@
         <v>270.67</v>
       </c>
       <c r="C62" t="n">
-        <v>256.07</v>
+        <v>254.79</v>
       </c>
       <c r="D62" t="n">
         <v>257.03</v>
@@ -5093,10 +5093,10 @@
         <v>315.71</v>
       </c>
       <c r="L62" t="n">
-        <v>326.87</v>
+        <v>325.85</v>
       </c>
       <c r="M62" t="n">
-        <v>313.95</v>
+        <v>313.36</v>
       </c>
       <c r="N62" t="n">
         <v>306.94</v>
@@ -5144,7 +5144,7 @@
         <v>279.06</v>
       </c>
       <c r="C63" t="n">
-        <v>263.81</v>
+        <v>263.09</v>
       </c>
       <c r="D63" t="n">
         <v>265.92</v>
@@ -5171,10 +5171,10 @@
         <v>330.77</v>
       </c>
       <c r="L63" t="n">
-        <v>340.11</v>
+        <v>339.53</v>
       </c>
       <c r="M63" t="n">
-        <v>335.23</v>
+        <v>334.9</v>
       </c>
       <c r="N63" t="n">
         <v>323.49</v>
@@ -5222,7 +5222,7 @@
         <v>309.52</v>
       </c>
       <c r="C64" t="n">
-        <v>296.84</v>
+        <v>298.2</v>
       </c>
       <c r="D64" t="n">
         <v>293.91</v>
@@ -5249,10 +5249,10 @@
         <v>327.88</v>
       </c>
       <c r="L64" t="n">
-        <v>332.65</v>
+        <v>333.74</v>
       </c>
       <c r="M64" t="n">
-        <v>326.1</v>
+        <v>326.73</v>
       </c>
       <c r="N64" t="n">
         <v>315.67</v>
@@ -5315,10 +5315,10 @@
         <v>286.12</v>
       </c>
       <c r="L65" t="n">
-        <v>299.9</v>
+        <v>299.23</v>
       </c>
       <c r="M65" t="n">
-        <v>290.14</v>
+        <v>289.76</v>
       </c>
       <c r="N65" t="n">
         <v>293.69</v>
@@ -5352,7 +5352,7 @@
         <v>284.77</v>
       </c>
       <c r="C66" t="n">
-        <v>287.46</v>
+        <v>285.71</v>
       </c>
       <c r="D66" t="n">
         <v>286.93</v>
@@ -5379,10 +5379,10 @@
         <v>316.52</v>
       </c>
       <c r="L66" t="n">
-        <v>318.91</v>
+        <v>317.51</v>
       </c>
       <c r="M66" t="n">
-        <v>308.74</v>
+        <v>307.93</v>
       </c>
       <c r="N66" t="n">
         <v>306.7</v>
@@ -5430,7 +5430,7 @@
         <v>243.84</v>
       </c>
       <c r="C67" t="n">
-        <v>228.59</v>
+        <v>230.37</v>
       </c>
       <c r="D67" t="n">
         <v>245.41</v>
@@ -5457,10 +5457,10 @@
         <v>293.46</v>
       </c>
       <c r="L67" t="n">
-        <v>317.01</v>
+        <v>318.43</v>
       </c>
       <c r="M67" t="n">
-        <v>295.86</v>
+        <v>296.68</v>
       </c>
       <c r="N67" t="n">
         <v>281.75</v>
@@ -5502,7 +5502,7 @@
         <v>251.9</v>
       </c>
       <c r="C68" t="n">
-        <v>253.1</v>
+        <v>254.96</v>
       </c>
       <c r="D68" t="n">
         <v>258.32</v>
@@ -5529,7 +5529,7 @@
         <v>308.18</v>
       </c>
       <c r="L68" t="n">
-        <v>311.93</v>
+        <v>313.42</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -5562,7 +5562,7 @@
         <v>290.67</v>
       </c>
       <c r="C69" t="n">
-        <v>279.83</v>
+        <v>278.75</v>
       </c>
       <c r="D69" t="n">
         <v>286.69</v>
@@ -5589,10 +5589,10 @@
         <v>327.28</v>
       </c>
       <c r="L69" t="n">
-        <v>344.09</v>
+        <v>343.22</v>
       </c>
       <c r="M69" t="n">
-        <v>334.1</v>
+        <v>333.6</v>
       </c>
       <c r="N69" t="n">
         <v>327.64</v>
@@ -5640,7 +5640,7 @@
         <v>271.25</v>
       </c>
       <c r="C70" t="n">
-        <v>258.42</v>
+        <v>259.5</v>
       </c>
       <c r="D70" t="n">
         <v>263.32</v>
@@ -5667,10 +5667,10 @@
         <v>307.8</v>
       </c>
       <c r="L70" t="n">
-        <v>314.27</v>
+        <v>315.14</v>
       </c>
       <c r="M70" t="n">
-        <v>311.13</v>
+        <v>311.63</v>
       </c>
       <c r="N70" t="n">
         <v>311.43</v>
@@ -5718,7 +5718,7 @@
         <v>262.85</v>
       </c>
       <c r="C71" t="n">
-        <v>261.23</v>
+        <v>259.9</v>
       </c>
       <c r="D71" t="n">
         <v>260.59</v>
@@ -5745,10 +5745,10 @@
         <v>305.3</v>
       </c>
       <c r="L71" t="n">
-        <v>312.93</v>
+        <v>311.86</v>
       </c>
       <c r="M71" t="n">
-        <v>308.94</v>
+        <v>308.32</v>
       </c>
       <c r="N71" t="n">
         <v>301.76</v>
@@ -5796,7 +5796,7 @@
         <v>281.95</v>
       </c>
       <c r="C72" t="n">
-        <v>277.28</v>
+        <v>276.5</v>
       </c>
       <c r="D72" t="n">
         <v>278.09</v>
@@ -5823,10 +5823,10 @@
         <v>323.1</v>
       </c>
       <c r="L72" t="n">
-        <v>335.91</v>
+        <v>335.29</v>
       </c>
       <c r="M72" t="n">
-        <v>331.91</v>
+        <v>331.55</v>
       </c>
       <c r="N72" t="n">
         <v>327.29</v>
@@ -5874,7 +5874,7 @@
         <v>282.93</v>
       </c>
       <c r="C73" t="n">
-        <v>278.66</v>
+        <v>279.58</v>
       </c>
       <c r="D73" t="n">
         <v>274.66</v>
@@ -5901,10 +5901,10 @@
         <v>302.25</v>
       </c>
       <c r="L73" t="n">
-        <v>307.98</v>
+        <v>308.71</v>
       </c>
       <c r="M73" t="n">
-        <v>305.64</v>
+        <v>306.06</v>
       </c>
       <c r="N73" t="n">
         <v>295.41</v>
@@ -5952,7 +5952,7 @@
         <v>263.13</v>
       </c>
       <c r="C74" t="n">
-        <v>265.21</v>
+        <v>263.46</v>
       </c>
       <c r="D74" t="n">
         <v>267.01</v>
@@ -5979,10 +5979,10 @@
         <v>312.57</v>
       </c>
       <c r="L74" t="n">
-        <v>320.31</v>
+        <v>318.91</v>
       </c>
       <c r="M74" t="n">
-        <v>311.71</v>
+        <v>310.9</v>
       </c>
       <c r="N74" t="n">
         <v>314.39</v>
@@ -6030,7 +6030,7 @@
         <v>297.96</v>
       </c>
       <c r="C75" t="n">
-        <v>286.72</v>
+        <v>288.33</v>
       </c>
       <c r="D75" t="n">
         <v>287.92</v>
@@ -6057,10 +6057,10 @@
         <v>326.07</v>
       </c>
       <c r="L75" t="n">
-        <v>338.43</v>
+        <v>339.72</v>
       </c>
       <c r="M75" t="n">
-        <v>327.52</v>
+        <v>328.27</v>
       </c>
       <c r="N75" t="n">
         <v>331.02</v>
@@ -6108,7 +6108,7 @@
         <v>300.21</v>
       </c>
       <c r="C76" t="n">
-        <v>296.61</v>
+        <v>298.5</v>
       </c>
       <c r="D76" t="n">
         <v>299.15</v>
@@ -6135,10 +6135,10 @@
         <v>315.23</v>
       </c>
       <c r="L76" t="n">
-        <v>322.05</v>
+        <v>323.56</v>
       </c>
       <c r="M76" t="n">
-        <v>307.68</v>
+        <v>308.55</v>
       </c>
       <c r="N76" t="n">
         <v>309.04</v>
@@ -6184,7 +6184,7 @@
         <v>271.29</v>
       </c>
       <c r="C77" t="n">
-        <v>270.45</v>
+        <v>268.56</v>
       </c>
       <c r="D77" t="n">
         <v>259.73</v>
@@ -6211,10 +6211,10 @@
         <v>303.26</v>
       </c>
       <c r="L77" t="n">
-        <v>316.02</v>
+        <v>314.51</v>
       </c>
       <c r="M77" t="n">
-        <v>310.91</v>
+        <v>310.04</v>
       </c>
       <c r="N77" t="n">
         <v>302.37</v>
@@ -6262,7 +6262,7 @@
         <v>295.08</v>
       </c>
       <c r="C78" t="n">
-        <v>299.25</v>
+        <v>296.17</v>
       </c>
       <c r="D78" t="n">
         <v>285.67</v>
@@ -6289,10 +6289,10 @@
         <v>316.03</v>
       </c>
       <c r="L78" t="n">
-        <v>328.23</v>
+        <v>325.76</v>
       </c>
       <c r="M78" t="n">
-        <v>322.7</v>
+        <v>321.28</v>
       </c>
       <c r="N78" t="n">
         <v>316.22</v>
@@ -6340,7 +6340,7 @@
         <v>285.63</v>
       </c>
       <c r="C79" t="n">
-        <v>279.11</v>
+        <v>275.78</v>
       </c>
       <c r="D79" t="n">
         <v>271.3</v>
@@ -6367,10 +6367,10 @@
         <v>323.93</v>
       </c>
       <c r="L79" t="n">
-        <v>333.64</v>
+        <v>330.97</v>
       </c>
       <c r="M79" t="n">
-        <v>333.33</v>
+        <v>331.79</v>
       </c>
       <c r="N79" t="n">
         <v>316.24</v>
@@ -6439,10 +6439,10 @@
         <v>310.27</v>
       </c>
       <c r="L80" t="n">
-        <v>322.69</v>
+        <v>323.93</v>
       </c>
       <c r="M80" t="n">
-        <v>334.51</v>
+        <v>335.22</v>
       </c>
       <c r="N80" t="n">
         <v>327.58</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>270.02</v>
+        <v>272.49</v>
       </c>
       <c r="D81" t="n">
         <v>257.53</v>
@@ -6513,10 +6513,10 @@
         <v>302.06</v>
       </c>
       <c r="L81" t="n">
-        <v>304.3</v>
+        <v>306.28</v>
       </c>
       <c r="M81" t="n">
-        <v>293.1</v>
+        <v>294.24</v>
       </c>
       <c r="N81" t="n">
         <v>299.74</v>
@@ -6564,7 +6564,7 @@
         <v>295.87</v>
       </c>
       <c r="C82" t="n">
-        <v>281.57</v>
+        <v>280.07</v>
       </c>
       <c r="D82" t="n">
         <v>257.47</v>
@@ -6591,10 +6591,10 @@
         <v>315.99</v>
       </c>
       <c r="L82" t="n">
-        <v>319.17</v>
+        <v>317.97</v>
       </c>
       <c r="M82" t="n">
-        <v>316.47</v>
+        <v>315.78</v>
       </c>
       <c r="N82" t="n">
         <v>309.07</v>
@@ -6715,10 +6715,10 @@
         <v>317.73</v>
       </c>
       <c r="L84" t="n">
-        <v>318.85</v>
+        <v>317.41</v>
       </c>
       <c r="M84" t="n">
-        <v>313.49</v>
+        <v>312.66</v>
       </c>
       <c r="N84" t="n">
         <v>307.03</v>
@@ -6766,7 +6766,7 @@
         <v>280.64</v>
       </c>
       <c r="C85" t="n">
-        <v>274.76</v>
+        <v>276.45</v>
       </c>
       <c r="D85" t="n">
         <v>271.76</v>
@@ -6793,10 +6793,10 @@
         <v>309.2</v>
       </c>
       <c r="L85" t="n">
-        <v>317.54</v>
+        <v>318.9</v>
       </c>
       <c r="M85" t="n">
-        <v>306.77</v>
+        <v>307.56</v>
       </c>
       <c r="N85" t="n">
         <v>301.19</v>
@@ -6844,7 +6844,7 @@
         <v>265.48</v>
       </c>
       <c r="C86" t="n">
-        <v>253.07</v>
+        <v>255.07</v>
       </c>
       <c r="D86" t="n">
         <v>249.5</v>
@@ -6871,10 +6871,10 @@
         <v>293.44</v>
       </c>
       <c r="L86" t="n">
-        <v>303.08</v>
+        <v>304.68</v>
       </c>
       <c r="M86" t="n">
-        <v>294.18</v>
+        <v>295.1</v>
       </c>
       <c r="N86" t="n">
         <v>290.31</v>
@@ -6922,7 +6922,7 @@
         <v>278.78</v>
       </c>
       <c r="C87" t="n">
-        <v>274.93</v>
+        <v>273.76</v>
       </c>
       <c r="D87" t="n">
         <v>264.97</v>
@@ -6949,10 +6949,10 @@
         <v>301.96</v>
       </c>
       <c r="L87" t="n">
-        <v>311.23</v>
+        <v>310.3</v>
       </c>
       <c r="M87" t="n">
-        <v>307.39</v>
+        <v>306.85</v>
       </c>
       <c r="N87" t="n">
         <v>301.43</v>
@@ -7000,7 +7000,7 @@
         <v>270.15</v>
       </c>
       <c r="C88" t="n">
-        <v>267.09</v>
+        <v>264.12</v>
       </c>
       <c r="D88" t="n">
         <v>260.47</v>
@@ -7027,10 +7027,10 @@
         <v>302.03</v>
       </c>
       <c r="L88" t="n">
-        <v>307.24</v>
+        <v>304.86</v>
       </c>
       <c r="M88" t="n">
-        <v>297.32</v>
+        <v>295.95</v>
       </c>
       <c r="N88" t="n">
         <v>298.95</v>
@@ -7078,7 +7078,7 @@
         <v>281.1</v>
       </c>
       <c r="C89" t="n">
-        <v>278.37</v>
+        <v>277.31</v>
       </c>
       <c r="D89" t="n">
         <v>277.08</v>
@@ -7105,10 +7105,10 @@
         <v>320.81</v>
       </c>
       <c r="L89" t="n">
-        <v>337.53</v>
+        <v>336.69</v>
       </c>
       <c r="M89" t="n">
-        <v>327.43</v>
+        <v>326.95</v>
       </c>
       <c r="N89" t="n">
         <v>314.49</v>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>283.03</v>
+        <v>279.5</v>
       </c>
       <c r="D90" t="n">
         <v>272.97</v>
@@ -7181,10 +7181,10 @@
         <v>310.65</v>
       </c>
       <c r="L90" t="n">
-        <v>318.88</v>
+        <v>316.06</v>
       </c>
       <c r="M90" t="n">
-        <v>318.62</v>
+        <v>316.99</v>
       </c>
       <c r="N90" t="n">
         <v>310.8</v>
@@ -7232,7 +7232,7 @@
         <v>290.7</v>
       </c>
       <c r="C91" t="n">
-        <v>278.84</v>
+        <v>279.81</v>
       </c>
       <c r="D91" t="n">
         <v>270.64</v>
@@ -7259,10 +7259,10 @@
         <v>312.45</v>
       </c>
       <c r="L91" t="n">
-        <v>324.84</v>
+        <v>325.62</v>
       </c>
       <c r="M91" t="n">
-        <v>334.46</v>
+        <v>334.91</v>
       </c>
       <c r="N91" t="n">
         <v>325.2</v>
@@ -7308,7 +7308,7 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>325.17</v>
+        <v>327.14</v>
       </c>
       <c r="D92" t="n">
         <v>295.95</v>
@@ -7335,10 +7335,10 @@
         <v>326.7</v>
       </c>
       <c r="L92" t="n">
-        <v>348.25</v>
+        <v>349.83</v>
       </c>
       <c r="M92" t="n">
-        <v>346.09</v>
+        <v>347</v>
       </c>
       <c r="N92" t="n">
         <v>339.59</v>
@@ -7384,7 +7384,7 @@
         <v>322.56</v>
       </c>
       <c r="C93" t="n">
-        <v>295.8</v>
+        <v>296.77</v>
       </c>
       <c r="D93" t="n">
         <v>291.12</v>
@@ -7434,7 +7434,7 @@
         <v>277.14</v>
       </c>
       <c r="C94" t="n">
-        <v>269.76</v>
+        <v>269.45</v>
       </c>
       <c r="D94" t="n">
         <v>267.62</v>
@@ -7461,10 +7461,10 @@
         <v>312.45</v>
       </c>
       <c r="L94" t="n">
-        <v>317.73</v>
+        <v>317.49</v>
       </c>
       <c r="M94" t="n">
-        <v>317.38</v>
+        <v>317.24</v>
       </c>
       <c r="N94" t="n">
         <v>310.17</v>
@@ -7512,7 +7512,7 @@
         <v>274.37</v>
       </c>
       <c r="C95" t="n">
-        <v>273.2</v>
+        <v>272.59</v>
       </c>
       <c r="D95" t="n">
         <v>269.07</v>
@@ -7539,10 +7539,10 @@
         <v>316.33</v>
       </c>
       <c r="L95" t="n">
-        <v>322.53</v>
+        <v>322.04</v>
       </c>
       <c r="M95" t="n">
-        <v>318.83</v>
+        <v>318.54</v>
       </c>
       <c r="N95" t="n">
         <v>316.96</v>
@@ -7590,7 +7590,7 @@
         <v>289.37</v>
       </c>
       <c r="C96" t="n">
-        <v>288.26</v>
+        <v>286.29</v>
       </c>
       <c r="D96" t="n">
         <v>282.38</v>
@@ -7617,10 +7617,10 @@
         <v>323.34</v>
       </c>
       <c r="L96" t="n">
-        <v>329.44</v>
+        <v>327.86</v>
       </c>
       <c r="M96" t="n">
-        <v>333.57</v>
+        <v>332.66</v>
       </c>
       <c r="N96" t="n">
         <v>326.69</v>
@@ -7668,7 +7668,7 @@
         <v>273.92</v>
       </c>
       <c r="C97" t="n">
-        <v>266.89</v>
+        <v>265.08</v>
       </c>
       <c r="D97" t="n">
         <v>264.56</v>
@@ -7722,7 +7722,7 @@
         <v>262.64</v>
       </c>
       <c r="C98" t="n">
-        <v>253.61</v>
+        <v>252.33</v>
       </c>
       <c r="D98" t="n">
         <v>254.25</v>
@@ -7749,10 +7749,10 @@
         <v>312.48</v>
       </c>
       <c r="L98" t="n">
-        <v>312.1</v>
+        <v>311.08</v>
       </c>
       <c r="M98" t="n">
-        <v>308.67</v>
+        <v>308.08</v>
       </c>
       <c r="N98" t="n">
         <v>301.97</v>
@@ -7800,7 +7800,7 @@
         <v>249.38</v>
       </c>
       <c r="C99" t="n">
-        <v>244.58</v>
+        <v>243.91</v>
       </c>
       <c r="D99" t="n">
         <v>238.82</v>
@@ -7827,10 +7827,10 @@
         <v>289.87</v>
       </c>
       <c r="L99" t="n">
-        <v>291.5</v>
+        <v>290.97</v>
       </c>
       <c r="M99" t="n">
-        <v>299.84</v>
+        <v>299.53</v>
       </c>
       <c r="N99" t="n">
         <v>287.89</v>
@@ -7878,7 +7878,7 @@
         <v>259.16</v>
       </c>
       <c r="C100" t="n">
-        <v>256.12</v>
+        <v>254.29</v>
       </c>
       <c r="D100" t="n">
         <v>252.91</v>
@@ -7905,10 +7905,10 @@
         <v>303.31</v>
       </c>
       <c r="L100" t="n">
-        <v>314.92</v>
+        <v>313.45</v>
       </c>
       <c r="M100" t="n">
-        <v>311.52</v>
+        <v>310.67</v>
       </c>
       <c r="N100" t="n">
         <v>302.97</v>
@@ -7956,7 +7956,7 @@
         <v>242.6</v>
       </c>
       <c r="C101" t="n">
-        <v>247.72</v>
+        <v>246.3</v>
       </c>
       <c r="D101" t="n">
         <v>246.24</v>
@@ -7983,10 +7983,10 @@
         <v>298.18</v>
       </c>
       <c r="L101" t="n">
-        <v>304.61</v>
+        <v>303.48</v>
       </c>
       <c r="M101" t="n">
-        <v>304.11</v>
+        <v>303.46</v>
       </c>
       <c r="N101" t="n">
         <v>298.16</v>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>283.3</v>
+        <v>285.66</v>
       </c>
       <c r="D102" t="n">
         <v>296.71</v>
@@ -8059,10 +8059,10 @@
         <v>305.77</v>
       </c>
       <c r="L102" t="n">
-        <v>333.35</v>
+        <v>335.24</v>
       </c>
       <c r="M102" t="n">
-        <v>316.38</v>
+        <v>317.47</v>
       </c>
       <c r="N102" t="n">
         <v>310</v>
@@ -8110,7 +8110,7 @@
         <v>269.18</v>
       </c>
       <c r="C103" t="n">
-        <v>266.35</v>
+        <v>264.91</v>
       </c>
       <c r="D103" t="n">
         <v>270.38</v>
@@ -8137,10 +8137,10 @@
         <v>319.64</v>
       </c>
       <c r="L103" t="n">
-        <v>331.48</v>
+        <v>330.32</v>
       </c>
       <c r="M103" t="n">
-        <v>328.24</v>
+        <v>327.57</v>
       </c>
       <c r="N103" t="n">
         <v>320.11</v>
@@ -8186,7 +8186,7 @@
         <v>271.7</v>
       </c>
       <c r="C104" t="n">
-        <v>269.45</v>
+        <v>266.42</v>
       </c>
       <c r="D104" t="n">
         <v>281.99</v>
@@ -8213,10 +8213,10 @@
         <v>326.76</v>
       </c>
       <c r="L104" t="n">
-        <v>340.76</v>
+        <v>338.34</v>
       </c>
       <c r="M104" t="n">
-        <v>336.54</v>
+        <v>335.14</v>
       </c>
       <c r="N104" t="n">
         <v>331.94</v>
@@ -8264,7 +8264,7 @@
         <v>262.39</v>
       </c>
       <c r="C105" t="n">
-        <v>263.58</v>
+        <v>260.33</v>
       </c>
       <c r="D105" t="n">
         <v>252.35</v>
@@ -8291,10 +8291,10 @@
         <v>310.33</v>
       </c>
       <c r="L105" t="n">
-        <v>326.58</v>
+        <v>323.98</v>
       </c>
       <c r="M105" t="n">
-        <v>318.77</v>
+        <v>317.27</v>
       </c>
       <c r="N105" t="n">
         <v>303.54</v>
@@ -8342,7 +8342,7 @@
         <v>277.56</v>
       </c>
       <c r="C106" t="n">
-        <v>270.03</v>
+        <v>267.7</v>
       </c>
       <c r="D106" t="n">
         <v>269.01</v>
@@ -8369,10 +8369,10 @@
         <v>330.28</v>
       </c>
       <c r="L106" t="n">
-        <v>329.34</v>
+        <v>327.47</v>
       </c>
       <c r="M106" t="n">
-        <v>322.61</v>
+        <v>321.53</v>
       </c>
       <c r="N106" t="n">
         <v>314.44</v>
@@ -8420,7 +8420,7 @@
         <v>282.82</v>
       </c>
       <c r="C107" t="n">
-        <v>274.83</v>
+        <v>275.91</v>
       </c>
       <c r="D107" t="n">
         <v>262.3</v>
@@ -8447,10 +8447,10 @@
         <v>304.67</v>
       </c>
       <c r="L107" t="n">
-        <v>320.5</v>
+        <v>321.37</v>
       </c>
       <c r="M107" t="n">
-        <v>313.45</v>
+        <v>313.95</v>
       </c>
       <c r="N107" t="n">
         <v>303.41</v>
@@ -8498,7 +8498,7 @@
         <v>288.91</v>
       </c>
       <c r="C108" t="n">
-        <v>291.08</v>
+        <v>292.77</v>
       </c>
       <c r="D108" t="n">
         <v>275.71</v>
@@ -8525,7 +8525,7 @@
         <v>332.6</v>
       </c>
       <c r="L108" t="n">
-        <v>316.52</v>
+        <v>317.88</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
@@ -8566,7 +8566,7 @@
         <v>314.5</v>
       </c>
       <c r="C109" t="n">
-        <v>291.57</v>
+        <v>293.96</v>
       </c>
       <c r="D109" t="n">
         <v>279.51</v>
@@ -8593,10 +8593,10 @@
         <v>307.34</v>
       </c>
       <c r="L109" t="n">
-        <v>315.02</v>
+        <v>316.93</v>
       </c>
       <c r="M109" t="n">
-        <v>321.2</v>
+        <v>322.3</v>
       </c>
       <c r="N109" t="n">
         <v>306.76</v>
@@ -8655,10 +8655,10 @@
         <v>298.6</v>
       </c>
       <c r="L110" t="n">
-        <v>306.03</v>
+        <v>304.01</v>
       </c>
       <c r="M110" t="n">
-        <v>303.96</v>
+        <v>302.79</v>
       </c>
       <c r="N110" t="n">
         <v>295.01</v>
@@ -8706,7 +8706,7 @@
         <v>260.03</v>
       </c>
       <c r="C111" t="n">
-        <v>264.74</v>
+        <v>262.91</v>
       </c>
       <c r="D111" t="n">
         <v>264.5</v>
@@ -8733,10 +8733,10 @@
         <v>301.43</v>
       </c>
       <c r="L111" t="n">
-        <v>315.41</v>
+        <v>313.94</v>
       </c>
       <c r="M111" t="n">
-        <v>306.88</v>
+        <v>306.03</v>
       </c>
       <c r="N111" t="n">
         <v>296.69</v>
@@ -8784,7 +8784,7 @@
         <v>251.52</v>
       </c>
       <c r="C112" t="n">
-        <v>260.04</v>
+        <v>261.65</v>
       </c>
       <c r="D112" t="n">
         <v>253.47</v>
@@ -8811,10 +8811,10 @@
         <v>313.49</v>
       </c>
       <c r="L112" t="n">
-        <v>305.55</v>
+        <v>306.84</v>
       </c>
       <c r="M112" t="n">
-        <v>318.03</v>
+        <v>318.78</v>
       </c>
       <c r="N112" t="n">
         <v>314.28</v>
@@ -8860,7 +8860,7 @@
         <v>283.67</v>
       </c>
       <c r="C113" t="n">
-        <v>285.48</v>
+        <v>282.45</v>
       </c>
       <c r="D113" t="n">
         <v>286.85</v>
@@ -8887,10 +8887,10 @@
         <v>333.45</v>
       </c>
       <c r="L113" t="n">
-        <v>339.26</v>
+        <v>336.84</v>
       </c>
       <c r="M113" t="n">
-        <v>340.21</v>
+        <v>338.81</v>
       </c>
       <c r="N113" t="n">
         <v>329.98</v>
@@ -8938,7 +8938,7 @@
         <v>283.82</v>
       </c>
       <c r="C114" t="n">
-        <v>273.15</v>
+        <v>273.82</v>
       </c>
       <c r="D114" t="n">
         <v>273.59</v>
@@ -8965,10 +8965,10 @@
         <v>317.76</v>
       </c>
       <c r="L114" t="n">
-        <v>327.08</v>
+        <v>327.61</v>
       </c>
       <c r="M114" t="n">
-        <v>324.21</v>
+        <v>324.52</v>
       </c>
       <c r="N114" t="n">
         <v>321.8</v>
@@ -9016,7 +9016,7 @@
         <v>270.46</v>
       </c>
       <c r="C115" t="n">
-        <v>268.44</v>
+        <v>267.41</v>
       </c>
       <c r="D115" t="n">
         <v>266.29</v>
@@ -9043,10 +9043,10 @@
         <v>312.57</v>
       </c>
       <c r="L115" t="n">
-        <v>315.53</v>
+        <v>314.71</v>
       </c>
       <c r="M115" t="n">
-        <v>310.52</v>
+        <v>310.04</v>
       </c>
       <c r="N115" t="n">
         <v>307.86</v>
@@ -9094,7 +9094,7 @@
         <v>275.86</v>
       </c>
       <c r="C116" t="n">
-        <v>263.57</v>
+        <v>260.85</v>
       </c>
       <c r="D116" t="n">
         <v>256.27</v>
@@ -9121,10 +9121,10 @@
         <v>304.07</v>
       </c>
       <c r="L116" t="n">
-        <v>311.95</v>
+        <v>309.77</v>
       </c>
       <c r="M116" t="n">
-        <v>311.24</v>
+        <v>309.99</v>
       </c>
       <c r="N116" t="n">
         <v>305.31</v>
@@ -9195,10 +9195,10 @@
         <v>298.56</v>
       </c>
       <c r="L117" t="n">
-        <v>305.25</v>
+        <v>303.34</v>
       </c>
       <c r="M117" t="n">
-        <v>303.67</v>
+        <v>302.57</v>
       </c>
       <c r="N117" t="n">
         <v>296.18</v>
@@ -9246,7 +9246,7 @@
         <v>251.35</v>
       </c>
       <c r="C118" t="n">
-        <v>252.46</v>
+        <v>250.82</v>
       </c>
       <c r="D118" t="n">
         <v>255.63</v>
@@ -9273,10 +9273,10 @@
         <v>305.6</v>
       </c>
       <c r="L118" t="n">
-        <v>308.87</v>
+        <v>307.56</v>
       </c>
       <c r="M118" t="n">
-        <v>306.91</v>
+        <v>306.16</v>
       </c>
       <c r="N118" t="n">
         <v>302.81</v>
@@ -9324,7 +9324,7 @@
         <v>249.46</v>
       </c>
       <c r="C119" t="n">
-        <v>247.52</v>
+        <v>249.66</v>
       </c>
       <c r="D119" t="n">
         <v>245.92</v>
@@ -9351,10 +9351,10 @@
         <v>307.14</v>
       </c>
       <c r="L119" t="n">
-        <v>311.9</v>
+        <v>313.61</v>
       </c>
       <c r="M119" t="n">
-        <v>310.72</v>
+        <v>311.7</v>
       </c>
       <c r="N119" t="n">
         <v>305.28</v>
@@ -9402,7 +9402,7 @@
         <v>251.45</v>
       </c>
       <c r="C120" t="n">
-        <v>256.17</v>
+        <v>258.42</v>
       </c>
       <c r="D120" t="n">
         <v>250.71</v>
@@ -9429,10 +9429,10 @@
         <v>310.51</v>
       </c>
       <c r="L120" t="n">
-        <v>313.8</v>
+        <v>315.6</v>
       </c>
       <c r="M120" t="n">
-        <v>306.08</v>
+        <v>307.12</v>
       </c>
       <c r="N120" t="n">
         <v>301.19</v>
@@ -9478,7 +9478,7 @@
         <v>260.32</v>
       </c>
       <c r="C121" t="n">
-        <v>257.02</v>
+        <v>257.6</v>
       </c>
       <c r="D121" t="n">
         <v>261.29</v>
@@ -9505,10 +9505,10 @@
         <v>306.85</v>
       </c>
       <c r="L121" t="n">
-        <v>322.44</v>
+        <v>322.91</v>
       </c>
       <c r="M121" t="n">
-        <v>316.79</v>
+        <v>317.06</v>
       </c>
       <c r="N121" t="n">
         <v>301.08</v>
@@ -9556,7 +9556,7 @@
         <v>261.73</v>
       </c>
       <c r="C122" t="n">
-        <v>258.8</v>
+        <v>258.88</v>
       </c>
       <c r="D122" t="n">
         <v>260.83</v>
@@ -9583,10 +9583,10 @@
         <v>301.84</v>
       </c>
       <c r="L122" t="n">
-        <v>308.95</v>
+        <v>309.02</v>
       </c>
       <c r="M122" t="n">
-        <v>307.69</v>
+        <v>307.73</v>
       </c>
       <c r="N122" t="n">
         <v>304.3</v>
@@ -9655,10 +9655,10 @@
         <v>315.42</v>
       </c>
       <c r="L123" t="n">
-        <v>322.36</v>
+        <v>320.54</v>
       </c>
       <c r="M123" t="n">
-        <v>315.75</v>
+        <v>314.7</v>
       </c>
       <c r="N123" t="n">
         <v>314.32</v>
@@ -9706,7 +9706,7 @@
         <v>267.35</v>
       </c>
       <c r="C124" t="n">
-        <v>267.59</v>
+        <v>269.06</v>
       </c>
       <c r="D124" t="n">
         <v>268.06</v>
@@ -9733,10 +9733,10 @@
         <v>321.93</v>
       </c>
       <c r="L124" t="n">
-        <v>326.19</v>
+        <v>327.37</v>
       </c>
       <c r="M124" t="n">
-        <v>324.3</v>
+        <v>324.98</v>
       </c>
       <c r="N124" t="n">
         <v>332.21</v>
@@ -9784,7 +9784,7 @@
         <v>247.08</v>
       </c>
       <c r="C125" t="n">
-        <v>264.04</v>
+        <v>265.96</v>
       </c>
       <c r="D125" t="n">
         <v>255.17</v>
@@ -9811,10 +9811,10 @@
         <v>309.37</v>
       </c>
       <c r="L125" t="n">
-        <v>309.37</v>
+        <v>310.9</v>
       </c>
       <c r="M125" t="n">
-        <v>318.04</v>
+        <v>318.92</v>
       </c>
       <c r="N125" t="n">
         <v>318.25</v>
@@ -9856,7 +9856,7 @@
         <v>279.66</v>
       </c>
       <c r="C126" t="n">
-        <v>278.48</v>
+        <v>276.34</v>
       </c>
       <c r="D126" t="n">
         <v>270.22</v>
@@ -9883,10 +9883,10 @@
         <v>333.98</v>
       </c>
       <c r="L126" t="n">
-        <v>358.93</v>
+        <v>357.22</v>
       </c>
       <c r="M126" t="n">
-        <v>354.77</v>
+        <v>353.79</v>
       </c>
       <c r="N126" t="n">
         <v>348.08</v>
@@ -9934,7 +9934,7 @@
         <v>296.06</v>
       </c>
       <c r="C127" t="n">
-        <v>295.81</v>
+        <v>294.17</v>
       </c>
       <c r="D127" t="n">
         <v>294.34</v>
@@ -9961,10 +9961,10 @@
         <v>331</v>
       </c>
       <c r="L127" t="n">
-        <v>343.9</v>
+        <v>342.59</v>
       </c>
       <c r="M127" t="n">
-        <v>334.95</v>
+        <v>334.2</v>
       </c>
       <c r="N127" t="n">
         <v>327.38</v>
@@ -10012,7 +10012,7 @@
         <v>307.48</v>
       </c>
       <c r="C128" t="n">
-        <v>300.42</v>
+        <v>300.81</v>
       </c>
       <c r="D128" t="n">
         <v>293.61</v>
@@ -10039,10 +10039,10 @@
         <v>344.33</v>
       </c>
       <c r="L128" t="n">
-        <v>352.63</v>
+        <v>352.94</v>
       </c>
       <c r="M128" t="n">
-        <v>351.2</v>
+        <v>351.38</v>
       </c>
       <c r="N128" t="n">
         <v>337.31</v>
@@ -10090,7 +10090,7 @@
         <v>285.47</v>
       </c>
       <c r="C129" t="n">
-        <v>280.54</v>
+        <v>281.85</v>
       </c>
       <c r="D129" t="n">
         <v>279.14</v>
@@ -10117,10 +10117,10 @@
         <v>328.06</v>
       </c>
       <c r="L129" t="n">
-        <v>331.42</v>
+        <v>332.46</v>
       </c>
       <c r="M129" t="n">
-        <v>333.2</v>
+        <v>333.8</v>
       </c>
       <c r="N129" t="n">
         <v>324.04</v>
@@ -10168,7 +10168,7 @@
         <v>280.56</v>
       </c>
       <c r="C130" t="n">
-        <v>278.77</v>
+        <v>280.46</v>
       </c>
       <c r="D130" t="n">
         <v>277.61</v>
@@ -10195,10 +10195,10 @@
         <v>327.88</v>
       </c>
       <c r="L130" t="n">
-        <v>331.53</v>
+        <v>332.89</v>
       </c>
       <c r="M130" t="n">
-        <v>331.18</v>
+        <v>331.97</v>
       </c>
       <c r="N130" t="n">
         <v>320.71</v>
@@ -10246,7 +10246,7 @@
         <v>254.85</v>
       </c>
       <c r="C131" t="n">
-        <v>257.03</v>
+        <v>257.61</v>
       </c>
       <c r="D131" t="n">
         <v>262.62</v>
@@ -10273,10 +10273,10 @@
         <v>332.54</v>
       </c>
       <c r="L131" t="n">
-        <v>334.68</v>
+        <v>335.15</v>
       </c>
       <c r="M131" t="n">
-        <v>348.92</v>
+        <v>349.19</v>
       </c>
       <c r="N131" t="n">
         <v>342.54</v>
@@ -10322,7 +10322,7 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>293.44</v>
+        <v>291.13</v>
       </c>
       <c r="D132" t="n">
         <v>296.57</v>
@@ -10349,10 +10349,10 @@
         <v>353.88</v>
       </c>
       <c r="L132" t="n">
-        <v>360.42</v>
+        <v>358.58</v>
       </c>
       <c r="M132" t="n">
-        <v>358.13</v>
+        <v>357.07</v>
       </c>
       <c r="N132" t="n">
         <v>346.28</v>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>296.89</v>
+        <v>293.42</v>
       </c>
       <c r="D133" t="n">
         <v>297.14</v>
@@ -10425,10 +10425,10 @@
         <v>340.16</v>
       </c>
       <c r="L133" t="n">
-        <v>351.71</v>
+        <v>348.93</v>
       </c>
       <c r="M133" t="n">
-        <v>350.96</v>
+        <v>349.36</v>
       </c>
       <c r="N133" t="n">
         <v>346.14</v>
@@ -10474,7 +10474,7 @@
         <v>253.11</v>
       </c>
       <c r="C134" t="n">
-        <v>255.45</v>
+        <v>253.62</v>
       </c>
       <c r="D134" t="n">
         <v>251.97</v>
@@ -10501,10 +10501,10 @@
         <v>316.77</v>
       </c>
       <c r="L134" t="n">
-        <v>316.64</v>
+        <v>315.17</v>
       </c>
       <c r="M134" t="n">
-        <v>313.18</v>
+        <v>312.33</v>
       </c>
       <c r="N134" t="n">
         <v>318.84</v>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>262.88</v>
+        <v>259.77</v>
       </c>
       <c r="D135" t="n">
         <v>254.53</v>
@@ -10577,10 +10577,10 @@
         <v>310.31</v>
       </c>
       <c r="L135" t="n">
-        <v>322.95</v>
+        <v>320.46</v>
       </c>
       <c r="M135" t="n">
-        <v>319.55</v>
+        <v>318.11</v>
       </c>
       <c r="N135" t="n">
         <v>315.4</v>
@@ -10628,7 +10628,7 @@
         <v>267.9</v>
       </c>
       <c r="C136" t="n">
-        <v>263.98</v>
+        <v>264.7</v>
       </c>
       <c r="D136" t="n">
         <v>268.85</v>
@@ -10655,10 +10655,10 @@
         <v>332</v>
       </c>
       <c r="L136" t="n">
-        <v>337.55</v>
+        <v>338.13</v>
       </c>
       <c r="M136" t="n">
-        <v>335.49</v>
+        <v>335.82</v>
       </c>
       <c r="N136" t="n">
         <v>331.38</v>
@@ -10706,7 +10706,7 @@
         <v>282.99</v>
       </c>
       <c r="C137" t="n">
-        <v>278.22</v>
+        <v>277.25</v>
       </c>
       <c r="D137" t="n">
         <v>272.2</v>
@@ -10733,10 +10733,10 @@
         <v>326.75</v>
       </c>
       <c r="L137" t="n">
-        <v>340.48</v>
+        <v>339.7</v>
       </c>
       <c r="M137" t="n">
-        <v>337.96</v>
+        <v>337.51</v>
       </c>
       <c r="N137" t="n">
         <v>331.44</v>
@@ -10784,7 +10784,7 @@
         <v>277.34</v>
       </c>
       <c r="C138" t="n">
-        <v>276.91</v>
+        <v>275.1</v>
       </c>
       <c r="D138" t="n">
         <v>276.93</v>
@@ -10811,10 +10811,10 @@
         <v>324.37</v>
       </c>
       <c r="L138" t="n">
-        <v>338.14</v>
+        <v>336.7</v>
       </c>
       <c r="M138" t="n">
-        <v>337.08</v>
+        <v>336.25</v>
       </c>
       <c r="N138" t="n">
         <v>332.87</v>
@@ -10879,10 +10879,10 @@
         <v>311.95</v>
       </c>
       <c r="L139" t="n">
-        <v>320.99</v>
+        <v>321.95</v>
       </c>
       <c r="M139" t="n">
-        <v>317.01</v>
+        <v>317.56</v>
       </c>
       <c r="N139" t="n">
         <v>309.94</v>
@@ -10930,7 +10930,7 @@
         <v>275.68</v>
       </c>
       <c r="C140" t="n">
-        <v>274.15</v>
+        <v>272.15</v>
       </c>
       <c r="D140" t="n">
         <v>275.44</v>
@@ -10957,10 +10957,10 @@
         <v>324.57</v>
       </c>
       <c r="L140" t="n">
-        <v>335.78</v>
+        <v>334.18</v>
       </c>
       <c r="M140" t="n">
-        <v>330.41</v>
+        <v>329.49</v>
       </c>
       <c r="N140" t="n">
         <v>328.68</v>
@@ -11008,7 +11008,7 @@
         <v>278.53</v>
       </c>
       <c r="C141" t="n">
-        <v>275.16</v>
+        <v>276.49</v>
       </c>
       <c r="D141" t="n">
         <v>276.45</v>
@@ -11035,10 +11035,10 @@
         <v>323.94</v>
       </c>
       <c r="L141" t="n">
-        <v>325.97</v>
+        <v>327.04</v>
       </c>
       <c r="M141" t="n">
-        <v>325.61</v>
+        <v>326.23</v>
       </c>
       <c r="N141" t="n">
         <v>322.62</v>
@@ -11086,7 +11086,7 @@
         <v>282.36</v>
       </c>
       <c r="C142" t="n">
-        <v>278.8</v>
+        <v>276.66</v>
       </c>
       <c r="D142" t="n">
         <v>272.77</v>
@@ -11113,10 +11113,10 @@
         <v>318.02</v>
       </c>
       <c r="L142" t="n">
-        <v>325.78</v>
+        <v>324.07</v>
       </c>
       <c r="M142" t="n">
-        <v>324.04</v>
+        <v>323.06</v>
       </c>
       <c r="N142" t="n">
         <v>322.13</v>
@@ -11164,7 +11164,7 @@
         <v>279.4</v>
       </c>
       <c r="C143" t="n">
-        <v>275.21</v>
+        <v>274.6</v>
       </c>
       <c r="D143" t="n">
         <v>268.47</v>
@@ -11191,10 +11191,10 @@
         <v>311.72</v>
       </c>
       <c r="L143" t="n">
-        <v>314.44</v>
+        <v>313.95</v>
       </c>
       <c r="M143" t="n">
-        <v>311.83</v>
+        <v>311.54</v>
       </c>
       <c r="N143" t="n">
         <v>306.34</v>
@@ -11242,7 +11242,7 @@
         <v>260.25</v>
       </c>
       <c r="C144" t="n">
-        <v>253.23</v>
+        <v>253.76</v>
       </c>
       <c r="D144" t="n">
         <v>248.9</v>
@@ -11296,7 +11296,7 @@
         <v>264.29</v>
       </c>
       <c r="C145" t="n">
-        <v>263.21</v>
+        <v>264.49</v>
       </c>
       <c r="D145" t="n">
         <v>259.7</v>
@@ -11323,10 +11323,10 @@
         <v>307.05</v>
       </c>
       <c r="L145" t="n">
-        <v>316.97</v>
+        <v>317.99</v>
       </c>
       <c r="M145" t="n">
-        <v>302.92</v>
+        <v>303.51</v>
       </c>
       <c r="N145" t="n">
         <v>306.33</v>
@@ -11372,7 +11372,7 @@
         <v>270.05</v>
       </c>
       <c r="C146" t="n">
-        <v>258.27</v>
+        <v>256.3</v>
       </c>
       <c r="D146" t="n">
         <v>253.03</v>
@@ -11399,10 +11399,10 @@
         <v>305.04</v>
       </c>
       <c r="L146" t="n">
-        <v>314.27</v>
+        <v>312.69</v>
       </c>
       <c r="M146" t="n">
-        <v>309.33</v>
+        <v>308.42</v>
       </c>
       <c r="N146" t="n">
         <v>300.01</v>
@@ -11450,7 +11450,7 @@
         <v>251.61</v>
       </c>
       <c r="C147" t="n">
-        <v>252.46</v>
+        <v>250.04</v>
       </c>
       <c r="D147" t="n">
         <v>249.63</v>
@@ -11477,10 +11477,10 @@
         <v>303.38</v>
       </c>
       <c r="L147" t="n">
-        <v>300.5</v>
+        <v>298.57</v>
       </c>
       <c r="M147" t="n">
-        <v>297.42</v>
+        <v>296.3</v>
       </c>
       <c r="N147" t="n">
         <v>297.07</v>
@@ -11524,7 +11524,7 @@
         <v>256.4</v>
       </c>
       <c r="C148" t="n">
-        <v>252.66</v>
+        <v>250.58</v>
       </c>
       <c r="D148" t="n">
         <v>250.95</v>
@@ -11551,10 +11551,10 @@
         <v>303.04</v>
       </c>
       <c r="L148" t="n">
-        <v>314.08</v>
+        <v>312.41</v>
       </c>
       <c r="M148" t="n">
-        <v>304.51</v>
+        <v>303.55</v>
       </c>
       <c r="N148" t="n">
         <v>303.83</v>
@@ -11594,7 +11594,7 @@
         <v>255.93</v>
       </c>
       <c r="C149" t="n">
-        <v>257.48</v>
+        <v>257.12</v>
       </c>
       <c r="D149" t="n">
         <v>263.09</v>
@@ -11621,10 +11621,10 @@
         <v>315.11</v>
       </c>
       <c r="L149" t="n">
-        <v>311.05</v>
+        <v>310.76</v>
       </c>
       <c r="M149" t="n">
-        <v>314.39</v>
+        <v>314.22</v>
       </c>
       <c r="N149" t="n">
         <v>305.27</v>
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>264.21</v>
+        <v>264.68</v>
       </c>
       <c r="D150" t="n">
         <v>271.39</v>
@@ -11697,10 +11697,10 @@
         <v>308.54</v>
       </c>
       <c r="L150" t="n">
-        <v>321.88</v>
+        <v>322.26</v>
       </c>
       <c r="M150" t="n">
-        <v>326.35</v>
+        <v>326.56</v>
       </c>
       <c r="N150" t="n">
         <v>318.95</v>
@@ -11748,7 +11748,7 @@
         <v>256.63</v>
       </c>
       <c r="C151" t="n">
-        <v>249.82</v>
+        <v>251.04</v>
       </c>
       <c r="D151" t="n">
         <v>254.41</v>
@@ -11775,10 +11775,10 @@
         <v>299.36</v>
       </c>
       <c r="L151" t="n">
-        <v>306.45</v>
+        <v>307.43</v>
       </c>
       <c r="M151" t="n">
-        <v>308.7</v>
+        <v>309.26</v>
       </c>
       <c r="N151" t="n">
         <v>299.72</v>
@@ -11826,7 +11826,7 @@
         <v>287.18</v>
       </c>
       <c r="C152" t="n">
-        <v>269.68</v>
+        <v>271.29</v>
       </c>
       <c r="D152" t="n">
         <v>265.52</v>
@@ -11853,10 +11853,10 @@
         <v>309.89</v>
       </c>
       <c r="L152" t="n">
-        <v>329.11</v>
+        <v>330.4</v>
       </c>
       <c r="M152" t="n">
-        <v>315.03</v>
+        <v>315.78</v>
       </c>
       <c r="N152" t="n">
         <v>312.94</v>
@@ -11904,7 +11904,7 @@
         <v>269.88</v>
       </c>
       <c r="C153" t="n">
-        <v>266.73</v>
+        <v>266.42</v>
       </c>
       <c r="D153" t="n">
         <v>266.79</v>
@@ -11931,10 +11931,10 @@
         <v>312.36</v>
       </c>
       <c r="L153" t="n">
-        <v>322.56</v>
+        <v>322.32</v>
       </c>
       <c r="M153" t="n">
-        <v>320.06</v>
+        <v>319.92</v>
       </c>
       <c r="N153" t="n">
         <v>316.87</v>
@@ -11982,7 +11982,7 @@
         <v>272.08</v>
       </c>
       <c r="C154" t="n">
-        <v>267.45</v>
+        <v>267.39</v>
       </c>
       <c r="D154" t="n">
         <v>270.98</v>
@@ -12009,10 +12009,10 @@
         <v>312.28</v>
       </c>
       <c r="L154" t="n">
-        <v>329.76</v>
+        <v>329.72</v>
       </c>
       <c r="M154" t="n">
-        <v>329.19</v>
+        <v>329.17</v>
       </c>
       <c r="N154" t="n">
         <v>321.73</v>
@@ -12060,7 +12060,7 @@
         <v>263.37</v>
       </c>
       <c r="C155" t="n">
-        <v>271.59</v>
+        <v>273.84</v>
       </c>
       <c r="D155" t="n">
         <v>256.59</v>
@@ -12087,10 +12087,10 @@
         <v>310.85</v>
       </c>
       <c r="L155" t="n">
-        <v>313.21</v>
+        <v>315.01</v>
       </c>
       <c r="M155" t="n">
-        <v>305.1</v>
+        <v>306.14</v>
       </c>
       <c r="N155" t="n">
         <v>301.6</v>
@@ -12138,7 +12138,7 @@
         <v>258.85</v>
       </c>
       <c r="C156" t="n">
-        <v>257.25</v>
+        <v>259.17</v>
       </c>
       <c r="D156" t="n">
         <v>239.98</v>
@@ -12165,10 +12165,10 @@
         <v>297.43</v>
       </c>
       <c r="L156" t="n">
-        <v>312.26</v>
+        <v>313.79</v>
       </c>
       <c r="M156" t="n">
-        <v>318.57</v>
+        <v>319.45</v>
       </c>
       <c r="N156" t="n">
         <v>301.4</v>
@@ -12214,7 +12214,7 @@
         <v>249.33</v>
       </c>
       <c r="C157" t="n">
-        <v>245.37</v>
+        <v>243.7</v>
       </c>
       <c r="D157" t="n">
         <v>237.37</v>
@@ -12241,10 +12241,10 @@
         <v>295.78</v>
       </c>
       <c r="L157" t="n">
-        <v>303.8</v>
+        <v>302.47</v>
       </c>
       <c r="M157" t="n">
-        <v>304.02</v>
+        <v>303.25</v>
       </c>
       <c r="N157" t="n">
         <v>299.13</v>
@@ -12297,10 +12297,10 @@
         <v>295.62</v>
       </c>
       <c r="L158" t="n">
-        <v>283.33</v>
+        <v>283.97</v>
       </c>
       <c r="M158" t="n">
-        <v>292.1</v>
+        <v>292.47</v>
       </c>
       <c r="N158" t="n">
         <v>291.6</v>
@@ -12338,7 +12338,7 @@
         <v>282.08</v>
       </c>
       <c r="C159" t="n">
-        <v>265.65</v>
+        <v>265.29</v>
       </c>
       <c r="D159" t="n">
         <v>272.64</v>
@@ -12352,7 +12352,7 @@
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>307.95</v>
+        <v>307.78</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -12392,7 +12392,7 @@
         <v>255.11</v>
       </c>
       <c r="C160" t="n">
-        <v>246.71</v>
+        <v>247.27</v>
       </c>
       <c r="D160" t="n">
         <v>239.81</v>
@@ -12419,10 +12419,10 @@
         <v>300.39</v>
       </c>
       <c r="L160" t="n">
-        <v>297.29</v>
+        <v>297.73</v>
       </c>
       <c r="M160" t="n">
-        <v>292.78</v>
+        <v>293.03</v>
       </c>
       <c r="N160" t="n">
         <v>293.65</v>
@@ -12470,7 +12470,7 @@
         <v>232.18</v>
       </c>
       <c r="C161" t="n">
-        <v>241.54</v>
+        <v>242.82</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
@@ -12491,10 +12491,10 @@
         <v>301.68</v>
       </c>
       <c r="L161" t="n">
-        <v>300.97</v>
+        <v>301.99</v>
       </c>
       <c r="M161" t="n">
-        <v>302.57</v>
+        <v>303.16</v>
       </c>
       <c r="N161" t="n">
         <v>295.59</v>
@@ -12540,7 +12540,7 @@
         <v>262.59</v>
       </c>
       <c r="C162" t="n">
-        <v>252.99</v>
+        <v>251.82</v>
       </c>
       <c r="D162" t="n">
         <v>251.65</v>
@@ -12567,10 +12567,10 @@
         <v>299.19</v>
       </c>
       <c r="L162" t="n">
-        <v>307</v>
+        <v>306.07</v>
       </c>
       <c r="M162" t="n">
-        <v>294.07</v>
+        <v>293.53</v>
       </c>
       <c r="N162" t="n">
         <v>298.25</v>
@@ -12618,7 +12618,7 @@
         <v>272.88</v>
       </c>
       <c r="C163" t="n">
-        <v>272.54</v>
+        <v>270.96</v>
       </c>
       <c r="D163" t="n">
         <v>270.73</v>
@@ -12645,10 +12645,10 @@
         <v>314.54</v>
       </c>
       <c r="L163" t="n">
-        <v>320.89</v>
+        <v>319.62</v>
       </c>
       <c r="M163" t="n">
-        <v>312.82</v>
+        <v>312.09</v>
       </c>
       <c r="N163" t="n">
         <v>304.68</v>
@@ -12696,7 +12696,7 @@
         <v>262.76</v>
       </c>
       <c r="C164" t="n">
-        <v>265.61</v>
+        <v>264.75</v>
       </c>
       <c r="D164" t="n">
         <v>267.72</v>
@@ -12723,10 +12723,10 @@
         <v>301.64</v>
       </c>
       <c r="L164" t="n">
-        <v>308.43</v>
+        <v>307.74</v>
       </c>
       <c r="M164" t="n">
-        <v>303.69</v>
+        <v>303.29</v>
       </c>
       <c r="N164" t="n">
         <v>304.11</v>
@@ -12774,7 +12774,7 @@
         <v>260.28</v>
       </c>
       <c r="C165" t="n">
-        <v>265.02</v>
+        <v>265.88</v>
       </c>
       <c r="D165" t="n">
         <v>270.65</v>
@@ -12801,10 +12801,10 @@
         <v>308.37</v>
       </c>
       <c r="L165" t="n">
-        <v>317.12</v>
+        <v>317.81</v>
       </c>
       <c r="M165" t="n">
-        <v>313.66</v>
+        <v>314.06</v>
       </c>
       <c r="N165" t="n">
         <v>312.17</v>
@@ -12852,7 +12852,7 @@
         <v>255.16</v>
       </c>
       <c r="C166" t="n">
-        <v>260.34</v>
+        <v>257.76</v>
       </c>
       <c r="D166" t="n">
         <v>254.38</v>
@@ -12879,10 +12879,10 @@
         <v>295.77</v>
       </c>
       <c r="L166" t="n">
-        <v>300.28</v>
+        <v>298.21</v>
       </c>
       <c r="M166" t="n">
-        <v>296.48</v>
+        <v>295.29</v>
       </c>
       <c r="N166" t="n">
         <v>292.48</v>
@@ -12930,7 +12930,7 @@
         <v>295.77</v>
       </c>
       <c r="C167" t="n">
-        <v>288.79</v>
+        <v>288.23</v>
       </c>
       <c r="D167" t="n">
         <v>262.36</v>
@@ -12957,10 +12957,10 @@
         <v>312.47</v>
       </c>
       <c r="L167" t="n">
-        <v>310.55</v>
+        <v>310.11</v>
       </c>
       <c r="M167" t="n">
-        <v>309.7</v>
+        <v>309.45</v>
       </c>
       <c r="N167" t="n">
         <v>303.22</v>
@@ -13008,7 +13008,7 @@
         <v>268.3</v>
       </c>
       <c r="C168" t="n">
-        <v>272.67</v>
+        <v>269.31</v>
       </c>
       <c r="D168" t="n">
         <v>261.23</v>
@@ -13035,10 +13035,10 @@
         <v>310.8</v>
       </c>
       <c r="L168" t="n">
-        <v>310.53</v>
+        <v>307.84</v>
       </c>
       <c r="M168" t="n">
-        <v>309.32</v>
+        <v>307.77</v>
       </c>
       <c r="N168" t="n">
         <v>307.37</v>
@@ -13130,7 +13130,7 @@
         <v>291.44</v>
       </c>
       <c r="C170" t="n">
-        <v>284.64</v>
+        <v>284.95</v>
       </c>
       <c r="D170" t="n">
         <v>278.44</v>
@@ -13195,10 +13195,10 @@
         <v>316.82</v>
       </c>
       <c r="L171" t="n">
-        <v>322.28</v>
+        <v>321.64</v>
       </c>
       <c r="M171" t="n">
-        <v>319.04</v>
+        <v>318.67</v>
       </c>
       <c r="N171" t="n">
         <v>314.2</v>
@@ -13246,7 +13246,7 @@
         <v>291.79</v>
       </c>
       <c r="C172" t="n">
-        <v>289.88</v>
+        <v>287.69</v>
       </c>
       <c r="D172" t="n">
         <v>280.36</v>
@@ -13273,10 +13273,10 @@
         <v>316.8</v>
       </c>
       <c r="L172" t="n">
-        <v>322.42</v>
+        <v>320.66</v>
       </c>
       <c r="M172" t="n">
-        <v>317.16</v>
+        <v>316.14</v>
       </c>
       <c r="N172" t="n">
         <v>305.07</v>
@@ -13324,7 +13324,7 @@
         <v>298.66</v>
       </c>
       <c r="C173" t="n">
-        <v>297.04</v>
+        <v>295.18</v>
       </c>
       <c r="D173" t="n">
         <v>292.71</v>
@@ -13351,10 +13351,10 @@
         <v>324.34</v>
       </c>
       <c r="L173" t="n">
-        <v>333.02</v>
+        <v>331.53</v>
       </c>
       <c r="M173" t="n">
-        <v>327.48</v>
+        <v>326.62</v>
       </c>
       <c r="N173" t="n">
         <v>322.54</v>
@@ -13402,7 +13402,7 @@
         <v>301.22</v>
       </c>
       <c r="C174" t="n">
-        <v>297.55</v>
+        <v>300.13</v>
       </c>
       <c r="D174" t="n">
         <v>300.07</v>
@@ -13429,10 +13429,10 @@
         <v>343.55</v>
       </c>
       <c r="L174" t="n">
-        <v>325.19</v>
+        <v>327.26</v>
       </c>
       <c r="M174" t="n">
-        <v>317.4</v>
+        <v>318.59</v>
       </c>
       <c r="N174" t="n">
         <v>314.31</v>
@@ -13480,7 +13480,7 @@
         <v>277.13</v>
       </c>
       <c r="C175" t="n">
-        <v>273.33</v>
+        <v>275.16</v>
       </c>
       <c r="D175" t="n">
         <v>271.87</v>
@@ -13507,10 +13507,10 @@
         <v>302.78</v>
       </c>
       <c r="L175" t="n">
-        <v>305.05</v>
+        <v>306.52</v>
       </c>
       <c r="M175" t="n">
-        <v>298.91</v>
+        <v>299.76</v>
       </c>
       <c r="N175" t="n">
         <v>298.5</v>
@@ -13558,7 +13558,7 @@
         <v>282.21</v>
       </c>
       <c r="C176" t="n">
-        <v>274.81</v>
+        <v>273.12</v>
       </c>
       <c r="D176" t="n">
         <v>267.1</v>
@@ -13616,7 +13616,7 @@
         <v>291.88</v>
       </c>
       <c r="C177" t="n">
-        <v>281.91</v>
+        <v>281.72</v>
       </c>
       <c r="D177" t="n">
         <v>284.97</v>
@@ -13643,10 +13643,10 @@
         <v>315.99</v>
       </c>
       <c r="L177" t="n">
-        <v>316.19</v>
+        <v>316.03</v>
       </c>
       <c r="M177" t="n">
-        <v>316.06</v>
+        <v>315.97</v>
       </c>
       <c r="N177" t="n">
         <v>315.35</v>
@@ -13694,7 +13694,7 @@
         <v>281.25</v>
       </c>
       <c r="C178" t="n">
-        <v>274.03</v>
+        <v>272.56</v>
       </c>
       <c r="D178" t="n">
         <v>278.03</v>
@@ -13721,10 +13721,10 @@
         <v>301.13</v>
       </c>
       <c r="L178" t="n">
-        <v>306.7</v>
+        <v>305.52</v>
       </c>
       <c r="M178" t="n">
-        <v>305.64</v>
+        <v>304.96</v>
       </c>
       <c r="N178" t="n">
         <v>293.19</v>
@@ -13770,7 +13770,7 @@
         <v>262.27</v>
       </c>
       <c r="C179" t="n">
-        <v>249.7</v>
+        <v>251.81</v>
       </c>
       <c r="D179" t="n">
         <v>253.43</v>
@@ -13797,10 +13797,10 @@
         <v>293.27</v>
       </c>
       <c r="L179" t="n">
-        <v>303.51</v>
+        <v>305.2</v>
       </c>
       <c r="M179" t="n">
-        <v>290.72</v>
+        <v>291.7</v>
       </c>
       <c r="N179" t="n">
         <v>290.55</v>
@@ -13848,7 +13848,7 @@
         <v>287.28</v>
       </c>
       <c r="C180" t="n">
-        <v>282.88</v>
+        <v>281.74</v>
       </c>
       <c r="D180" t="n">
         <v>286.38</v>
@@ -13875,10 +13875,10 @@
         <v>314.86</v>
       </c>
       <c r="L180" t="n">
-        <v>321.18</v>
+        <v>320.27</v>
       </c>
       <c r="M180" t="n">
-        <v>316.2</v>
+        <v>315.68</v>
       </c>
       <c r="N180" t="n">
         <v>310.97</v>
@@ -13941,10 +13941,10 @@
         <v>308.38</v>
       </c>
       <c r="L181" t="n">
-        <v>322.18</v>
+        <v>319.91</v>
       </c>
       <c r="M181" t="n">
-        <v>315.5</v>
+        <v>314.19</v>
       </c>
       <c r="N181" t="n">
         <v>306.8</v>
@@ -13992,7 +13992,7 @@
         <v>294.65</v>
       </c>
       <c r="C182" t="n">
-        <v>295.44</v>
+        <v>292.94</v>
       </c>
       <c r="D182" t="n">
         <v>288.73</v>
@@ -14019,10 +14019,10 @@
         <v>320.87</v>
       </c>
       <c r="L182" t="n">
-        <v>327.46</v>
+        <v>325.46</v>
       </c>
       <c r="M182" t="n">
-        <v>325.69</v>
+        <v>324.54</v>
       </c>
       <c r="N182" t="n">
         <v>316.56</v>
@@ -14062,7 +14062,7 @@
         <v>303.18</v>
       </c>
       <c r="C183" t="n">
-        <v>299.68</v>
+        <v>298.93</v>
       </c>
       <c r="D183" t="n">
         <v>295.28</v>
@@ -14089,10 +14089,10 @@
         <v>327.02</v>
       </c>
       <c r="L183" t="n">
-        <v>338.14</v>
+        <v>337.54</v>
       </c>
       <c r="M183" t="n">
-        <v>332.31</v>
+        <v>331.96</v>
       </c>
       <c r="N183" t="n">
         <v>324.79</v>
@@ -14140,7 +14140,7 @@
         <v>313.3</v>
       </c>
       <c r="C184" t="n">
-        <v>302.58</v>
+        <v>299.47</v>
       </c>
       <c r="D184" t="n">
         <v>291.36</v>
@@ -14167,7 +14167,7 @@
         <v>321.71</v>
       </c>
       <c r="L184" t="n">
-        <v>331.89</v>
+        <v>329.4</v>
       </c>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
@@ -14203,10 +14203,10 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>349.21</v>
+        <v>350.3</v>
       </c>
       <c r="M185" t="n">
-        <v>348.29</v>
+        <v>348.92</v>
       </c>
       <c r="N185" t="n">
         <v>336.78</v>
@@ -14254,7 +14254,7 @@
         <v>285.89</v>
       </c>
       <c r="C186" t="n">
-        <v>280.77</v>
+        <v>281.52</v>
       </c>
       <c r="D186" t="n">
         <v>282.92</v>
@@ -14281,10 +14281,10 @@
         <v>310.24</v>
       </c>
       <c r="L186" t="n">
-        <v>319.91</v>
+        <v>320.51</v>
       </c>
       <c r="M186" t="n">
-        <v>309.87</v>
+        <v>310.22</v>
       </c>
       <c r="N186" t="n">
         <v>306.83</v>
@@ -14332,7 +14332,7 @@
         <v>275.46</v>
       </c>
       <c r="C187" t="n">
-        <v>270.77</v>
+        <v>269.05</v>
       </c>
       <c r="D187" t="n">
         <v>258.38</v>
@@ -14359,10 +14359,10 @@
         <v>296.85</v>
       </c>
       <c r="L187" t="n">
-        <v>302.5</v>
+        <v>301.12</v>
       </c>
       <c r="M187" t="n">
-        <v>302.34</v>
+        <v>301.55</v>
       </c>
       <c r="N187" t="n">
         <v>295.76</v>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>233.17</v>
+        <v>235.89</v>
       </c>
       <c r="D188" t="n">
         <v>235.41</v>
@@ -14435,10 +14435,10 @@
         <v>296.38</v>
       </c>
       <c r="L188" t="n">
-        <v>307.65</v>
+        <v>309.83</v>
       </c>
       <c r="M188" t="n">
-        <v>293.51</v>
+        <v>294.76</v>
       </c>
       <c r="N188" t="n">
         <v>301.58</v>
@@ -14486,7 +14486,7 @@
         <v>281.87</v>
       </c>
       <c r="C189" t="n">
-        <v>279.39</v>
+        <v>277.53</v>
       </c>
       <c r="D189" t="n">
         <v>269.54</v>
@@ -14513,10 +14513,10 @@
         <v>303.41</v>
       </c>
       <c r="L189" t="n">
-        <v>309.38</v>
+        <v>307.89</v>
       </c>
       <c r="M189" t="n">
-        <v>306.66</v>
+        <v>305.8</v>
       </c>
       <c r="N189" t="n">
         <v>301.96</v>
@@ -14564,7 +14564,7 @@
         <v>255.01</v>
       </c>
       <c r="C190" t="n">
-        <v>253.46</v>
+        <v>254.32</v>
       </c>
       <c r="D190" t="n">
         <v>251.47</v>
@@ -14591,10 +14591,10 @@
         <v>303.25</v>
       </c>
       <c r="L190" t="n">
-        <v>307.05</v>
+        <v>307.74</v>
       </c>
       <c r="M190" t="n">
-        <v>298.59</v>
+        <v>298.99</v>
       </c>
       <c r="N190" t="n">
         <v>292.9</v>
@@ -14642,7 +14642,7 @@
         <v>252.71</v>
       </c>
       <c r="C191" t="n">
-        <v>251.34</v>
+        <v>251.26</v>
       </c>
       <c r="D191" t="n">
         <v>250.39</v>
@@ -14669,10 +14669,10 @@
         <v>291.79</v>
       </c>
       <c r="L191" t="n">
-        <v>302.46</v>
+        <v>302.39</v>
       </c>
       <c r="M191" t="n">
-        <v>294.29</v>
+        <v>294.25</v>
       </c>
       <c r="N191" t="n">
         <v>287.37</v>
@@ -14720,7 +14720,7 @@
         <v>251.72</v>
       </c>
       <c r="C192" t="n">
-        <v>248.23</v>
+        <v>250.23</v>
       </c>
       <c r="D192" t="n">
         <v>258.81</v>
@@ -14747,10 +14747,10 @@
         <v>300.63</v>
       </c>
       <c r="L192" t="n">
-        <v>294.52</v>
+        <v>296.12</v>
       </c>
       <c r="M192" t="n">
-        <v>283.54</v>
+        <v>284.46</v>
       </c>
       <c r="N192" t="n">
         <v>286.57</v>
@@ -14798,7 +14798,7 @@
         <v>267.92</v>
       </c>
       <c r="C193" t="n">
-        <v>273.71</v>
+        <v>274.29</v>
       </c>
       <c r="D193" t="n">
         <v>277.13</v>
@@ -14825,10 +14825,10 @@
         <v>318.44</v>
       </c>
       <c r="L193" t="n">
-        <v>311.74</v>
+        <v>312.21</v>
       </c>
       <c r="M193" t="n">
-        <v>303.26</v>
+        <v>303.53</v>
       </c>
       <c r="N193" t="n">
         <v>306.14</v>
@@ -14876,7 +14876,7 @@
         <v>266.3</v>
       </c>
       <c r="C194" t="n">
-        <v>260.17</v>
+        <v>260.53</v>
       </c>
       <c r="D194" t="n">
         <v>260.45</v>
@@ -14903,10 +14903,10 @@
         <v>306.79</v>
       </c>
       <c r="L194" t="n">
-        <v>302.5</v>
+        <v>302.79</v>
       </c>
       <c r="M194" t="n">
-        <v>302.93</v>
+        <v>303.1</v>
       </c>
       <c r="N194" t="n">
         <v>301.17</v>
@@ -17152,7 +17152,7 @@
         <v>0.0498</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7575455260545152</v>
+        <v>-0.7749496275895306</v>
       </c>
       <c r="J3" t="n">
         <v>193</v>
@@ -17161,19 +17161,19 @@
         <v>171</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09857767941629836</v>
+        <v>0.1043053239604931</v>
       </c>
       <c r="M3" t="n">
-        <v>14.243400297364</v>
+        <v>14.13382525599627</v>
       </c>
       <c r="N3" t="n">
-        <v>319.4461229827082</v>
+        <v>313.9286072531671</v>
       </c>
       <c r="O3" t="n">
-        <v>17.87305578189438</v>
+        <v>17.71803056925817</v>
       </c>
       <c r="P3" t="n">
-        <v>285.0797198055967</v>
+        <v>285.0684913476152</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17854,7 +17854,7 @@
         <v>0.0537</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3483286894830987</v>
+        <v>-0.3536549155200218</v>
       </c>
       <c r="J12" t="n">
         <v>193</v>
@@ -17863,19 +17863,19 @@
         <v>183</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03568393174498408</v>
+        <v>0.03749546998921316</v>
       </c>
       <c r="M12" t="n">
-        <v>11.42332275232028</v>
+        <v>11.26099213779884</v>
       </c>
       <c r="N12" t="n">
-        <v>205.3562868015954</v>
+        <v>201.0787542601207</v>
       </c>
       <c r="O12" t="n">
-        <v>14.33025773674693</v>
+        <v>14.18022405535684</v>
       </c>
       <c r="P12" t="n">
-        <v>326.3905868768575</v>
+        <v>326.1839087468967</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17932,7 +17932,7 @@
         <v>0.0733</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2298405791918393</v>
+        <v>-0.231043976915514</v>
       </c>
       <c r="J13" t="n">
         <v>193</v>
@@ -17941,19 +17941,19 @@
         <v>182</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01434122748706013</v>
+        <v>0.01466317587274024</v>
       </c>
       <c r="M13" t="n">
-        <v>12.03360738003426</v>
+        <v>11.97570428402521</v>
       </c>
       <c r="N13" t="n">
-        <v>228.3586751466736</v>
+        <v>225.615953622096</v>
       </c>
       <c r="O13" t="n">
-        <v>15.11154112414328</v>
+        <v>15.02051775479447</v>
       </c>
       <c r="P13" t="n">
-        <v>320.0844320781696</v>
+        <v>319.9283391878139</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -18914,7 +18914,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-34.426538665155554,172.9374466701025</t>
+          <t>-34.42651765600368,172.93744620993633</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -18959,12 +18959,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-34.426254143247654,172.94555436954693</t>
+          <t>-34.426237330387465,172.94555278269195</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-34.426318930650474,172.94646151848912</t>
+          <t>-34.42630922055383,172.9464606019477</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-34.4265267629751,172.93744640940747</t>
+          <t>-34.42651945936435,172.93744624943554</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -19077,12 +19077,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-34.42593038329223,172.9455238120921</t>
+          <t>-34.425924629157834,172.9455232690014</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-34.425986449736655,172.94643013555168</t>
+          <t>-34.42598312312922,172.9464298215538</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -19130,7 +19130,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-34.42681548101252,172.93745273325726</t>
+          <t>-34.42683901486817,172.93745324872594</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -19175,12 +19175,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-34.42627769923345,172.94555659284214</t>
+          <t>-34.426296490076986,172.94555836638767</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-34.42624673428334,172.94645470383898</t>
+          <t>-34.426257613188056,172.94645573070332</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.42670574651961,172.93745032971543</t>
+          <t>-34.42670547601552,172.93745032379053</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -19297,12 +19297,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-34.42606012103906,172.94553605710908</t>
+          <t>-34.426059941222356,172.94553604013745</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-34.42616842415024,172.94644731212074</t>
+          <t>-34.42616824433364,172.9464472951478</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.426684106192106,172.93744985572266</t>
+          <t>-34.42667211384389,172.93744959305178</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -19399,12 +19399,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-34.4261805083141,172.94554741963591</t>
+          <t>-34.42617088812123,172.9455465116509</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-34.42619872324897,172.94645017206062</t>
+          <t>-34.42619314893409,172.94644964589943</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.42676922481321,172.9374517200955</t>
+          <t>-34.42675921616184,172.93745150087352</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -19521,12 +19521,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-34.426250726730615,172.94555404708436</t>
+          <t>-34.42624272488808,172.9455532918432</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-34.426199442515426,172.94645023995238</t>
+          <t>-34.42619476728358,172.9464497986559</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.42661476697549,172.9374483369725</t>
+          <t>-34.42660295496322,172.93744807825198</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -19643,12 +19643,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-34.42618140739754,172.94554750449436</t>
+          <t>-34.4261720569297,172.9455466219668</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-34.4261413617503,172.94644475769547</t>
+          <t>-34.42613596725196,172.9464442485079</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.42669113929855,172.9374500097703</t>
+          <t>-34.426680860142966,172.93744978462377</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -19765,12 +19765,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-34.426306290086266,172.94555929134714</t>
+          <t>-34.42629810842715,172.94555851913327</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-34.42633916001837,172.9464634279511</t>
+          <t>-34.426334484786686,172.94646298665313</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -19867,12 +19867,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-34.42637884611756,172.94556613944823</t>
+          <t>-34.42639925531077,172.94556806574394</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-34.42637683159658,172.94646698379606</t>
+          <t>-34.42638860958397,172.94646809552864</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -19944,7 +19944,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.426796906398415,172.93745232641248</t>
+          <t>-34.42679492270176,172.93745228296302</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -19989,12 +19989,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-34.426187161531594,172.94554804758832</t>
+          <t>-34.4261855431814,172.94554789484314</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-34.42617211039075,172.94644766006584</t>
+          <t>-34.426171211307704,172.94644757520118</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -20066,7 +20066,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-34.42671449281863,172.93745052128756</t>
+          <t>-34.42673874801893,172.93745105255482</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -20111,12 +20111,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-34.426153715627336,172.94554489085567</t>
+          <t>-34.42617313582985,172.9455467237969</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-34.42615718561207,172.9464462513127</t>
+          <t>-34.42616842415024,172.94644731212074</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -20217,12 +20217,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-34.42610714310431,172.9455404951945</t>
+          <t>-34.42612674312372,172.9455423451054</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-34.4260912828237,172.94644003074006</t>
+          <t>-34.426102521362026,172.94644109154643</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -20294,7 +20294,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.42650972121668,172.93744603613968</t>
+          <t>-34.426527754823475,172.93744643113206</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -20339,12 +20339,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-34.42603215954301,172.94553341802046</t>
+          <t>-34.42604654487861,172.94553477575073</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-34.42606278189034,172.94643734053633</t>
+          <t>-34.426071053454606,172.94643812128928</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -20453,12 +20453,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-34.42629936714394,172.94555863793536</t>
+          <t>-34.42630655981129,172.94555931680475</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-34.42627739301473,172.94645759773007</t>
+          <t>-34.42628152879667,172.9464579881085</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -20559,12 +20559,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-34.42648988291648,172.94557661952652</t>
+          <t>-34.42650309944212,172.94557786695466</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-34.42651142432073,172.9464796881176</t>
+          <t>-34.42651906652604,172.94648040947305</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -20636,7 +20636,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-34.42653650112275,172.93744662270342</t>
+          <t>-34.426565264725426,172.93744725271668</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -20681,12 +20681,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-34.42585953551199,172.94551712529338</t>
+          <t>-34.42588255204986,172.94551929765314</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-34.42594437264782,172.94642616390493</t>
+          <t>-34.425957679077676,172.94642741989534</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -20787,12 +20787,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-34.42589828601123,172.9455207826654</t>
+          <t>-34.42591051354687,172.94552193673243</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-34.42591209556444,172.94642311728114</t>
+          <t>-34.42591919832098,172.94642378770791</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -20978,7 +20978,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.42664271906552,172.93744894921218</t>
+          <t>-34.42662693965986,172.93744860359297</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -21023,12 +21023,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-34.42618212666431,172.9455475723811</t>
+          <t>-34.426169539496065,172.9455463843633</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-34.42618083149633,172.94644848325314</t>
+          <t>-34.426173548923636,172.94644779584928</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -21092,7 +21092,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-34.42674217440408,172.93745112760377</t>
+          <t>-34.426758675153664,172.93745148902366</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -21137,12 +21137,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-34.42621988816882,172.94555113643662</t>
+          <t>-34.426233104695335,172.9455523838568</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-34.42619449755866,172.94644977319646</t>
+          <t>-34.426202139764555,172.94645049454655</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -21214,7 +21214,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.42674226457212,172.93745112957873</t>
+          <t>-34.42672143575701,172.93745067336033</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -21259,12 +21259,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-34.42614913030175,172.94554445807802</t>
+          <t>-34.426132587166194,172.9455428966845</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-34.42620160031473,172.9464504436277</t>
+          <t>-34.42619207003444,172.94644954406178</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -21332,7 +21332,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.426777520271976,172.93745190179305</t>
+          <t>-34.426776979263785,172.93745188994322</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -21377,12 +21377,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-34.426036385235356,172.94553381685367</t>
+          <t>-34.42603602560196,172.94553378291045</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-34.42598114514642,172.94642963485242</t>
+          <t>-34.42598096532981,172.94642961787955</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -21454,7 +21454,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.4265957415206,172.93744792025473</t>
+          <t>-34.426623062434466,172.93744851866938</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -21499,12 +21499,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-34.425936676876724,172.94552440609758</t>
+          <t>-34.42595843469729,172.94552645966016</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-34.4259176698797,172.94642364343886</t>
+          <t>-34.42593025704316,172.94642483153714</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -21576,7 +21576,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-34.42666850712263,172.93744951405304</t>
+          <t>-34.426661023176,172.93744935013066</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -21621,12 +21621,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-34.425984687935184,172.9455289375139</t>
+          <t>-34.425978664075814,172.9455283689651</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-34.42594104604037,172.94642584990737</t>
+          <t>-34.425937629524576,172.94642552742346</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -21698,7 +21698,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-34.42681692370099,172.93745276485689</t>
+          <t>-34.42684144940496,172.93745330205033</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -21743,12 +21743,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-34.42608304766749,172.94553822099334</t>
+          <t>-34.426102647687,172.94554007090315</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-34.426061702990644,172.946437238699</t>
+          <t>-34.426072941529064,172.94643829950462</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -21792,7 +21792,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-34.426823055126995,172.9374528991552</t>
+          <t>-34.426830088233274,172.93745305320334</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -21837,12 +21837,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-34.42609194859379,172.94553906108987</t>
+          <t>-34.426097522911284,172.94553958721104</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-34.42614504799083,172.94644510564035</t>
+          <t>-34.42614828468983,172.94644541115295</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -21914,7 +21914,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-34.427046130827534,172.93745778525735</t>
+          <t>-34.42702782671822,172.93745738433532</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -21959,12 +21959,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>-34.42614220735915,172.9455438046687</t>
+          <t>-34.42612764220718,172.9455424299637</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-34.426161770935664,172.94644668412235</t>
+          <t>-34.426153319554956,172.9464458863948</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -22028,7 +22028,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-34.42711033046171,172.9374591914482</t>
+          <t>-34.42709355920903,172.9374588241004</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -22073,12 +22073,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-34.426187251439934,172.94554805607416</t>
+          <t>-34.4261738550966,172.94554679168363</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-34.42615206083867,172.94644576758432</t>
+          <t>-34.42614432872439,172.94644503774865</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -22183,12 +22183,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-34.42622060743559,172.94555120432344</t>
+          <t>-34.42622240560245,172.94555137404046</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-34.42616572690109,172.94644705752677</t>
+          <t>-34.42616680580074,172.94644715936437</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.42689167299695,172.93745440211285</t>
+          <t>-34.426892664845276,172.9374544238376</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -22297,12 +22297,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-34.42613744221685,172.94554335491947</t>
+          <t>-34.426138251391954,172.94554343129198</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-34.426114479166785,172.94644222024473</t>
+          <t>-34.42611492870832,172.946442262677</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -22374,7 +22374,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.426865343932626,172.93745382541923</t>
+          <t>-34.42687941014508,172.93745413351576</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -22419,12 +22419,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-34.42609824217804,172.94553965509766</t>
+          <t>-34.42610939081297,172.9455407073402</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-34.426035719489725,172.94643478611744</t>
+          <t>-34.42604210297958,172.94643538865463</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.42675975717002,172.93745151272336</t>
+          <t>-34.42677202002215,172.93745178131968</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -22541,12 +22541,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-34.42605625498013,172.9455356922189</t>
+          <t>-34.42606605498996,172.9455366171731</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-34.4259908552438,172.94643055138673</t>
+          <t>-34.425996519467255,172.94643108603182</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.42681241529951,172.93745266610813</t>
+          <t>-34.42681412849207,172.93745270363263</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -22663,12 +22663,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-34.42602047145781,172.94553231486495</t>
+          <t>-34.42602190999138,172.94553245063793</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-34.42602070480226,172.9464333688824</t>
+          <t>-34.42602151397705,172.9464334452603</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -22740,7 +22740,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.42673676432225,172.93745100910544</t>
+          <t>-34.426765798428065,172.93745164504654</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -22785,12 +22785,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>-34.42594755578701,172.94552543287872</t>
+          <t>-34.42597075214111,172.9455276222146</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-34.42591955795423,172.94642382165355</t>
+          <t>-34.425932864384144,172.94642507764326</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -22858,7 +22858,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-34.426406118144584,172.93744376691174</t>
+          <t>-34.426391060082615,172.93744343709403</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -22903,12 +22903,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>-34.425921212640546,172.94552294654136</t>
+          <t>-34.425909254829975,172.9455218179314</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-34.42586642214243,172.9464188061852</t>
+          <t>-34.42585949920244,172.94641815273206</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.42661386529516,172.93744831722282</t>
+          <t>-34.426602053282885,172.9374480585023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -23021,12 +23021,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-34.42591132272203,172.94552201310452</t>
+          <t>-34.42590197225359,172.94552113058262</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-34.425847451488636,172.94641701555418</t>
+          <t>-34.42584205698992,172.94641650637013</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -23098,7 +23098,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.42692350231088,172.93745509928058</t>
+          <t>-34.42691800206117,172.93745497880678</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -23143,12 +23143,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-34.426115504580494,172.94554128437656</t>
+          <t>-34.42611109907155,172.94554086857093</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-34.42608175254316,172.94643913117645</t>
+          <t>-34.42607914520226,172.94643888506948</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -23220,7 +23220,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.426854072929025,172.93745357854706</t>
+          <t>-34.42684153957298,172.9374533040253</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -23265,12 +23265,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>-34.425973179666535,172.94552785133124</t>
+          <t>-34.425963199839785,172.94552690940745</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-34.42594212494008,172.94642595174443</t>
+          <t>-34.425936370808245,172.94642540861358</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -23342,7 +23342,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-34.42692269079862,172.93745508150576</t>
+          <t>-34.426933961802106,172.9374553283783</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -23387,12 +23387,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>-34.4261518275521,172.94554471265312</t>
+          <t>-34.42616081838659,172.94554556123686</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-34.42615152138884,172.94644571666555</t>
+          <t>-34.42615673607055,172.9464462088804</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -23456,7 +23456,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.426651555532644,172.93744914275902</t>
+          <t>-34.42663730898357,172.93744883071415</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -23501,12 +23501,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>-34.426112088063356,172.94554096191504</t>
+          <t>-34.42610066970339,172.94553988421495</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-34.42607932501887,172.94643890204236</t>
+          <t>-34.426072761712454,172.94643828253174</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -23574,7 +23574,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-34.42691232147541,172.93745485438305</t>
+          <t>-34.42690682122569,172.9374547339093</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -23619,12 +23619,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>-34.4261516477354,172.94554469568143</t>
+          <t>-34.426147242226484,172.94554427987543</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-34.426145947073884,172.94644519050493</t>
+          <t>-34.42614333973302,172.9464449443976</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -23696,7 +23696,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.42709698559399,172.93745889914993</t>
+          <t>-34.42708273904598,172.93745858710187</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -23741,12 +23741,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>-34.426300535952386,172.94555874825164</t>
+          <t>-34.42628911759293,172.94555767054675</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-34.4262646260357,172.94645639264905</t>
+          <t>-34.42625806272957,172.94645577313574</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -23814,7 +23814,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.427120158776425,172.93745940672198</t>
+          <t>-34.42712187196891,172.93745944424677</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -23859,12 +23859,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>-34.42635466077393,172.94556385674653</t>
+          <t>-34.42635609930739,172.9455639925206</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-34.42627523521546,172.9464573940544</t>
+          <t>-34.42627604439019,172.94645747043276</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.42700528471159,172.93745689058926</t>
+          <t>-34.42701078496122,172.93745701106326</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -23981,12 +23981,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-34.426250097372204,172.94555398768338</t>
+          <t>-34.426254502881015,172.94555440349038</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-34.426159792952944,172.94644649742014</t>
+          <t>-34.4261624002938,172.94644674352762</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -24058,7 +24058,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.427239811744286,172.9374620275361</t>
+          <t>-34.427232327798365,172.93746186361156</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -24103,12 +24103,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>-34.42630853779481,172.94555950349385</t>
+          <t>-34.42630251393591,172.94555893494072</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-34.42628018017213,172.9464578608112</t>
+          <t>-34.42627676365662,172.94645753832467</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -24180,7 +24180,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.42715045523273,172.93746007031856</t>
+          <t>-34.42713016742718,172.93745962594582</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -24225,12 +24225,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>-34.42645913426475,172.94557371734822</t>
+          <t>-34.42644295076377,172.94557218988683</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-34.426391486649564,172.94646836709697</t>
+          <t>-34.42638213618631,172.9464674845</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -24290,7 +24290,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-34.426947126334134,172.9374556167255</t>
+          <t>-34.42695767599334,172.93745584779833</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -24335,12 +24335,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>-34.42607999078371,172.94553793247536</t>
+          <t>-34.426088352259946,172.9455387216569</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-34.42609101309878,172.94644000528072</t>
+          <t>-34.42609586814733,172.94644046354904</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -24412,7 +24412,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.426730993568285,172.93745088270725</t>
+          <t>-34.426722517773385,172.93745069705994</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -24457,12 +24457,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>-34.426076754083226,172.94553762698575</t>
+          <t>-34.42606992104888,172.94553698206337</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-34.42606404060663,172.94643745934655</t>
+          <t>-34.426060084641115,172.946437085943</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -24563,12 +24563,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-34.426019572374315,172.94553223000688</t>
+          <t>-34.426031350367886,172.94553334164814</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-34.42603041489954,172.94643428541758</t>
+          <t>-34.42603715802265,172.94643492190048</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -24640,7 +24640,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.42710879760528,172.9374591578734</t>
+          <t>-34.427099510298696,172.9374589544496</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -24685,12 +24685,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>-34.42617897987224,172.9455472753766</t>
+          <t>-34.426171607387985,172.94554657953762</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-34.426283596687625,172.94645818329772</t>
+          <t>-34.4262792810891,172.9464577759463</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -24758,7 +24758,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-34.42680790689803,172.93745256735937</t>
+          <t>-34.4268369410035,172.9374532033015</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -24803,12 +24803,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>-34.426141578000745,172.94554374526786</t>
+          <t>-34.42616477435377,172.9455459346138</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-34.42614280028318,172.94644489347883</t>
+          <t>-34.42615610671242,172.94644614947515</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -24880,7 +24880,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.42689915694332,172.93745456603608</t>
+          <t>-34.4268895991323,172.93745435668833</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -24925,12 +24925,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-34.42628615061764,172.94555739051324</t>
+          <t>-34.42627859831688,172.94555667770075</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-34.42626525539382,172.94645645205446</t>
+          <t>-34.42626093979527,172.94645604470318</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -25004,7 +25004,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-34.42627478567396,172.94645735162194</t>
+          <t>-34.42628566457859,172.94645837848697</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -25068,7 +25068,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.427165062452666,172.93746039026706</t>
+          <t>-34.42715451279382,172.93746015919314</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -25113,12 +25113,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>-34.426135284416546,172.94554315125947</t>
+          <t>-34.42612692294041,172.94554236207702</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>-34.42630103889834,172.94645982967685</t>
+          <t>-34.42629618384999,172.94645937140632</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -25264,7 +25264,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-34.427175792447535,172.93746062529104</t>
+          <t>-34.42716127539565,172.93746030731745</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -25309,12 +25309,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>-34.42619030832365,172.94554834459285</t>
+          <t>-34.426178710147205,172.9455472499191</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-34.4261802021382,172.94644842384787</t>
+          <t>-34.42617345901533,172.9464477873628</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -25382,7 +25382,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.427126290202125,172.93745954102127</t>
+          <t>-34.42714107775817,172.93745986491956</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -25427,12 +25427,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>-34.426262864356914,172.94555519267516</t>
+          <t>-34.4262746423498,172.94555630432285</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-34.426215266376985,172.94645173357168</t>
+          <t>-34.4262220094998,172.94645237005733</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -25504,7 +25504,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.426917190548934,172.93745496103196</t>
+          <t>-34.42690646055359,172.93745472600938</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -25549,12 +25549,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>-34.42606371737294,172.94553639654183</t>
+          <t>-34.426055086171615,172.94553558190327</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-34.42606493968972,172.946437544211</t>
+          <t>-34.42605999473282,172.94643707745658</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -25626,7 +25626,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.42699671874906,172.93745670296582</t>
+          <t>-34.42701195714556,172.93745703673807</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -25671,12 +25671,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>-34.42623067717007,172.9455521547388</t>
+          <t>-34.42624290470476,172.9455533088149</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-34.42628530494538,172.94645834454104</t>
+          <t>-34.42629240770128,172.9464590149737</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -25748,7 +25748,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.42713449549237,172.9374597207453</t>
+          <t>-34.42714423363904,172.93745993404423</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -25793,12 +25793,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>-34.42625711022298,172.9455546495802</t>
+          <t>-34.4262649322488,172.94555538784994</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-34.42629564440017,172.94645932048738</t>
+          <t>-34.42630013981531,172.94645974481193</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -25870,7 +25870,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-34.42705677065459,172.9374580183057</t>
+          <t>-34.427068312161886,172.93745827110396</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -25915,12 +25915,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>-34.4261208091729,172.94554178504052</t>
+          <t>-34.426129979824154,172.9455426505953</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>-34.42617903333024,172.9464483135238</t>
+          <t>-34.42618433792023,172.9464488142254</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -25992,7 +25992,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.426986980602166,172.93745648966762</t>
+          <t>-34.4269934727001,172.93745663186638</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -26037,12 +26037,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>-34.426001770521395,172.9455305498168</t>
+          <t>-34.42600698520561,172.94553104199363</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>-34.425987708452986,172.9464302543617</t>
+          <t>-34.42599067542719,172.94643053441385</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -26114,7 +26114,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.42668915560185,172.93744996632094</t>
+          <t>-34.42667689274957,172.93744969772516</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -26159,12 +26159,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>-34.42606884214871,172.94553688023353</t>
+          <t>-34.42605904213889,172.94553595527924</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>-34.42606979473831,172.94643800247903</t>
+          <t>-34.42606413051495,172.946437467833</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -26257,12 +26257,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>-34.426363291974646,172.94556467139085</t>
+          <t>-34.426369315833476,172.9455652399448</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>-34.426393104998986,172.94646851985414</t>
+          <t>-34.426396521514405,172.94646884234155</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -26306,7 +26306,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.42677373321471,172.93745181884415</t>
+          <t>-34.42678951261997,172.9374521644646</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -26351,12 +26351,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>-34.42619237621556,172.9455485397673</t>
+          <t>-34.426204963383746,172.94554972778573</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>-34.42622587555688,172.94645273497582</t>
+          <t>-34.42623315812948,172.9464534223805</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -26428,7 +26428,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.42730455238452,172.9374634455832</t>
+          <t>-34.42728850247656,172.93746309403372</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -26473,12 +26473,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>-34.42620945880094,172.9455501520781</t>
+          <t>-34.426196691816095,172.94554894708784</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-34.426341677450814,172.94646366557308</t>
+          <t>-34.4263343049701,172.94646296968014</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -26538,7 +26538,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-34.42708355055821,172.93745860487678</t>
+          <t>-34.42706677930545,172.9374582375292</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>-34.42625513223941,172.94555446289135</t>
+          <t>-34.42624173589629,172.9455531984988</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -26624,7 +26624,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.4268425314213,172.93745332575003</t>
+          <t>-34.426852269568435,172.9374535390475</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -26669,12 +26669,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>-34.425965986998605,172.94552717246722</t>
+          <t>-34.42597380902498,172.94552791073184</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-34.42599786809189,172.94643121332828</t>
+          <t>-34.42600236350733,172.94643163764988</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -26746,7 +26746,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-34.42703558116847,172.93745755418405</t>
+          <t>-34.42702584302164,172.93745734088566</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -26791,12 +26791,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>-34.426234093687114,172.9455524772012</t>
+          <t>-34.42622627166122,172.94555173893207</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>-34.42620438747217,172.94645070670836</t>
+          <t>-34.426199892056935,172.94645028238475</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -26868,7 +26868,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.427010243953056,172.93745699921337</t>
+          <t>-34.42702223630059,172.9374572618863</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -26913,12 +26913,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>-34.426246141405116,172.94555361430568</t>
+          <t>-34.42625576159782,172.94555452229235</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>-34.42622407739079,172.9464525652463</t>
+          <t>-34.42622965170563,172.94645309140788</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -26990,7 +26990,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-34.42686552426868,172.9374538293692</t>
+          <t>-34.42687255737493,172.93745398341744</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -27035,12 +27035,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>-34.42603953202751,172.94553411385718</t>
+          <t>-34.426045106345065,172.9455346399777</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-34.42601755801147,172.94643307185717</t>
+          <t>-34.426020794710574,172.94643337736883</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -27112,7 +27112,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.426853081080694,172.9374535568223</t>
+          <t>-34.42684478562203,172.93745337512445</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -27157,12 +27157,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>-34.42629064603475,172.94555781480642</t>
+          <t>-34.42628408272577,172.94555719533835</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-34.426253747131014,172.94645536578454</t>
+          <t>-34.42624997098227,172.9464550093523</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -27234,7 +27234,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-34.426974357078386,172.93745621317004</t>
+          <t>-34.4269901364831,172.937456558792</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -27279,12 +27279,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>-34.42617978904735,172.94554735174918</t>
+          <t>-34.42619237621556,172.9455485397673</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-34.426199172790504,172.94645021449296</t>
+          <t>-34.426206455363165,172.94645090189724</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -27356,7 +27356,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-34.42678040564894,172.9374519649922</t>
+          <t>-34.42676588859609,172.9374516470215</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -27401,12 +27401,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>-34.42601687512389,172.94553197543257</t>
+          <t>-34.42600527694698,172.9455308807633</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>-34.42605702775867,172.94643679740392</t>
+          <t>-34.42605028463559,172.94643616092077</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -27478,7 +27478,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-34.426691229466584,172.93745001174526</t>
+          <t>-34.426674187708635,172.93744963847607</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -27523,12 +27523,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>-34.426164144995354,172.9455458752129</t>
+          <t>-34.42615056883526,172.9455445938514</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>-34.426235405837076,172.94645363454248</t>
+          <t>-34.42622758381465,172.9464528962189</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -27596,7 +27596,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.426927109032,172.93745517827978</t>
+          <t>-34.42694415078923,172.93745555155112</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -27641,12 +27641,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>-34.42621835972698,172.94555099217717</t>
+          <t>-34.42623193588687,172.94555227354076</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-34.42620636545485,172.94645089341074</t>
+          <t>-34.426214187477335,172.94645163173396</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-34.42666742510626,172.9374494903534</t>
+          <t>-34.42669519685997,172.93745009864392</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -27763,12 +27763,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>-34.426108581637855,172.94554063096774</t>
+          <t>-34.42613078899927,172.94554272696783</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-34.42610036356267,172.94644088787157</t>
+          <t>-34.42611313054219,172.94644209294793</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -27840,7 +27840,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.426849023519395,172.93745346794836</t>
+          <t>-34.42687904947298,172.93745412561586</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -27885,12 +27885,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>-34.426059941222356,172.94553604013745</t>
+          <t>-34.42608394675097,172.94553830585156</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-34.42600479103166,172.94643186678354</t>
+          <t>-34.42601863691118,172.9464331736944</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -27995,12 +27995,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>-34.42615839086129,172.94554533211925</t>
+          <t>-34.426147242226484,172.94554427987543</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-34.42599418185123,172.94643086538463</t>
+          <t>-34.425987798361305,172.9464302628481</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -28064,7 +28064,7 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-34.42693098625718,172.93745526320396</t>
+          <t>-34.4269087147543,172.93745477538388</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -28109,12 +28109,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>-34.426323732304574,172.9455609376058</t>
+          <t>-34.426305930452905,172.94555925740366</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-34.42636649214196,172.94646600784782</t>
+          <t>-34.42635624259564,172.94646504038636</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -28186,7 +28186,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.42682684218422,172.9374529821042</t>
+          <t>-34.42684036738861,172.9374532783506</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -28231,12 +28231,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>-34.426190038598605,172.94554831913533</t>
+          <t>-34.42620082759992,172.94554933743677</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>-34.426156376437326,172.94644617493452</t>
+          <t>-34.42616258011041,172.94644676050052</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -28411,12 +28411,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>-34.426192915665624,172.94554859068234</t>
+          <t>-34.426205862467185,172.9455498126442</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>-34.426183169112264,172.9464487039013</t>
+          <t>-34.42619063150156,172.94644940827826</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -28488,7 +28488,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.42688824661188,172.93745432706362</t>
+          <t>-34.42687300821507,172.93745399329234</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -28533,12 +28533,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>-34.42620469365872,172.94554970232818</t>
+          <t>-34.426192466123915,172.94554854825313</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-34.42624358749271,172.94645440681214</t>
+          <t>-34.426236484736734,172.94645373638025</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -28610,7 +28610,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.427083821062276,172.93745861080174</t>
+          <t>-34.42706578745717,172.93745821580433</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -28655,12 +28655,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>-34.426334701122215,172.94556197288222</t>
+          <t>-34.42632031578759,172.9455606151427</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>-34.426356782045445,172.94646509130538</t>
+          <t>-34.42634851048172,172.94646431054716</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -28732,7 +28732,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-34.42688671375539,172.937454293489</t>
+          <t>-34.426897263414716,172.93745452456153</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -28777,12 +28777,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>-34.42626142582343,172.9455550569014</t>
+          <t>-34.4262697872993,172.94555584608636</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>-34.42623801317789,172.94645388065038</t>
+          <t>-34.42624286822628,172.9464543389203</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -28854,7 +28854,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.42695740548926,172.9374558418734</t>
+          <t>-34.42698418539333,172.93745642844314</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -28899,12 +28899,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>-34.42629729925207,172.94555844276047</t>
+          <t>-34.426318697437445,172.94556046239703</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-34.42632855083876,172.94646242654426</t>
+          <t>-34.42634086827611,172.9464635891946</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.426855695953535,172.93745361409665</t>
+          <t>-34.4268652537646,172.93745382344426</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -29021,12 +29021,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>-34.4260249668752,172.9455327391555</t>
+          <t>-34.4260325191764,172.9455334519637</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-34.42605783693343,172.94643687378192</t>
+          <t>-34.42606215253219,172.94643728113124</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -29094,7 +29094,7 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.426813677651936,172.9374526937578</t>
+          <t>-34.42684550696627,172.93745339092428</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -29139,12 +29139,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>-34.4261926459406,172.9455485652248</t>
+          <t>-34.42621800009362,172.94555095823378</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>-34.4261370461516,172.94644435034542</t>
+          <t>-34.42615170120544,172.94644573363848</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -29216,7 +29216,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.42685145805618,172.93745352127272</t>
+          <t>-34.42684271175737,172.9374533297</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -29261,12 +29261,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>-34.42613906056707,172.94554350766447</t>
+          <t>-34.426132047716116,172.94554284576947</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-34.425994631392776,172.9464309078168</t>
+          <t>-34.425990585518875,172.9464305259274</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -29334,7 +29334,7 @@
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.42643370956344,172.9374443712487</t>
+          <t>-34.42641594646048,172.93744398218206</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -29379,12 +29379,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>-34.42592858512524,172.94552364237623</t>
+          <t>-34.42591437960595,172.94552230162134</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-34.42589006802829,172.94642103811026</t>
+          <t>-34.425881886371975,172.94642026584708</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.426698533077115,172.9374501717178</t>
+          <t>-34.42668978677809,172.93744998014574</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -29518,7 +29518,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.426933330625914,172.93745531455343</t>
+          <t>-34.426936125834764,172.93745537577783</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -29563,12 +29563,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>-34.42620298540019,172.9455495410971</t>
+          <t>-34.42620514320044,172.94554974475741</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>-34.42614819478153,172.94644540266648</t>
+          <t>-34.42614945349781,172.94644552147696</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -29640,7 +29640,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.426902312824296,172.93745463516035</t>
+          <t>-34.42690781307401,172.9374547556341</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -29685,12 +29685,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>-34.4261598293948,172.94554546789266</t>
+          <t>-34.426164234903716,172.94554588369874</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-34.42613515807719,172.9464441721298</t>
+          <t>-34.42613776541807,172.9464444182371</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-34.4267665197723,172.9374516608463</t>
+          <t>-34.42678428287424,172.9374520499161</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -29807,12 +29807,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>-34.42609770272796,172.9455396041827</t>
+          <t>-34.42611190824666,172.94554094494342</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-34.426002633232265,172.94643166310917</t>
+          <t>-34.42601081488833,172.94643243537456</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -29884,7 +29884,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-34.42695920884981,172.937455881373</t>
+          <t>-34.42697552926274,172.9374562388448</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -29958,7 +29958,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-34.42707895198891,172.93745850415243</t>
+          <t>-34.42709049349616,172.93745875695083</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -30003,12 +30003,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>-34.42625360379758,172.9455543186318</t>
+          <t>-34.426262774448574,172.9455551841893</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-34.426226504915,172.94645279438117</t>
+          <t>-34.426231809504934,172.94645329508333</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -30080,7 +30080,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-34.427160373715395,172.93746028756752</t>
+          <t>-34.42716641497304,172.93746041989192</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -30125,12 +30125,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>-34.42643881498016,172.94557179953568</t>
+          <t>-34.42644358012213,172.9455722492881</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>-34.42630589394665,172.94646028794745</t>
+          <t>-34.426308681104025,172.94646055102874</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -30202,7 +30202,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.42705631981446,172.93745800843075</t>
+          <t>-34.42707282056317,172.9374583698533</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -30247,12 +30247,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>-34.42622824964479,172.9455519256208</t>
+          <t>-34.42624146617127,172.94555317304125</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-34.42620088104829,172.94645037573594</t>
+          <t>-34.42620852325417,172.9464510970861</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -30324,7 +30324,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-34.4271320609557,172.93745966742057</t>
+          <t>-34.4271448648152,172.93745994786914</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -30369,12 +30369,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>-34.426320945145974,172.9455606745438</t>
+          <t>-34.42633110478857,172.94556163344728</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-34.4262675031014,172.94645666421658</t>
+          <t>-34.426273347141105,172.94645721583817</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -30442,7 +30442,7 @@
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-34.42681124311513,172.93745264043343</t>
+          <t>-34.42678996346011,172.93745217433943</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -30487,12 +30487,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>-34.426062548564424,172.94553628622617</t>
+          <t>-34.4260455558868,172.94553468240673</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>-34.42615718561207,172.9464462513127</t>
+          <t>-34.42614738560679,172.9464453262883</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -30564,7 +30564,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.42696407792329,172.93745598802207</t>
+          <t>-34.42697706211919,172.9374562724195</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -30609,12 +30609,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>-34.42607936142529,172.94553787307458</t>
+          <t>-34.42608979079348,172.94553885743008</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-34.42605055436051,172.94643618638008</t>
+          <t>-34.426056578217114,172.9464367549717</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -30682,7 +30682,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-34.426936125834764,172.93745537577783</t>
+          <t>-34.42696344674709,172.93745597419718</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -30727,12 +30727,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>-34.42599592647875,172.9455299982394</t>
+          <t>-34.426017684299005,172.94553205180483</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>-34.425975930464496,172.94642914263963</t>
+          <t>-34.42598851762777,172.94643033073956</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -30804,7 +30804,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-34.42698905446678,172.93745653509222</t>
+          <t>-34.42701835907544,172.93745717696194</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -30849,12 +30849,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>-34.426123416514926,172.94554203112963</t>
+          <t>-34.42614679268476,172.94554423744628</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>-34.42613569752702,172.94644422304853</t>
+          <t>-34.42614918377289,172.94644549601756</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -30926,7 +30926,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.42693089608917,172.93745526122896</t>
+          <t>-34.4269519052396,172.93745572139952</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -30971,12 +30971,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>-34.42609860181143,172.94553968904097</t>
+          <t>-34.426115414672154,172.94554127589075</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-34.42610117273744,172.94644096424966</t>
+          <t>-34.42611088283453,172.94644188078655</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -31048,7 +31048,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-34.42688761543569,172.9374543132388</t>
+          <t>-34.42687787728861,172.93745409994114</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -31093,12 +31093,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>-34.426178080788794,172.94554719051817</t>
+          <t>-34.42617025876281,172.94554645225</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>-34.42618352874548,172.9464487378472</t>
+          <t>-34.42617903333024,172.9464483135238</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -31170,7 +31170,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.42674109238772,172.9374511039041</t>
+          <t>-34.426725853990526,172.9374507701339</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -31215,7 +31215,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>-34.42621386430979,172.9455505678847</t>
+          <t>-34.426201636775026,172.94554941380937</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -31272,7 +31272,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-34.42673667415421,172.93745100713048</t>
+          <t>-34.426715123994846,172.93745053511233</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -31317,12 +31317,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>-34.42622735056135,172.94555184076228</t>
+          <t>-34.4262101780677,172.94555021996493</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>-34.426113849808644,172.94644216083955</t>
+          <t>-34.42610395989493,172.94644122732967</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -31407,12 +31407,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>-34.426308178161456,172.94555946955035</t>
+          <t>-34.42632633964648,172.94556118369607</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>-34.42626885172596,172.94645679151387</t>
+          <t>-34.426279370997406,172.9464577844328</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -31484,7 +31484,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.42697859497565,172.9374563059942</t>
+          <t>-34.42699509572459,172.9374566674161</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -31529,12 +31529,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>-34.426223844135954,172.9455515098141</t>
+          <t>-34.42623706066245,172.94555275723437</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-34.42624259850137,172.94645431346083</t>
+          <t>-34.426250240707176,172.94645503481175</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -31606,7 +31606,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.42702097394822,172.93745723423652</t>
+          <t>-34.42700645689594,172.93745691626404</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -31651,12 +31651,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>-34.426312493761856,172.94555987687207</t>
+          <t>-34.42630089558574,172.94555878219512</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>-34.42614235074166,172.94644485104652</t>
+          <t>-34.42613560761872,172.94644421456206</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -31724,7 +31724,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-34.426791586484654,172.937452209889</t>
+          <t>-34.42681890739764,172.93745280830635</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -31769,12 +31769,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>-34.426009412731,172.9455312711104</t>
+          <t>-34.42603117055119,172.94553332467652</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-34.425942934114865,172.9464260281222</t>
+          <t>-34.42595552127824,172.9464272162212</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -31846,7 +31846,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.42690276366444,172.93745464503525</t>
+          <t>-34.42689672240654,172.93745451271164</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -31891,12 +31891,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>-34.42611892109765,172.94554160683808</t>
+          <t>-34.426114155955304,172.94554115708914</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-34.42608678740836,172.94643960641758</t>
+          <t>-34.42608400025084,172.94643934333766</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -31968,7 +31968,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.42694523280556,172.9374555752509</t>
+          <t>-34.42695452011239,172.93745577867398</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -32013,12 +32013,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>-34.42622276523582,172.94555140798386</t>
+          <t>-34.42623013772001,172.94555210382367</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>-34.42620987187874,172.94645122438322</t>
+          <t>-34.426214187477335,172.94645163173396</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -32090,7 +32090,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-34.42698914463481,172.9374565370672</t>
+          <t>-34.42701367033807,172.93745707426277</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -32135,12 +32135,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>-34.42625495242274,172.94555444591964</t>
+          <t>-34.426274552441456,172.94555629583698</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-34.426203398480816,172.94645061335717</t>
+          <t>-34.426214637018866,172.94645167416635</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -32249,12 +32249,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>-34.42631519101211,172.94556013144813</t>
+          <t>-34.42633236350534,172.94556175224952</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>-34.42627145906674,172.94645703762197</t>
+          <t>-34.42628134898006,172.94645797113552</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -32326,7 +32326,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.427089321311826,172.937458731276</t>
+          <t>-34.42710410886797,172.937459055174</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -32371,12 +32371,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>-34.42628264419229,172.94555705956455</t>
+          <t>-34.42629442218511,172.94555817121278</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-34.426242328776475,172.9464542880014</t>
+          <t>-34.42624907189923,172.94645492448748</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -32448,7 +32448,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.427133864316204,172.93745970692038</t>
+          <t>-34.42711456835888,172.9374592842727</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -32493,12 +32493,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>-34.42625540196445,172.94555448834893</t>
+          <t>-34.42624002763778,172.94555303726756</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>-34.426208073712644,172.94645105465372</t>
+          <t>-34.42619926269881,172.94645022297945</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -32570,7 +32570,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-34.42705586897432,172.93745799855583</t>
+          <t>-34.42703558116847,172.93745755418405</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -32615,12 +32615,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>-34.426238319379245,172.94555287603634</t>
+          <t>-34.426222135877424,172.9455513485829</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>-34.42624979116567,172.94645499237933</t>
+          <t>-34.42624044070209,172.94645410978532</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -32688,7 +32688,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-34.42704820469213,172.93745783068204</t>
+          <t>-34.42704297494662,172.93745771613285</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -32733,12 +32733,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>-34.42616063856992,172.9455455442652</t>
+          <t>-34.426156412877695,172.9455451454308</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-34.42615349937156,172.94644590336773</t>
+          <t>-34.42615107184731,172.94644567423325</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -32810,7 +32810,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.427032154783475,172.93745747913462</t>
+          <t>-34.42703143343927,172.93745746333474</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -32855,12 +32855,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>-34.426281924925554,172.94555699167765</t>
+          <t>-34.426281295567144,172.94555693227662</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-34.42623531592878,172.946453626056</t>
+          <t>-34.42623495629556,172.94645359211006</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -32965,12 +32965,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>-34.42616135783667,172.9455456121519</t>
+          <t>-34.426177721155405,172.94554715657483</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>-34.426162849835315,172.94644678595992</t>
+          <t>-34.42617229020736,172.94644767703878</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -33042,7 +33042,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.4269528970879,172.9374557431243</t>
+          <t>-34.42693964238784,172.93745545280208</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -33087,12 +33087,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>-34.42612692294041,172.94554236207702</t>
+          <t>-34.426116313755614,172.94554136074902</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-34.42608597823359,172.94643953003953</t>
+          <t>-34.426079864468704,172.94643895296105</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -33164,7 +33164,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.426984906737545,172.937456444243</t>
+          <t>-34.426967594476345,172.93745606504635</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -33209,12 +33209,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>-34.42627814877516,172.94555663527143</t>
+          <t>-34.42626439279874,172.94555533693477</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-34.42614226083336,172.94644484256006</t>
+          <t>-34.42613434890243,172.94644409575164</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -33274,7 +33274,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.426854704105224,172.9374535923719</t>
+          <t>-34.42687400006337,172.9374540150171</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -33319,12 +33319,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>-34.42583256300651,172.94551457956078</t>
+          <t>-34.425847937334645,172.94551603062817</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-34.425812027613595,172.94641367191358</t>
+          <t>-34.425820838628226,172.94641450358026</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -33396,7 +33396,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.42669844290909,172.93745016974285</t>
+          <t>-34.4267132304662,172.93745049363795</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -33441,12 +33441,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>-34.42596769525725,172.9455273336974</t>
+          <t>-34.42597947325094,172.94552844533732</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>-34.42599022588564,172.94643049198172</t>
+          <t>-34.42599696900881,172.94643112846398</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -33518,7 +33518,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.42665687544653,172.93744925928212</t>
+          <t>-34.42665335889328,172.93744918225838</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -33563,12 +33563,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>-34.425889205267815,172.9455199256011</t>
+          <t>-34.42588641810893,172.9455196625418</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>-34.42584412488111,172.94641670155735</t>
+          <t>-34.42584250653148,172.94641654880215</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -33640,7 +33640,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.426836129491235,172.93745318552672</t>
+          <t>-34.4268243174794,172.93745292680487</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -33685,12 +33685,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>-34.426079900875365,172.94553792398952</t>
+          <t>-34.426070550407296,172.94553704146412</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-34.42600595983968,172.94643197710718</t>
+          <t>-34.426000565341155,172.94643146792123</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -33762,7 +33762,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-34.426852089232376,172.93745353509757</t>
+          <t>-34.42683685083547,172.93745320132652</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -33807,12 +33807,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>-34.42607891188355,172.9455378306455</t>
+          <t>-34.426066684348385,172.94553667657385</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-34.42602412131798,172.946433691367</t>
+          <t>-34.426017018561616,172.94643302093854</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -33884,7 +33884,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.4270481145241,172.93745782870704</t>
+          <t>-34.42704288477859,172.9374577141579</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -33929,12 +33929,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>-34.42605059075425,172.94553515761245</t>
+          <t>-34.42604636506193,172.94553475877908</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>-34.425864623976196,172.9464186364571</t>
+          <t>-34.42586219645178,172.94641840732416</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -34002,7 +34002,7 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.42671981273246,172.93745063781083</t>
+          <t>-34.42674064154757,172.93745109402923</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -34047,12 +34047,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>-34.42581916666205,172.94551331518085</t>
+          <t>-34.42583570979882,172.94551487656284</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>-34.425781818420404,172.94641082048622</t>
+          <t>-34.42579134870162,172.94641172004344</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -34120,7 +34120,7 @@
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.42668870476171,172.93744995644613</t>
+          <t>-34.42671999306852,172.93745064176076</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -34165,12 +34165,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>-34.42589747683606,172.9455207062933</t>
+          <t>-34.425922471357445,172.94552306534243</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>-34.42584628268058,172.94641690523096</t>
+          <t>-34.42586066801048,172.9464182630553</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -34238,7 +34238,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.427062361072196,172.93745814075484</t>
+          <t>-34.427078861820874,172.93745850217744</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -34283,12 +34283,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>-34.42621278540966,172.9455504660545</t>
+          <t>-34.4262260019362,172.94555171347452</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>-34.42618595626972,172.94644896698182</t>
+          <t>-34.426193598475614,172.94644968833177</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -34356,7 +34356,7 @@
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.42699536622867,172.93745667334105</t>
+          <t>-34.42702340848492,172.93745728756107</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -34401,12 +34401,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>-34.42615605324432,172.94554511148743</t>
+          <t>-34.42617844042218,172.94554722446154</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>-34.42612868467917,172.9464435611048</t>
+          <t>-34.426141631475204,172.94644478315485</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -34478,7 +34478,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.4269854477457,172.9374564560929</t>
+          <t>-34.42697895564776,172.93745631389413</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -34523,12 +34523,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>-34.4260247870585,172.94553272218388</t>
+          <t>-34.426019572374315,172.94553223000688</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-34.42598537083696,172.94643003371456</t>
+          <t>-34.425982403862754,172.94642975366241</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -34600,7 +34600,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.42685704847397,172.9374536437213</t>
+          <t>-34.42686579477278,172.9374538352941</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -34645,12 +34645,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>-34.42599844391251,172.945530235842</t>
+          <t>-34.426005456763676,172.9455308977349</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-34.42596316348455,172.94642793756722</t>
+          <t>-34.42596720935849,172.94642831945632</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -34722,7 +34722,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.42686886048575,172.93745390244334</t>
+          <t>-34.426885180898914,172.93745425991438</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -34767,12 +34767,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>-34.42601948246598,172.94553222152106</t>
+          <t>-34.42603242926806,172.9455334434779</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-34.425971075415795,172.9464286843726</t>
+          <t>-34.42597853780546,172.94642938874603</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -34869,12 +34869,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>-34.42617367527991,172.94554677471194</t>
+          <t>-34.42616504407882,172.94554596007129</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-34.42615152138884,172.94644571666555</t>
+          <t>-34.42614657643203,172.94644524991017</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -34946,7 +34946,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.426893746861616,172.93745444753733</t>
+          <t>-34.42691178046724,172.93745484253319</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -34991,12 +34991,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>-34.42604070083604,172.94553422417275</t>
+          <t>-34.426055086171615,172.94553558190327</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-34.42603104425771,172.94643434482265</t>
+          <t>-34.42603931582204,172.946435125575</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -35068,7 +35068,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.426884639890744,172.9374542480645</t>
+          <t>-34.42687264754294,172.9374539853924</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -35113,12 +35113,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>-34.42612890092402,172.94554254876533</t>
+          <t>-34.42611928073103,172.94554164078139</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>-34.42607420024536,172.9464384183149</t>
+          <t>-34.42606862593032,172.94643789215525</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -35190,7 +35190,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.426851818728295,172.93745352917264</t>
+          <t>-34.426871114686456,172.9374539518178</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -35235,12 +35235,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>-34.42613060918259,172.94554270999615</t>
+          <t>-34.42614598350966,172.94554416107377</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-34.42608831584958,172.9464397506872</t>
+          <t>-34.42609712686363,172.94644058235934</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -35312,7 +35312,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-34.4268841890506,172.93745423818962</t>
+          <t>-34.42688968930034,172.9374543586633</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -35357,12 +35357,12 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>-34.42623256524528,172.9455523329417</t>
+          <t>-34.426236970754104,172.94555274874853</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>-34.42619809389085,172.9464501126553</t>
+          <t>-34.42620070123168,172.946450358763</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -35434,7 +35434,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-34.427082378373875,172.93745857920194</t>
+          <t>-34.427077599468525,172.93745847452763</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -35508,7 +35508,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.42699239068377,172.9374566081666</t>
+          <t>-34.42698084917633,172.93745635536877</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -35553,12 +35553,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>-34.42620981843431,172.94555018602153</t>
+          <t>-34.42620064778324,172.94554932046506</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-34.426278202189465,172.94645767410844</t>
+          <t>-34.42627289759958,172.94645717340575</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -35626,7 +35626,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.42703693368886,172.93745758380882</t>
+          <t>-34.427054696789995,172.93745797288102</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -35671,12 +35671,12 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>-34.426234093687114,172.9455524772012</t>
+          <t>-34.42624829920535,172.94555381796624</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-34.42622057096694,172.94645223427372</t>
+          <t>-34.426228752622606,172.9464530065431</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -35748,7 +35748,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.427089321311826,172.937458731276</t>
+          <t>-34.42711114197394,172.9374592092231</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -35793,12 +35793,12 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>-34.4263578974742,172.94556416223816</t>
+          <t>-34.426375249783945,172.94556580001293</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-34.426327651755756,172.94646234167928</t>
+          <t>-34.426337721485545,172.9464632921671</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -35862,7 +35862,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.42708751795133,172.93745869177621</t>
+          <t>-34.42710627290058,172.93745910257374</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -35907,12 +35907,12 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>-34.42623580194564,172.94555263843245</t>
+          <t>-34.426250816638955,172.94555405557023</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-34.42626390676928,172.94645632475718</t>
+          <t>-34.42627253796637,172.9464571394598</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -35968,7 +35968,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.42704405696292,172.9374577398327</t>
+          <t>-34.42704730301186,172.93745781093216</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -36013,12 +36013,12 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>-34.42626304417359,172.9455552096469</t>
+          <t>-34.42626565151555,172.9455554557368</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>-34.42617507736482,172.9464479401192</t>
+          <t>-34.426176605806006,172.94644808438915</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -36086,7 +36086,7 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.4269833738811,172.9374564106683</t>
+          <t>-34.426979135983814,172.9374563178441</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -36131,12 +36131,12 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>-34.42616567343722,172.94554601947218</t>
+          <t>-34.42616225692012,172.9455456970103</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>-34.42606754703063,172.9464377903179</t>
+          <t>-34.42606565895618,172.94643761210256</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -36208,7 +36208,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.42711312567049,172.93745925267285</t>
+          <t>-34.42710212517143,172.93745901172426</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -36253,12 +36253,12 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>-34.426304402011084,172.9455591131439</t>
+          <t>-34.42629559099356,172.945558281529</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-34.42622623519008,172.94645276892174</t>
+          <t>-34.42622120032506,172.94645229367904</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -36330,7 +36330,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-34.42693405197013,172.93745533035326</t>
+          <t>-34.42691953491766,172.93745501238143</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -36375,12 +36375,12 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>-34.42610066970339,172.94553988421495</t>
+          <t>-34.42608907152672,172.9455387895435</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-34.426169323233296,172.94644739698538</t>
+          <t>-34.42616258011041,172.94644676050052</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -36452,7 +36452,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.42696065153825,172.93745591297275</t>
+          <t>-34.42696344674709,172.93745597419718</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -36497,12 +36497,12 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>-34.42615955966976,172.94554544243513</t>
+          <t>-34.426161717470045,172.94554564609527</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-34.426124099355555,172.94644312829547</t>
+          <t>-34.426125358071836,172.9464432471059</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -36574,7 +36574,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.42695415944027,172.93745577077405</t>
+          <t>-34.426954700448434,172.93745578262394</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -36619,12 +36619,12 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>-34.42609482566088,172.9455393326363</t>
+          <t>-34.426095185294265,172.9455393665796</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>-34.42604201307128,172.9464353801682</t>
+          <t>-34.42604219288789,172.94643539714107</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -36696,7 +36696,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.42691682987682,172.93745495313206</t>
+          <t>-34.42689654207049,172.9374545087617</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -36741,12 +36741,12 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>-34.42624362397151,172.94555337670175</t>
+          <t>-34.42622744046969,172.94555184924812</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>-34.426258602179395,172.94645582405462</t>
+          <t>-34.426249251715845,172.94645494146044</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -36818,7 +36818,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.427046130827534,172.93745778525735</t>
+          <t>-34.427028818566505,172.93745740606016</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -36863,12 +36863,12 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>-34.42625216526411,172.94555418285805</t>
+          <t>-34.4262384092876,172.9455528845222</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-34.42613749569314,172.9464443927777</t>
+          <t>-34.42612958376222,172.94644364596937</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -36936,7 +36936,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.427153250441485,172.93746013154325</t>
+          <t>-34.42716830850153,172.93746046136675</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -36981,12 +36981,12 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>-34.426328227721626,172.94556136189937</t>
+          <t>-34.42634018553103,172.94556249052053</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>-34.426268312276136,172.94645674059495</t>
+          <t>-34.42627523521546,172.9464573940544</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -37059,12 +37059,12 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>-34.42651227009257,172.94557873251728</t>
+          <t>-34.42650651595897,172.94557818941917</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-34.42637548297206,172.94646685649843</t>
+          <t>-34.42637215636493,172.9464665424977</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -37116,7 +37116,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.426970389685195,172.9374561262708</t>
+          <t>-34.42697363573416,172.93745619737015</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -37134,7 +37134,7 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-34.426232978312875,172.94645340540754</t>
+          <t>-34.42623450675405,172.94645354967767</t>
         </is>
       </c>
       <c r="N159" t="inlineStr"/>
@@ -37190,7 +37190,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.42714116792619,172.93745986689456</t>
+          <t>-34.42713611851682,172.9374597562951</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -37235,12 +37235,12 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>-34.426386758051514,172.9455668862059</t>
+          <t>-34.42638280208454,172.94556651282704</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>-34.42636936920759,172.946466279416</t>
+          <t>-34.42636712150007,172.94646606725337</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -37312,7 +37312,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.42718778479473,172.93746088796496</t>
+          <t>-34.42717624328766,172.937460635166</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -37345,12 +37345,12 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>-34.42635367178219,172.94556376340188</t>
+          <t>-34.4263445011314,172.94556289784254</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-34.42628134898006,172.94645797113552</t>
+          <t>-34.42627604439019,172.94645747043276</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -37418,7 +37418,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.42708454240649,172.93745862660165</t>
+          <t>-34.42709509206546,172.9374588576752</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -37463,12 +37463,12 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>-34.426299457052274,172.94555864642126</t>
+          <t>-34.42630781852808,172.9455594356069</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-34.42635777103677,172.94646518465692</t>
+          <t>-34.42636262608503,172.94646564292813</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -37540,7 +37540,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.42690826391416,172.937454765509</t>
+          <t>-34.426922510462575,172.9374550775558</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -37585,12 +37585,12 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>-34.42617457436336,172.94554685957036</t>
+          <t>-34.42618599272312,172.94554793727235</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-34.42618919296869,172.94644927249473</t>
+          <t>-34.42619575627493,172.94644989200705</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -37662,7 +37662,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.42697075035729,172.93745613417073</t>
+          <t>-34.426978504807636,172.9374563040192</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -37707,12 +37707,12 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>-34.426286600159344,172.94555743294254</t>
+          <t>-34.42629280383496,172.94555801846718</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>-34.42627127925013,172.94645702064898</t>
+          <t>-34.42627487558225,172.94645736010844</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -37784,7 +37784,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.4269760702709,172.9374562506947</t>
+          <t>-34.42696831582057,172.9374560808462</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -37829,12 +37829,12 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>-34.42620846980916,172.9455500587338</t>
+          <t>-34.42620226613342,172.94554947321032</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>-34.42618164067108,172.94644855963136</t>
+          <t>-34.42617804433889,172.94644822017264</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -37906,7 +37906,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.42701826890742,172.93745717498697</t>
+          <t>-34.4270415322582,172.9374576845331</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -37951,12 +37951,12 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>-34.4263598754577,172.9455643489275</t>
+          <t>-34.4263784864842,172.9455661055047</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-34.426336103136116,172.9464631394101</t>
+          <t>-34.42634680222399,172.94646414930364</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -38028,7 +38028,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.426761740866695,172.93745155617276</t>
+          <t>-34.42676679027638,172.93745166677124</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -38073,12 +38073,12 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>-34.42626753959073,172.94555563393985</t>
+          <t>-34.42627149555781,172.94555600731772</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-34.42621724435968,172.94645192027411</t>
+          <t>-34.42621949206728,172.946452132436</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -38150,7 +38150,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-34.42690709172978,172.93745473983427</t>
+          <t>-34.426937388187156,172.93745540342755</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -38195,12 +38195,12 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>-34.42626771940743,172.94555565091156</t>
+          <t>-34.42629190475154,172.94555793360854</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>-34.426220660875245,172.9464522427602</t>
+          <t>-34.42623459666234,172.94645355816417</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.42679916059916,172.93745237578682</t>
+          <t>-34.426796365390224,172.93745231456262</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -38413,12 +38413,12 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>-34.42616207710343,172.9455456800386</t>
+          <t>-34.4261678312375,172.9455462231323</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-34.426133270002765,172.94644399391413</t>
+          <t>-34.42613659661009,172.9464443079131</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -38490,7 +38490,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.42675191255139,172.93745134090074</t>
+          <t>-34.42677165935001,172.93745177341978</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -38535,12 +38535,12 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>-34.42616081838659,172.94554556123686</t>
+          <t>-34.42617664225528,172.9455470547447</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-34.426150172764245,172.94644558936864</t>
+          <t>-34.426159343411406,172.9464464549878</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -38612,7 +38612,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.42668735224123,172.93744992682156</t>
+          <t>-34.42670412349504,172.93745029416596</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -38657,12 +38657,12 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>-34.42606551553987,172.9455365662582</t>
+          <t>-34.42607891188355,172.9455378306455</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-34.42605738739189,172.9464368313497</t>
+          <t>-34.426065119506326,172.94643756118387</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -38734,7 +38734,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-34.42668275367163,172.93744982609815</t>
+          <t>-34.42665949031945,172.9374493165562</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -38779,12 +38779,12 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>-34.42613591377498,172.94554321066028</t>
+          <t>-34.42611730274741,172.94554145409313</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-34.426148014964916,172.94644538569355</t>
+          <t>-34.42613731587654,172.9464443758048</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -38856,7 +38856,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.42690114063992,172.9374546094856</t>
+          <t>-34.426884639890744,172.9374542480645</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -38901,12 +38901,12 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>-34.426316989178936,172.9455603011655</t>
+          <t>-34.426303772652695,172.94555905374284</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-34.42631425541877,172.94646107719137</t>
+          <t>-34.42630661321307,172.94646035583938</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -38978,7 +38978,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.42688779577173,172.93745431718875</t>
+          <t>-34.42690303416852,172.93745465096018</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -39060,7 +39060,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.426823776471224,172.93745291495503</t>
+          <t>-34.42682548966379,172.93745295247956</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -39105,12 +39105,12 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>-34.42621683128514,172.94555084791773</t>
+          <t>-34.42621826981864,172.94555098369133</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>-34.42616006267786,172.9464465228795</t>
+          <t>-34.4261608718526,172.94644659925768</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -39182,7 +39182,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.42689482887795,172.9374544712371</t>
+          <t>-34.4269080835781,172.93745476155902</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -39227,12 +39227,12 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>-34.42630215430254,172.94555890099724</t>
+          <t>-34.426312763486884,172.94555990232965</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>-34.426253747131014,172.94645536578454</t>
+          <t>-34.426259860895634,172.94645594286538</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -39300,7 +39300,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-34.42711420768679,172.93745927637272</t>
+          <t>-34.42709518223349,172.9374588596502</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -39345,12 +39345,12 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>-34.42633083506355,172.94556160798967</t>
+          <t>-34.42631564055382,172.94556017387748</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>-34.42638789031756,172.94646802763657</t>
+          <t>-34.426379079304084,172.94646719595875</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -39422,7 +39422,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.42681503017237,172.93745272338242</t>
+          <t>-34.42682530932772,172.9374529485296</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -39467,12 +39467,12 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>-34.426171967021354,172.94554661348096</t>
+          <t>-34.426180148680736,172.94554738569258</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-34.42615880396158,172.94644640406904</t>
+          <t>-34.42616347919345,172.9464468453652</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -39565,12 +39565,12 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>-34.42616297618688,172.945545764897</t>
+          <t>-34.42618338538112,172.9455476911829</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-34.426165097542956,172.94644699812153</t>
+          <t>-34.42617687553093,172.94644810984857</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -39642,7 +39642,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.42670177912624,172.93745024281674</t>
+          <t>-34.426724321133996,172.93745073655938</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -39687,12 +39687,12 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>-34.426115504580494,172.94554128437656</t>
+          <t>-34.42613348624965,172.9455429815428</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-34.426073480978914,172.9464383504233</t>
+          <t>-34.42608382043423,172.94643932636478</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -39748,7 +39748,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.426663547880885,172.9374494054298</t>
+          <t>-34.42667031048327,172.9374495535524</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -39793,12 +39793,12 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>-34.42601948246598,172.94553222152106</t>
+          <t>-34.426024876966856,172.9455327306697</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-34.42601396167914,172.94643273239978</t>
+          <t>-34.42601710846994,172.94643302942498</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -39870,7 +39870,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.42663739915161,172.93744883268914</t>
+          <t>-34.426665441409554,172.9374494469041</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -39915,7 +39915,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>-34.42607567518307,172.9455375251559</t>
+          <t>-34.42609806236135,172.945539638126</t>
         </is>
       </c>
       <c r="M184" t="inlineStr"/>
@@ -39953,12 +39953,12 @@
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
-          <t>-34.42591995392364,172.94552282774032</t>
+          <t>-34.42591015391346,172.94552190278927</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-34.42587028819982,172.94641917110062</t>
+          <t>-34.425864623976196,172.9464186364571</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -40030,7 +40030,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.42683405562657,172.93745314010226</t>
+          <t>-34.42682729302437,172.9374529919791</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -40075,12 +40075,12 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>-34.42618338538112,172.9455476911829</t>
+          <t>-34.426177990880454,172.94554718203233</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-34.42621571591851,172.94645177600404</t>
+          <t>-34.42621256912786,172.94645147897742</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -40152,7 +40152,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.42692422365511,172.9374551150804</t>
+          <t>-34.42693973255588,172.93745545477705</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -40197,12 +40197,12 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>-34.426339915806004,172.94556246506292</t>
+          <t>-34.42635232315708,172.94556363611375</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-34.42628341687102,172.94645816632476</t>
+          <t>-34.42629051962693,172.94645883675742</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -40270,7 +40270,7 @@
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.42726325543025,172.9374625410348</t>
+          <t>-34.42723872972801,172.93746200383615</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -40315,12 +40315,12 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>-34.42629361301004,172.94555809483995</t>
+          <t>-34.426274012991406,172.94555624492182</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-34.42636280590163,172.94646565990112</t>
+          <t>-34.42635156736397,172.94646459908822</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -40392,7 +40392,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.42684649881458,172.937453412649</t>
+          <t>-34.42686327006797,172.93745377999474</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -40437,12 +40437,12 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>-34.426278058866814,172.9455566267856</t>
+          <t>-34.42629145520983,172.94555789117922</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-34.42624457648406,172.9464545001634</t>
+          <t>-34.426252308598166,172.94645523000082</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -40514,7 +40514,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.427080304509296,172.93745853377723</t>
+          <t>-34.427072550059094,172.93745836392833</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -40559,12 +40559,12 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>-34.42629900751057,172.9455586039919</t>
+          <t>-34.42629280383496,172.94555801846718</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-34.42631713248443,172.94646134875921</t>
+          <t>-34.42631353615235,172.9464610092994</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -40636,7 +40636,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.427099420130666,172.9374589524746</t>
+          <t>-34.42710014147487,172.93745896827454</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -40681,12 +40681,12 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>-34.42634027543937,172.9455624990064</t>
+          <t>-34.42634090479776,172.94556255840754</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-34.42635579305414,172.94646499795383</t>
+          <t>-34.42635615268734,172.94646503189983</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -40758,7 +40758,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.427127462386444,172.93745956669613</t>
+          <t>-34.42710942878146,172.93745917169832</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -40803,12 +40803,12 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>-34.42641166266167,172.94556923679644</t>
+          <t>-34.4263972773273,172.94556787905447</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-34.42645244447686,172.946474120955</t>
+          <t>-34.42644417291333,172.946473340195</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -40880,7 +40880,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-34.42689771425485,172.9374545344364</t>
+          <t>-34.42689248450921,172.93745441988764</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -40925,12 +40925,12 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>-34.426256840497935,172.94555462412265</t>
+          <t>-34.426252614805826,172.94555422528734</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-34.42627514530716,172.9464573855679</t>
+          <t>-34.426272717782986,172.94645715643276</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -41002,7 +41002,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.42701980176388,172.93745720856168</t>
+          <t>-34.42701655571493,172.93745713746225</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -41047,12 +41047,12 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>-34.426339915806004,172.94556246506292</t>
+          <t>-34.42633730846411,172.94556221897255</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-34.42627811228115,172.94645766562198</t>
+          <t>-34.426276583840014,172.94645752135168</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
